--- a/strends-report/examples/columns.xlsx
+++ b/strends-report/examples/columns.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
   <si>
     <t>flow_index</t>
   </si>
@@ -398,6 +398,9 @@
     <t>DWRStation</t>
   </si>
   <si>
+    <t>DWRStationNo</t>
+  </si>
+  <si>
     <t>WeatherCode</t>
   </si>
   <si>
@@ -479,6 +482,9 @@
     <t>Green Algae</t>
   </si>
   <si>
+    <t>TideCode</t>
+  </si>
+  <si>
     <t>Count</t>
   </si>
   <si>
@@ -557,9 +563,6 @@
     <t>CBMeterStart</t>
   </si>
   <si>
-    <t>TideCode</t>
-  </si>
-  <si>
     <t>Raphidophytes</t>
   </si>
   <si>
@@ -578,219 +581,219 @@
     <t>Red Algae</t>
   </si>
   <si>
+    <t>MysidVolume</t>
+  </si>
+  <si>
+    <t>PumpVolume</t>
+  </si>
+  <si>
+    <t>TowDuration</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>CBMeterCheck</t>
+  </si>
+  <si>
+    <t>MeterNumber</t>
+  </si>
+  <si>
+    <t>Silico-flagellates</t>
+  </si>
+  <si>
+    <t>A_ aspera</t>
+  </si>
+  <si>
+    <t>LIMNOSINE</t>
+  </si>
+  <si>
+    <t>flowDebris</t>
+  </si>
+  <si>
+    <t>TowVolume</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Synurophytes</t>
+  </si>
+  <si>
     <t>CBVolume</t>
   </si>
   <si>
-    <t>MysidVolume</t>
-  </si>
-  <si>
-    <t>PumpVolume</t>
-  </si>
-  <si>
-    <t>TowDuration</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>CBMeterCheck</t>
-  </si>
-  <si>
-    <t>MeterNumber</t>
-  </si>
-  <si>
-    <t>Silico-flagellates</t>
+    <t>A_ hwanhaiensis</t>
+  </si>
+  <si>
+    <t>LIMNOSPP</t>
+  </si>
+  <si>
+    <t>SiteDisturbance</t>
+  </si>
+  <si>
+    <t>AMESHAAge0</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Unknown Algae</t>
   </si>
   <si>
     <t>ACARTELA</t>
   </si>
   <si>
-    <t>A_ aspera</t>
-  </si>
-  <si>
-    <t>LIMNOSINE</t>
-  </si>
-  <si>
-    <t>flowDebris</t>
-  </si>
-  <si>
-    <t>TowVolume</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Synurophytes</t>
+    <t>A_ macropsis</t>
+  </si>
+  <si>
+    <t>LIMNOTET</t>
+  </si>
+  <si>
+    <t>AlternateSite</t>
+  </si>
+  <si>
+    <t>AMESHAAge1+</t>
+  </si>
+  <si>
+    <t>SampleComments</t>
+  </si>
+  <si>
+    <t>Unknown Flagellates</t>
   </si>
   <si>
     <t>ACARTIA</t>
   </si>
   <si>
-    <t>A_ hwanhaiensis</t>
-  </si>
-  <si>
-    <t>LIMNOSPP</t>
-  </si>
-  <si>
-    <t>SiteDisturbance</t>
-  </si>
-  <si>
-    <t>AMESHAAge0</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Unknown Algae</t>
+    <t>D_ holmquistae</t>
+  </si>
+  <si>
+    <t>TotalLimno</t>
+  </si>
+  <si>
+    <t>SeineLength</t>
+  </si>
+  <si>
+    <t>SpCnd</t>
+  </si>
+  <si>
+    <t>AMESHA</t>
+  </si>
+  <si>
+    <t>Xanthophytes</t>
   </si>
   <si>
     <t>DIAPTOM</t>
   </si>
   <si>
-    <t>A_ macropsis</t>
-  </si>
-  <si>
-    <t>LIMNOTET</t>
-  </si>
-  <si>
-    <t>AlternateSite</t>
-  </si>
-  <si>
-    <t>AMESHAAge1+</t>
-  </si>
-  <si>
-    <t>SampleComments</t>
-  </si>
-  <si>
-    <t>Unknown Flagellates</t>
+    <t>H_ longirostris</t>
+  </si>
+  <si>
+    <t>OITHDAV</t>
+  </si>
+  <si>
+    <t>SeineWidth</t>
+  </si>
+  <si>
+    <t>ARRGOB</t>
   </si>
   <si>
     <t>EURYTEM</t>
   </si>
   <si>
-    <t>D_ holmquistae</t>
-  </si>
-  <si>
-    <t>TotalLimno</t>
-  </si>
-  <si>
-    <t>SeineLength</t>
-  </si>
-  <si>
-    <t>SpCnd</t>
-  </si>
-  <si>
-    <t>AMESHA</t>
-  </si>
-  <si>
-    <t>Xanthophytes</t>
+    <t>N_ kadiakensis</t>
+  </si>
+  <si>
+    <t>OITHSIM</t>
+  </si>
+  <si>
+    <t>SeineDepth</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>BARSUR</t>
   </si>
   <si>
     <t>OTHCALAD</t>
   </si>
   <si>
-    <t>H_ longirostris</t>
-  </si>
-  <si>
-    <t>OITHDAV</t>
-  </si>
-  <si>
-    <t>SeineWidth</t>
-  </si>
-  <si>
-    <t>ARRGOB</t>
+    <t>N_ mercedis</t>
+  </si>
+  <si>
+    <t>OITHSPP</t>
+  </si>
+  <si>
+    <t>StartMeter</t>
+  </si>
+  <si>
+    <t>BATRAY</t>
   </si>
   <si>
     <t>PDIAPFOR</t>
   </si>
   <si>
-    <t>N_ kadiakensis</t>
-  </si>
-  <si>
-    <t>OITHSIM</t>
-  </si>
-  <si>
-    <t>SeineDepth</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>BARSUR</t>
+    <t>Unidentified mysid</t>
+  </si>
+  <si>
+    <t>OTHCYCAD</t>
+  </si>
+  <si>
+    <t>EndMeter</t>
+  </si>
+  <si>
+    <t>SubstrateCode</t>
+  </si>
+  <si>
+    <t>BAYGOB</t>
   </si>
   <si>
     <t>PDIAPMAR</t>
   </si>
   <si>
-    <t>N_ mercedis</t>
-  </si>
-  <si>
-    <t>OITHSPP</t>
-  </si>
-  <si>
-    <t>StartMeter</t>
-  </si>
-  <si>
-    <t>BATRAY</t>
+    <t>ALLCYCADULTS</t>
+  </si>
+  <si>
+    <t>TotalMeter</t>
+  </si>
+  <si>
+    <t>BAYPIP</t>
   </si>
   <si>
     <t>SINOCAL</t>
   </si>
   <si>
-    <t>Unidentified mysid</t>
-  </si>
-  <si>
-    <t>OTHCYCAD</t>
-  </si>
-  <si>
-    <t>EndMeter</t>
-  </si>
-  <si>
-    <t>SubstrateCode</t>
-  </si>
-  <si>
-    <t>BAYGOB</t>
+    <t>HARPACT</t>
+  </si>
+  <si>
+    <t>VolumeSeined</t>
+  </si>
+  <si>
+    <t>BIGSKA</t>
   </si>
   <si>
     <t>TORTANUS</t>
   </si>
   <si>
-    <t>ALLCYCADULTS</t>
-  </si>
-  <si>
-    <t>TotalMeter</t>
-  </si>
-  <si>
-    <t>BAYPIP</t>
+    <t>CYCJUV</t>
+  </si>
+  <si>
+    <t>BLABUL</t>
   </si>
   <si>
     <t>ALLCALADULTS</t>
   </si>
   <si>
-    <t>HARPACT</t>
-  </si>
-  <si>
-    <t>VolumeSeined</t>
-  </si>
-  <si>
-    <t>BIGSKA</t>
+    <t>LIMNOJUV</t>
+  </si>
+  <si>
+    <t>BLACRA</t>
   </si>
   <si>
     <t>AVERNAL</t>
   </si>
   <si>
-    <t>CYCJUV</t>
-  </si>
-  <si>
-    <t>BLABUL</t>
-  </si>
-  <si>
-    <t>LIMNOJUV</t>
-  </si>
-  <si>
-    <t>BLACRA</t>
-  </si>
-  <si>
     <t>OITHJUV</t>
   </si>
   <si>
@@ -848,99 +851,99 @@
     <t>BROSSH</t>
   </si>
   <si>
+    <t>ALLCOPNAUP</t>
+  </si>
+  <si>
+    <t>CALGRU</t>
+  </si>
+  <si>
+    <t>ASPLANCH</t>
+  </si>
+  <si>
+    <t>CALHAL</t>
+  </si>
+  <si>
     <t>CALJUV</t>
   </si>
   <si>
-    <t>ALLCOPNAUP</t>
-  </si>
-  <si>
-    <t>CALGRU</t>
+    <t>KERATELA</t>
+  </si>
+  <si>
+    <t>CALLIZ</t>
   </si>
   <si>
     <t>EURYJUV</t>
   </si>
   <si>
-    <t>ASPLANCH</t>
-  </si>
-  <si>
-    <t>CALHAL</t>
+    <t>OTHROT</t>
+  </si>
+  <si>
+    <t>CALSUR</t>
   </si>
   <si>
     <t>OTHCALJUV</t>
   </si>
   <si>
-    <t>KERATELA</t>
-  </si>
-  <si>
-    <t>CALLIZ</t>
+    <t>POLYARTH</t>
+  </si>
+  <si>
+    <t>CALTON</t>
   </si>
   <si>
     <t>PDIAPJUV</t>
   </si>
   <si>
-    <t>OTHROT</t>
-  </si>
-  <si>
-    <t>CALSUR</t>
+    <t>SYNCH</t>
+  </si>
+  <si>
+    <t>CHACAT</t>
   </si>
   <si>
     <t>SINOCALJUV</t>
   </si>
   <si>
-    <t>POLYARTH</t>
-  </si>
-  <si>
-    <t>CALTON</t>
+    <t>SYNCHBIC</t>
+  </si>
+  <si>
+    <t>CHAGOB</t>
   </si>
   <si>
     <t>ASINEJUV</t>
   </si>
   <si>
-    <t>SYNCH</t>
-  </si>
-  <si>
-    <t>CHACAT</t>
+    <t>TRICHO</t>
+  </si>
+  <si>
+    <t>CHEGOB</t>
   </si>
   <si>
     <t>ACARJUV</t>
   </si>
   <si>
-    <t>SYNCHBIC</t>
-  </si>
-  <si>
-    <t>CHAGOB</t>
+    <t>ALLROTIFERS</t>
+  </si>
+  <si>
+    <t>CHISAL</t>
   </si>
   <si>
     <t>DIAPTJUV</t>
   </si>
   <si>
-    <t>TRICHO</t>
-  </si>
-  <si>
-    <t>CHEGOB</t>
+    <t>BARNNAUP</t>
+  </si>
+  <si>
+    <t>COHSAL</t>
   </si>
   <si>
     <t>TORTJUV</t>
   </si>
   <si>
-    <t>ALLROTIFERS</t>
-  </si>
-  <si>
-    <t>CHISAL</t>
+    <t>COMCAR</t>
   </si>
   <si>
     <t>ALLCALJUV</t>
   </si>
   <si>
-    <t>BARNNAUP</t>
-  </si>
-  <si>
-    <t>COHSAL</t>
-  </si>
-  <si>
-    <t>COMCAR</t>
-  </si>
-  <si>
     <t>DELSMEAge0</t>
   </si>
   <si>
@@ -971,39 +974,39 @@
     <t>FLASPP</t>
   </si>
   <si>
+    <t>GOLDFI</t>
+  </si>
+  <si>
+    <t>GOLSHI</t>
+  </si>
+  <si>
     <t>BOSMINA</t>
   </si>
   <si>
-    <t>GOLDFI</t>
+    <t>GRESTU</t>
   </si>
   <si>
     <t>DAPHNIA</t>
   </si>
   <si>
-    <t>GOLSHI</t>
+    <t>GRESUN</t>
   </si>
   <si>
     <t>DIAPHAN</t>
   </si>
   <si>
-    <t>GRESTU</t>
+    <t>HARDHE</t>
   </si>
   <si>
     <t>OTHCLADO</t>
   </si>
   <si>
-    <t>GRESUN</t>
+    <t>HITCH</t>
   </si>
   <si>
     <t>ALLCLADOCERA</t>
   </si>
   <si>
-    <t>HARDHE</t>
-  </si>
-  <si>
-    <t>HITCH</t>
-  </si>
-  <si>
     <t>HORTUR</t>
   </si>
   <si>
@@ -1028,13 +1031,13 @@
     <t>LEOSHA</t>
   </si>
   <si>
+    <t>LINGCO</t>
+  </si>
+  <si>
+    <t>LONSMEAge0</t>
+  </si>
+  <si>
     <t>CRABZOEA</t>
-  </si>
-  <si>
-    <t>LINGCO</t>
-  </si>
-  <si>
-    <t>LONSMEAge0</t>
   </si>
   <si>
     <t>LONSMEAge1+</t>
@@ -2218,74 +2221,74 @@
         <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J9" t="s">
         <v>66</v>
       </c>
       <c r="K9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s"/>
       <c r="N9" t="s"/>
       <c r="O9" t="s"/>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V9" t="s">
         <v>55</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y9" t="s"/>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s"/>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J10" t="s">
         <v>119</v>
@@ -2298,10 +2301,10 @@
       <c r="N10" t="s"/>
       <c r="O10" t="s"/>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s">
@@ -2309,43 +2312,43 @@
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V10" t="s"/>
       <c r="W10" t="s"/>
       <c r="X10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y10" t="s"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s"/>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
         <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I11" t="s">
         <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s">
@@ -2355,10 +2358,10 @@
       <c r="N11" t="s"/>
       <c r="O11" t="s"/>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s">
@@ -2366,28 +2369,28 @@
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V11" t="s"/>
       <c r="W11" t="s"/>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s"/>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="F12" t="s">
         <v>119</v>
@@ -2396,13 +2399,13 @@
         <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
@@ -2412,54 +2415,54 @@
       <c r="N12" t="s"/>
       <c r="O12" t="s"/>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q12" t="s">
         <v>55</v>
       </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V12" t="s"/>
       <c r="W12" t="s"/>
       <c r="X12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Y12" t="s"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s"/>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H13" t="s">
         <v>119</v>
       </c>
       <c r="I13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -2467,7 +2470,7 @@
       <c r="N13" t="s"/>
       <c r="O13" t="s"/>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -2477,35 +2480,35 @@
       <c r="V13" t="s"/>
       <c r="W13" t="s"/>
       <c r="X13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Y13" t="s"/>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s"/>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J14" t="s">
         <v>57</v>
@@ -2516,7 +2519,7 @@
       <c r="N14" t="s"/>
       <c r="O14" t="s"/>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
@@ -2526,7 +2529,7 @@
       <c r="V14" t="s"/>
       <c r="W14" t="s"/>
       <c r="X14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s"/>
     </row>
@@ -2534,25 +2537,25 @@
       <c r="A15" t="s"/>
       <c r="B15" t="s"/>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J15" t="s">
         <v>75</v>
@@ -2563,7 +2566,7 @@
       <c r="N15" t="s"/>
       <c r="O15" t="s"/>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
@@ -2573,7 +2576,7 @@
       <c r="V15" t="s"/>
       <c r="W15" t="s"/>
       <c r="X15" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s"/>
     </row>
@@ -2584,19 +2587,19 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I16" t="s">
         <v>112</v>
@@ -2610,7 +2613,7 @@
       <c r="N16" t="s"/>
       <c r="O16" t="s"/>
       <c r="P16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2620,7 +2623,7 @@
       <c r="V16" t="s"/>
       <c r="W16" t="s"/>
       <c r="X16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s"/>
     </row>
@@ -2628,13 +2631,13 @@
       <c r="A17" t="s"/>
       <c r="B17" t="s"/>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F17" t="s">
         <v>188</v>
@@ -2646,7 +2649,7 @@
         <v>190</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J17" t="s">
         <v>191</v>
@@ -2675,28 +2678,28 @@
       <c r="A18" t="s"/>
       <c r="B18" t="s"/>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
         <v>194</v>
       </c>
       <c r="E18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" t="s">
         <v>195</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>196</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>197</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
         <v>198</v>
-      </c>
-      <c r="I18" t="s">
-        <v>144</v>
-      </c>
-      <c r="J18" t="s">
-        <v>199</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s"/>
@@ -2714,7 +2717,7 @@
       <c r="V18" t="s"/>
       <c r="W18" t="s"/>
       <c r="X18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s"/>
     </row>
@@ -2723,25 +2726,25 @@
       <c r="B19" t="s"/>
       <c r="C19" t="s"/>
       <c r="D19" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" t="s">
         <v>201</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>202</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>203</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>204</v>
-      </c>
-      <c r="H19" t="s">
-        <v>205</v>
       </c>
       <c r="I19" t="s">
         <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -2757,7 +2760,7 @@
       <c r="V19" t="s"/>
       <c r="W19" t="s"/>
       <c r="X19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s"/>
     </row>
@@ -2766,25 +2769,25 @@
       <c r="B20" t="s"/>
       <c r="C20" t="s"/>
       <c r="D20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" t="s">
         <v>208</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>209</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>210</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>211</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
         <v>212</v>
-      </c>
-      <c r="I20" t="s">
-        <v>170</v>
-      </c>
-      <c r="J20" t="s">
-        <v>213</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -2800,7 +2803,7 @@
       <c r="V20" t="s"/>
       <c r="W20" t="s"/>
       <c r="X20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y20" t="s"/>
     </row>
@@ -2809,25 +2812,25 @@
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
       <c r="D21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" t="s">
         <v>215</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>216</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>217</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>218</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>219</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>220</v>
-      </c>
-      <c r="J21" t="s">
-        <v>221</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -2850,25 +2853,25 @@
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
       <c r="D22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" t="s">
         <v>222</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>223</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>224</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>225</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" t="s">
         <v>226</v>
-      </c>
-      <c r="I22" t="s">
-        <v>139</v>
-      </c>
-      <c r="J22" t="s">
-        <v>227</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -2892,22 +2895,22 @@
       <c r="C23" t="s"/>
       <c r="D23" t="s"/>
       <c r="E23" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" t="s">
         <v>228</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>229</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>230</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>231</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>232</v>
-      </c>
-      <c r="J23" t="s">
-        <v>233</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -2931,22 +2934,22 @@
       <c r="C24" t="s"/>
       <c r="D24" t="s"/>
       <c r="E24" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" t="s">
         <v>234</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>235</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>236</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" t="s">
         <v>237</v>
-      </c>
-      <c r="I24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J24" t="s">
-        <v>238</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -2970,22 +2973,22 @@
       <c r="C25" t="s"/>
       <c r="D25" t="s"/>
       <c r="E25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" t="s">
         <v>239</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>240</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>241</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>242</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>243</v>
-      </c>
-      <c r="J25" t="s">
-        <v>244</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -3009,20 +3012,20 @@
       <c r="C26" t="s"/>
       <c r="D26" t="s"/>
       <c r="E26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F26" t="s"/>
       <c r="G26" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" t="s">
         <v>246</v>
-      </c>
-      <c r="H26" t="s">
-        <v>247</v>
       </c>
       <c r="I26" t="s">
         <v>88</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -3046,20 +3049,20 @@
       <c r="C27" t="s"/>
       <c r="D27" t="s"/>
       <c r="E27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F27" t="s"/>
       <c r="G27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H27" t="s">
         <v>105</v>
       </c>
       <c r="I27" t="s">
+        <v>250</v>
+      </c>
+      <c r="J27" t="s">
         <v>251</v>
-      </c>
-      <c r="J27" t="s">
-        <v>252</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3083,18 +3086,18 @@
       <c r="C28" t="s"/>
       <c r="D28" t="s"/>
       <c r="E28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F28" t="s"/>
       <c r="G28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H28" t="s">
         <v>39</v>
       </c>
       <c r="I28" t="s"/>
       <c r="J28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -3118,7 +3121,7 @@
       <c r="C29" t="s"/>
       <c r="D29" t="s"/>
       <c r="E29" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="F29" t="s"/>
       <c r="G29" t="s">
@@ -3153,18 +3156,18 @@
       <c r="C30" t="s"/>
       <c r="D30" t="s"/>
       <c r="E30" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="F30" t="s"/>
       <c r="G30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H30" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I30" t="s"/>
       <c r="J30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -3188,18 +3191,18 @@
       <c r="C31" t="s"/>
       <c r="D31" t="s"/>
       <c r="E31" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F31" t="s"/>
       <c r="G31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I31" t="s"/>
       <c r="J31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -3223,18 +3226,18 @@
       <c r="C32" t="s"/>
       <c r="D32" t="s"/>
       <c r="E32" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="F32" t="s"/>
       <c r="G32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I32" t="s"/>
       <c r="J32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
@@ -3258,18 +3261,18 @@
       <c r="C33" t="s"/>
       <c r="D33" t="s"/>
       <c r="E33" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="F33" t="s"/>
       <c r="G33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H33" t="s">
         <v>92</v>
       </c>
       <c r="I33" t="s"/>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -3293,18 +3296,18 @@
       <c r="C34" t="s"/>
       <c r="D34" t="s"/>
       <c r="E34" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F34" t="s"/>
       <c r="G34" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I34" t="s"/>
       <c r="J34" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -3328,18 +3331,18 @@
       <c r="C35" t="s"/>
       <c r="D35" t="s"/>
       <c r="E35" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F35" t="s"/>
       <c r="G35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I35" t="s"/>
       <c r="J35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -3363,16 +3366,16 @@
       <c r="C36" t="s"/>
       <c r="D36" t="s"/>
       <c r="E36" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F36" t="s"/>
       <c r="G36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H36" t="s"/>
       <c r="I36" t="s"/>
       <c r="J36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -3396,16 +3399,16 @@
       <c r="C37" t="s"/>
       <c r="D37" t="s"/>
       <c r="E37" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s"/>
       <c r="G37" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H37" t="s"/>
       <c r="I37" t="s"/>
       <c r="J37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -3429,7 +3432,7 @@
       <c r="C38" t="s"/>
       <c r="D38" t="s"/>
       <c r="E38" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="F38" t="s"/>
       <c r="G38" t="s">
@@ -3462,16 +3465,16 @@
       <c r="C39" t="s"/>
       <c r="D39" t="s"/>
       <c r="E39" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="F39" t="s"/>
       <c r="G39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H39" t="s"/>
       <c r="I39" t="s"/>
       <c r="J39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -3495,16 +3498,16 @@
       <c r="C40" t="s"/>
       <c r="D40" t="s"/>
       <c r="E40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F40" t="s"/>
       <c r="G40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H40" t="s"/>
       <c r="I40" t="s"/>
       <c r="J40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -3528,16 +3531,16 @@
       <c r="C41" t="s"/>
       <c r="D41" t="s"/>
       <c r="E41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F41" t="s"/>
       <c r="G41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H41" t="s"/>
       <c r="I41" t="s"/>
       <c r="J41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -3561,16 +3564,16 @@
       <c r="C42" t="s"/>
       <c r="D42" t="s"/>
       <c r="E42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F42" t="s"/>
       <c r="G42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H42" t="s"/>
       <c r="I42" t="s"/>
       <c r="J42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -3594,16 +3597,16 @@
       <c r="C43" t="s"/>
       <c r="D43" t="s"/>
       <c r="E43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F43" t="s"/>
       <c r="G43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H43" t="s"/>
       <c r="I43" t="s"/>
       <c r="J43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -3627,16 +3630,16 @@
       <c r="C44" t="s"/>
       <c r="D44" t="s"/>
       <c r="E44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F44" t="s"/>
       <c r="G44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H44" t="s"/>
       <c r="I44" t="s"/>
       <c r="J44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -3660,16 +3663,16 @@
       <c r="C45" t="s"/>
       <c r="D45" t="s"/>
       <c r="E45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F45" t="s"/>
       <c r="G45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H45" t="s"/>
       <c r="I45" t="s"/>
       <c r="J45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -3693,16 +3696,16 @@
       <c r="C46" t="s"/>
       <c r="D46" t="s"/>
       <c r="E46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F46" t="s"/>
       <c r="G46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H46" t="s"/>
       <c r="I46" t="s"/>
       <c r="J46" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -3726,16 +3729,16 @@
       <c r="C47" t="s"/>
       <c r="D47" t="s"/>
       <c r="E47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F47" t="s"/>
       <c r="G47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H47" t="s"/>
       <c r="I47" t="s"/>
       <c r="J47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s"/>
@@ -3759,7 +3762,7 @@
       <c r="C48" t="s"/>
       <c r="D48" t="s"/>
       <c r="E48" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="F48" t="s"/>
       <c r="G48" t="s"/>
@@ -3790,14 +3793,14 @@
       <c r="C49" t="s"/>
       <c r="D49" t="s"/>
       <c r="E49" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="F49" t="s"/>
       <c r="G49" t="s"/>
       <c r="H49" t="s"/>
       <c r="I49" t="s"/>
       <c r="J49" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -3821,14 +3824,14 @@
       <c r="C50" t="s"/>
       <c r="D50" t="s"/>
       <c r="E50" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F50" t="s"/>
       <c r="G50" t="s"/>
       <c r="H50" t="s"/>
       <c r="I50" t="s"/>
       <c r="J50" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s"/>
@@ -3852,14 +3855,14 @@
       <c r="C51" t="s"/>
       <c r="D51" t="s"/>
       <c r="E51" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F51" t="s"/>
       <c r="G51" t="s"/>
       <c r="H51" t="s"/>
       <c r="I51" t="s"/>
       <c r="J51" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -3883,14 +3886,14 @@
       <c r="C52" t="s"/>
       <c r="D52" t="s"/>
       <c r="E52" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F52" t="s"/>
       <c r="G52" t="s"/>
       <c r="H52" t="s"/>
       <c r="I52" t="s"/>
       <c r="J52" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -3914,14 +3917,14 @@
       <c r="C53" t="s"/>
       <c r="D53" t="s"/>
       <c r="E53" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F53" t="s"/>
       <c r="G53" t="s"/>
       <c r="H53" t="s"/>
       <c r="I53" t="s"/>
       <c r="J53" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -3945,14 +3948,14 @@
       <c r="C54" t="s"/>
       <c r="D54" t="s"/>
       <c r="E54" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F54" t="s"/>
       <c r="G54" t="s"/>
       <c r="H54" t="s"/>
       <c r="I54" t="s"/>
       <c r="J54" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -3976,14 +3979,14 @@
       <c r="C55" t="s"/>
       <c r="D55" t="s"/>
       <c r="E55" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F55" t="s"/>
       <c r="G55" t="s"/>
       <c r="H55" t="s"/>
       <c r="I55" t="s"/>
       <c r="J55" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -4007,14 +4010,14 @@
       <c r="C56" t="s"/>
       <c r="D56" t="s"/>
       <c r="E56" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F56" t="s"/>
       <c r="G56" t="s"/>
       <c r="H56" t="s"/>
       <c r="I56" t="s"/>
       <c r="J56" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -4038,14 +4041,14 @@
       <c r="C57" t="s"/>
       <c r="D57" t="s"/>
       <c r="E57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F57" t="s"/>
       <c r="G57" t="s"/>
       <c r="H57" t="s"/>
       <c r="I57" t="s"/>
       <c r="J57" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -4069,14 +4072,14 @@
       <c r="C58" t="s"/>
       <c r="D58" t="s"/>
       <c r="E58" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F58" t="s"/>
       <c r="G58" t="s"/>
       <c r="H58" t="s"/>
       <c r="I58" t="s"/>
       <c r="J58" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -4100,7 +4103,7 @@
       <c r="C59" t="s"/>
       <c r="D59" t="s"/>
       <c r="E59" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="F59" t="s"/>
       <c r="G59" t="s"/>
@@ -4131,14 +4134,14 @@
       <c r="C60" t="s"/>
       <c r="D60" t="s"/>
       <c r="E60" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="F60" t="s"/>
       <c r="G60" t="s"/>
       <c r="H60" t="s"/>
       <c r="I60" t="s"/>
       <c r="J60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -4162,14 +4165,14 @@
       <c r="C61" t="s"/>
       <c r="D61" t="s"/>
       <c r="E61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F61" t="s"/>
       <c r="G61" t="s"/>
       <c r="H61" t="s"/>
       <c r="I61" t="s"/>
       <c r="J61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -4193,14 +4196,14 @@
       <c r="C62" t="s"/>
       <c r="D62" t="s"/>
       <c r="E62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F62" t="s"/>
       <c r="G62" t="s"/>
       <c r="H62" t="s"/>
       <c r="I62" t="s"/>
       <c r="J62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
@@ -4224,14 +4227,14 @@
       <c r="C63" t="s"/>
       <c r="D63" t="s"/>
       <c r="E63" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F63" t="s"/>
       <c r="G63" t="s"/>
       <c r="H63" t="s"/>
       <c r="I63" t="s"/>
       <c r="J63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -4255,7 +4258,7 @@
       <c r="C64" t="s"/>
       <c r="D64" t="s"/>
       <c r="E64" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="F64" t="s"/>
       <c r="G64" t="s"/>
@@ -4286,14 +4289,14 @@
       <c r="C65" t="s"/>
       <c r="D65" t="s"/>
       <c r="E65" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="F65" t="s"/>
       <c r="G65" t="s"/>
       <c r="H65" t="s"/>
       <c r="I65" t="s"/>
       <c r="J65" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -4317,14 +4320,14 @@
       <c r="C66" t="s"/>
       <c r="D66" t="s"/>
       <c r="E66" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F66" t="s"/>
       <c r="G66" t="s"/>
       <c r="H66" t="s"/>
       <c r="I66" t="s"/>
       <c r="J66" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -4348,14 +4351,14 @@
       <c r="C67" t="s"/>
       <c r="D67" t="s"/>
       <c r="E67" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F67" t="s"/>
       <c r="G67" t="s"/>
       <c r="H67" t="s"/>
       <c r="I67" t="s"/>
       <c r="J67" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -4379,14 +4382,14 @@
       <c r="C68" t="s"/>
       <c r="D68" t="s"/>
       <c r="E68" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F68" t="s"/>
       <c r="G68" t="s"/>
       <c r="H68" t="s"/>
       <c r="I68" t="s"/>
       <c r="J68" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -4410,14 +4413,14 @@
       <c r="C69" t="s"/>
       <c r="D69" t="s"/>
       <c r="E69" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F69" t="s"/>
       <c r="G69" t="s"/>
       <c r="H69" t="s"/>
       <c r="I69" t="s"/>
       <c r="J69" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -4441,14 +4444,14 @@
       <c r="C70" t="s"/>
       <c r="D70" t="s"/>
       <c r="E70" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F70" t="s"/>
       <c r="G70" t="s"/>
       <c r="H70" t="s"/>
       <c r="I70" t="s"/>
       <c r="J70" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -4472,14 +4475,14 @@
       <c r="C71" t="s"/>
       <c r="D71" t="s"/>
       <c r="E71" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F71" t="s"/>
       <c r="G71" t="s"/>
       <c r="H71" t="s"/>
       <c r="I71" t="s"/>
       <c r="J71" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
@@ -4503,14 +4506,14 @@
       <c r="C72" t="s"/>
       <c r="D72" t="s"/>
       <c r="E72" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F72" t="s"/>
       <c r="G72" t="s"/>
       <c r="H72" t="s"/>
       <c r="I72" t="s"/>
       <c r="J72" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s"/>
@@ -4534,7 +4537,7 @@
       <c r="C73" t="s"/>
       <c r="D73" t="s"/>
       <c r="E73" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="F73" t="s"/>
       <c r="G73" t="s"/>
@@ -4564,7 +4567,9 @@
       <c r="B74" t="s"/>
       <c r="C74" t="s"/>
       <c r="D74" t="s"/>
-      <c r="E74" t="s"/>
+      <c r="E74" t="s">
+        <v>304</v>
+      </c>
       <c r="F74" t="s"/>
       <c r="G74" t="s"/>
       <c r="H74" t="s"/>
@@ -4593,13 +4598,15 @@
       <c r="B75" t="s"/>
       <c r="C75" t="s"/>
       <c r="D75" t="s"/>
-      <c r="E75" t="s"/>
+      <c r="E75" t="s">
+        <v>340</v>
+      </c>
       <c r="F75" t="s"/>
       <c r="G75" t="s"/>
       <c r="H75" t="s"/>
       <c r="I75" t="s"/>
       <c r="J75" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s"/>
@@ -4628,7 +4635,7 @@
       <c r="H76" t="s"/>
       <c r="I76" t="s"/>
       <c r="J76" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -4657,7 +4664,7 @@
       <c r="H77" t="s"/>
       <c r="I77" t="s"/>
       <c r="J77" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s"/>
@@ -4686,7 +4693,7 @@
       <c r="H78" t="s"/>
       <c r="I78" t="s"/>
       <c r="J78" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s"/>
@@ -4715,7 +4722,7 @@
       <c r="H79" t="s"/>
       <c r="I79" t="s"/>
       <c r="J79" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s"/>
@@ -4744,7 +4751,7 @@
       <c r="H80" t="s"/>
       <c r="I80" t="s"/>
       <c r="J80" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s"/>
@@ -4773,7 +4780,7 @@
       <c r="H81" t="s"/>
       <c r="I81" t="s"/>
       <c r="J81" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s"/>
@@ -4802,7 +4809,7 @@
       <c r="H82" t="s"/>
       <c r="I82" t="s"/>
       <c r="J82" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s"/>
@@ -4831,7 +4838,7 @@
       <c r="H83" t="s"/>
       <c r="I83" t="s"/>
       <c r="J83" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K83" t="s"/>
       <c r="L83" t="s"/>
@@ -4860,7 +4867,7 @@
       <c r="H84" t="s"/>
       <c r="I84" t="s"/>
       <c r="J84" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s"/>
@@ -4889,7 +4896,7 @@
       <c r="H85" t="s"/>
       <c r="I85" t="s"/>
       <c r="J85" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K85" t="s"/>
       <c r="L85" t="s"/>
@@ -4918,7 +4925,7 @@
       <c r="H86" t="s"/>
       <c r="I86" t="s"/>
       <c r="J86" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s"/>
@@ -4947,7 +4954,7 @@
       <c r="H87" t="s"/>
       <c r="I87" t="s"/>
       <c r="J87" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s"/>
@@ -4976,7 +4983,7 @@
       <c r="H88" t="s"/>
       <c r="I88" t="s"/>
       <c r="J88" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s"/>
@@ -5005,7 +5012,7 @@
       <c r="H89" t="s"/>
       <c r="I89" t="s"/>
       <c r="J89" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s"/>
@@ -5034,7 +5041,7 @@
       <c r="H90" t="s"/>
       <c r="I90" t="s"/>
       <c r="J90" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K90" t="s"/>
       <c r="L90" t="s"/>
@@ -5063,7 +5070,7 @@
       <c r="H91" t="s"/>
       <c r="I91" t="s"/>
       <c r="J91" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s"/>
@@ -5092,7 +5099,7 @@
       <c r="H92" t="s"/>
       <c r="I92" t="s"/>
       <c r="J92" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s"/>
@@ -5121,7 +5128,7 @@
       <c r="H93" t="s"/>
       <c r="I93" t="s"/>
       <c r="J93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s"/>
@@ -5150,7 +5157,7 @@
       <c r="H94" t="s"/>
       <c r="I94" t="s"/>
       <c r="J94" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K94" t="s"/>
       <c r="L94" t="s"/>
@@ -5179,7 +5186,7 @@
       <c r="H95" t="s"/>
       <c r="I95" t="s"/>
       <c r="J95" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K95" t="s"/>
       <c r="L95" t="s"/>
@@ -5208,7 +5215,7 @@
       <c r="H96" t="s"/>
       <c r="I96" t="s"/>
       <c r="J96" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K96" t="s"/>
       <c r="L96" t="s"/>
@@ -5237,7 +5244,7 @@
       <c r="H97" t="s"/>
       <c r="I97" t="s"/>
       <c r="J97" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K97" t="s"/>
       <c r="L97" t="s"/>
@@ -5266,7 +5273,7 @@
       <c r="H98" t="s"/>
       <c r="I98" t="s"/>
       <c r="J98" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K98" t="s"/>
       <c r="L98" t="s"/>
@@ -5295,7 +5302,7 @@
       <c r="H99" t="s"/>
       <c r="I99" t="s"/>
       <c r="J99" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K99" t="s"/>
       <c r="L99" t="s"/>
@@ -5324,7 +5331,7 @@
       <c r="H100" t="s"/>
       <c r="I100" t="s"/>
       <c r="J100" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K100" t="s"/>
       <c r="L100" t="s"/>
@@ -5353,7 +5360,7 @@
       <c r="H101" t="s"/>
       <c r="I101" t="s"/>
       <c r="J101" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K101" t="s"/>
       <c r="L101" t="s"/>
@@ -5382,7 +5389,7 @@
       <c r="H102" t="s"/>
       <c r="I102" t="s"/>
       <c r="J102" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K102" t="s"/>
       <c r="L102" t="s"/>
@@ -5411,7 +5418,7 @@
       <c r="H103" t="s"/>
       <c r="I103" t="s"/>
       <c r="J103" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K103" t="s"/>
       <c r="L103" t="s"/>
@@ -5440,7 +5447,7 @@
       <c r="H104" t="s"/>
       <c r="I104" t="s"/>
       <c r="J104" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K104" t="s"/>
       <c r="L104" t="s"/>
@@ -5469,7 +5476,7 @@
       <c r="H105" t="s"/>
       <c r="I105" t="s"/>
       <c r="J105" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K105" t="s"/>
       <c r="L105" t="s"/>
@@ -5498,7 +5505,7 @@
       <c r="H106" t="s"/>
       <c r="I106" t="s"/>
       <c r="J106" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K106" t="s"/>
       <c r="L106" t="s"/>
@@ -5527,7 +5534,7 @@
       <c r="H107" t="s"/>
       <c r="I107" t="s"/>
       <c r="J107" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K107" t="s"/>
       <c r="L107" t="s"/>
@@ -5556,7 +5563,7 @@
       <c r="H108" t="s"/>
       <c r="I108" t="s"/>
       <c r="J108" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K108" t="s"/>
       <c r="L108" t="s"/>
@@ -5585,7 +5592,7 @@
       <c r="H109" t="s"/>
       <c r="I109" t="s"/>
       <c r="J109" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K109" t="s"/>
       <c r="L109" t="s"/>
@@ -5614,7 +5621,7 @@
       <c r="H110" t="s"/>
       <c r="I110" t="s"/>
       <c r="J110" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K110" t="s"/>
       <c r="L110" t="s"/>
@@ -5643,7 +5650,7 @@
       <c r="H111" t="s"/>
       <c r="I111" t="s"/>
       <c r="J111" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K111" t="s"/>
       <c r="L111" t="s"/>
@@ -5672,7 +5679,7 @@
       <c r="H112" t="s"/>
       <c r="I112" t="s"/>
       <c r="J112" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K112" t="s"/>
       <c r="L112" t="s"/>
@@ -5701,7 +5708,7 @@
       <c r="H113" t="s"/>
       <c r="I113" t="s"/>
       <c r="J113" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K113" t="s"/>
       <c r="L113" t="s"/>
@@ -5730,7 +5737,7 @@
       <c r="H114" t="s"/>
       <c r="I114" t="s"/>
       <c r="J114" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K114" t="s"/>
       <c r="L114" t="s"/>
@@ -5759,7 +5766,7 @@
       <c r="H115" t="s"/>
       <c r="I115" t="s"/>
       <c r="J115" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K115" t="s"/>
       <c r="L115" t="s"/>
@@ -5788,7 +5795,7 @@
       <c r="H116" t="s"/>
       <c r="I116" t="s"/>
       <c r="J116" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K116" t="s"/>
       <c r="L116" t="s"/>
@@ -5817,7 +5824,7 @@
       <c r="H117" t="s"/>
       <c r="I117" t="s"/>
       <c r="J117" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K117" t="s"/>
       <c r="L117" t="s"/>
@@ -5846,7 +5853,7 @@
       <c r="H118" t="s"/>
       <c r="I118" t="s"/>
       <c r="J118" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K118" t="s"/>
       <c r="L118" t="s"/>
@@ -5875,7 +5882,7 @@
       <c r="H119" t="s"/>
       <c r="I119" t="s"/>
       <c r="J119" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K119" t="s"/>
       <c r="L119" t="s"/>
@@ -5904,7 +5911,7 @@
       <c r="H120" t="s"/>
       <c r="I120" t="s"/>
       <c r="J120" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K120" t="s"/>
       <c r="L120" t="s"/>
@@ -5933,7 +5940,7 @@
       <c r="H121" t="s"/>
       <c r="I121" t="s"/>
       <c r="J121" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K121" t="s"/>
       <c r="L121" t="s"/>
@@ -5962,7 +5969,7 @@
       <c r="H122" t="s"/>
       <c r="I122" t="s"/>
       <c r="J122" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K122" t="s"/>
       <c r="L122" t="s"/>
@@ -5991,7 +5998,7 @@
       <c r="H123" t="s"/>
       <c r="I123" t="s"/>
       <c r="J123" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K123" t="s"/>
       <c r="L123" t="s"/>
@@ -6020,7 +6027,7 @@
       <c r="H124" t="s"/>
       <c r="I124" t="s"/>
       <c r="J124" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K124" t="s"/>
       <c r="L124" t="s"/>
@@ -6049,7 +6056,7 @@
       <c r="H125" t="s"/>
       <c r="I125" t="s"/>
       <c r="J125" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K125" t="s"/>
       <c r="L125" t="s"/>
@@ -6078,7 +6085,7 @@
       <c r="H126" t="s"/>
       <c r="I126" t="s"/>
       <c r="J126" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K126" t="s"/>
       <c r="L126" t="s"/>
@@ -6107,7 +6114,7 @@
       <c r="H127" t="s"/>
       <c r="I127" t="s"/>
       <c r="J127" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K127" t="s"/>
       <c r="L127" t="s"/>
@@ -6136,7 +6143,7 @@
       <c r="H128" t="s"/>
       <c r="I128" t="s"/>
       <c r="J128" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K128" t="s"/>
       <c r="L128" t="s"/>
@@ -6165,7 +6172,7 @@
       <c r="H129" t="s"/>
       <c r="I129" t="s"/>
       <c r="J129" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K129" t="s"/>
       <c r="L129" t="s"/>
@@ -6194,7 +6201,7 @@
       <c r="H130" t="s"/>
       <c r="I130" t="s"/>
       <c r="J130" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K130" t="s"/>
       <c r="L130" t="s"/>
@@ -6223,7 +6230,7 @@
       <c r="H131" t="s"/>
       <c r="I131" t="s"/>
       <c r="J131" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K131" t="s"/>
       <c r="L131" t="s"/>
@@ -6252,7 +6259,7 @@
       <c r="H132" t="s"/>
       <c r="I132" t="s"/>
       <c r="J132" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K132" t="s"/>
       <c r="L132" t="s"/>
@@ -6281,7 +6288,7 @@
       <c r="H133" t="s"/>
       <c r="I133" t="s"/>
       <c r="J133" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K133" t="s"/>
       <c r="L133" t="s"/>
@@ -6310,7 +6317,7 @@
       <c r="H134" t="s"/>
       <c r="I134" t="s"/>
       <c r="J134" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K134" t="s"/>
       <c r="L134" t="s"/>
@@ -6339,7 +6346,7 @@
       <c r="H135" t="s"/>
       <c r="I135" t="s"/>
       <c r="J135" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K135" t="s"/>
       <c r="L135" t="s"/>
@@ -6368,7 +6375,7 @@
       <c r="H136" t="s"/>
       <c r="I136" t="s"/>
       <c r="J136" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K136" t="s"/>
       <c r="L136" t="s"/>
@@ -6397,7 +6404,7 @@
       <c r="H137" t="s"/>
       <c r="I137" t="s"/>
       <c r="J137" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K137" t="s"/>
       <c r="L137" t="s"/>
@@ -6426,7 +6433,7 @@
       <c r="H138" t="s"/>
       <c r="I138" t="s"/>
       <c r="J138" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K138" t="s"/>
       <c r="L138" t="s"/>
@@ -6455,7 +6462,7 @@
       <c r="H139" t="s"/>
       <c r="I139" t="s"/>
       <c r="J139" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K139" t="s"/>
       <c r="L139" t="s"/>
@@ -6484,7 +6491,7 @@
       <c r="H140" t="s"/>
       <c r="I140" t="s"/>
       <c r="J140" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K140" t="s"/>
       <c r="L140" t="s"/>
@@ -6513,7 +6520,7 @@
       <c r="H141" t="s"/>
       <c r="I141" t="s"/>
       <c r="J141" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K141" t="s"/>
       <c r="L141" t="s"/>
@@ -6542,7 +6549,7 @@
       <c r="H142" t="s"/>
       <c r="I142" t="s"/>
       <c r="J142" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K142" t="s"/>
       <c r="L142" t="s"/>
@@ -6571,7 +6578,7 @@
       <c r="H143" t="s"/>
       <c r="I143" t="s"/>
       <c r="J143" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K143" t="s"/>
       <c r="L143" t="s"/>
@@ -6600,7 +6607,7 @@
       <c r="H144" t="s"/>
       <c r="I144" t="s"/>
       <c r="J144" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K144" t="s"/>
       <c r="L144" t="s"/>
@@ -6629,7 +6636,7 @@
       <c r="H145" t="s"/>
       <c r="I145" t="s"/>
       <c r="J145" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K145" t="s"/>
       <c r="L145" t="s"/>
@@ -6658,7 +6665,7 @@
       <c r="H146" t="s"/>
       <c r="I146" t="s"/>
       <c r="J146" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K146" t="s"/>
       <c r="L146" t="s"/>
@@ -6687,7 +6694,7 @@
       <c r="H147" t="s"/>
       <c r="I147" t="s"/>
       <c r="J147" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K147" t="s"/>
       <c r="L147" t="s"/>
@@ -6716,7 +6723,7 @@
       <c r="H148" t="s"/>
       <c r="I148" t="s"/>
       <c r="J148" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K148" t="s"/>
       <c r="L148" t="s"/>
@@ -6745,7 +6752,7 @@
       <c r="H149" t="s"/>
       <c r="I149" t="s"/>
       <c r="J149" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K149" t="s"/>
       <c r="L149" t="s"/>
@@ -6774,7 +6781,7 @@
       <c r="H150" t="s"/>
       <c r="I150" t="s"/>
       <c r="J150" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K150" t="s"/>
       <c r="L150" t="s"/>
@@ -6803,7 +6810,7 @@
       <c r="H151" t="s"/>
       <c r="I151" t="s"/>
       <c r="J151" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K151" t="s"/>
       <c r="L151" t="s"/>
@@ -6832,7 +6839,7 @@
       <c r="H152" t="s"/>
       <c r="I152" t="s"/>
       <c r="J152" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K152" t="s"/>
       <c r="L152" t="s"/>
@@ -6861,7 +6868,7 @@
       <c r="H153" t="s"/>
       <c r="I153" t="s"/>
       <c r="J153" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K153" t="s"/>
       <c r="L153" t="s"/>
@@ -6890,7 +6897,7 @@
       <c r="H154" t="s"/>
       <c r="I154" t="s"/>
       <c r="J154" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K154" t="s"/>
       <c r="L154" t="s"/>
@@ -6919,7 +6926,7 @@
       <c r="H155" t="s"/>
       <c r="I155" t="s"/>
       <c r="J155" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K155" t="s"/>
       <c r="L155" t="s"/>

--- a/strends-report/examples/columns.xlsx
+++ b/strends-report/examples/columns.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
   <si>
     <t>flow_index</t>
   </si>
@@ -38,6 +38,12 @@
     <t>pumpmatrix</t>
   </si>
   <si>
+    <t>cdfw_fmwt</t>
+  </si>
+  <si>
+    <t>usfws_salmon</t>
+  </si>
+  <si>
     <t>djfmp</t>
   </si>
   <si>
@@ -71,27 +77,6 @@
     <t>sls_wt_factors</t>
   </si>
   <si>
-    <t>skt_lktblstationsskt</t>
-  </si>
-  <si>
-    <t>skt_tblcatch</t>
-  </si>
-  <si>
-    <t>skt_tblfishinfo</t>
-  </si>
-  <si>
-    <t>skt_tblorganismcodes</t>
-  </si>
-  <si>
-    <t>skt_tblreproductivestages</t>
-  </si>
-  <si>
-    <t>skt_tblsample</t>
-  </si>
-  <si>
-    <t>skt_tblsexlookup</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -107,12 +92,12 @@
     <t>SurveyCode</t>
   </si>
   <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Station</t>
   </si>
   <si>
@@ -125,667 +110,625 @@
     <t>Survey</t>
   </si>
   <si>
-    <t>Sort Order</t>
-  </si>
-  <si>
-    <t>CatchRowID</t>
-  </si>
-  <si>
-    <t>LengthRowID</t>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>SubProject</t>
+  </si>
+  <si>
+    <t>AnalyteName</t>
+  </si>
+  <si>
+    <t>StationCode</t>
+  </si>
+  <si>
+    <t>Sept</t>
+  </si>
+  <si>
+    <t>RegionCode</t>
+  </si>
+  <si>
+    <t>SampleTime</t>
+  </si>
+  <si>
+    <t>LatD</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>MeterSerial</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Centric Diatoms</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>Tow</t>
+  </si>
+  <si>
+    <t>LatM</t>
+  </si>
+  <si>
+    <t>AreaCode</t>
+  </si>
+  <si>
+    <t>CalibrationDate</t>
+  </si>
+  <si>
+    <t>Wt Factor</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>DWRSampleNumber</t>
+  </si>
+  <si>
+    <t>Chrysophytes</t>
+  </si>
+  <si>
+    <t>SurveyRep</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Winter Chinook BY</t>
+  </si>
+  <si>
+    <t>MethodCode</t>
+  </si>
+  <si>
+    <t>FishCode</t>
+  </si>
+  <si>
+    <t>LatS</t>
+  </si>
+  <si>
+    <t>Bay-Delta</t>
+  </si>
+  <si>
+    <t>kfactor</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>DateResult</t>
+  </si>
+  <si>
+    <t>Ciliates</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Winter Chinook Passage Estimate</t>
+  </si>
+  <si>
+    <t>GearID</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Catch</t>
+  </si>
+  <si>
+    <t>LonD</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Tide</t>
+  </si>
+  <si>
+    <t>TopEC</t>
+  </si>
+  <si>
+    <t>Replicate</t>
+  </si>
+  <si>
+    <t>Coccolithophores</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Winter Chinook Length</t>
+  </si>
+  <si>
+    <t>ID_CommonName</t>
+  </si>
+  <si>
+    <t>Bay</t>
+  </si>
+  <si>
+    <t>1/4 Subsampled</t>
+  </si>
+  <si>
+    <t>LonM</t>
+  </si>
+  <si>
+    <t>entryorder</t>
+  </si>
+  <si>
+    <t>BottomDepth</t>
+  </si>
+  <si>
+    <t>BottomEC</t>
+  </si>
+  <si>
+    <t>ConstituentName</t>
+  </si>
+  <si>
+    <t>FractionName</t>
+  </si>
+  <si>
+    <t>Cryptophytes</t>
+  </si>
+  <si>
+    <t>EZStation</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Spring Chinook BY</t>
+  </si>
+  <si>
+    <t>GearConditionCode</t>
+  </si>
+  <si>
+    <t>GeneticallyConfirmed</t>
+  </si>
+  <si>
+    <t>ChanShoal</t>
+  </si>
+  <si>
+    <t>1/2 Subsampled</t>
+  </si>
+  <si>
+    <t>LonS</t>
+  </si>
+  <si>
+    <t>YolkSacorOilPresent</t>
+  </si>
+  <si>
+    <t>CableOut</t>
+  </si>
+  <si>
+    <t>Secchi</t>
+  </si>
+  <si>
+    <t>ResultPrefix</t>
+  </si>
+  <si>
+    <t>MethodName</t>
+  </si>
+  <si>
+    <t>Cyanobacteria</t>
+  </si>
+  <si>
+    <t>DWRStation</t>
+  </si>
+  <si>
+    <t>DWRStationNo</t>
+  </si>
+  <si>
+    <t>Spring Chinook Passage Estimate</t>
+  </si>
+  <si>
+    <t>WeatherCode</t>
+  </si>
+  <si>
+    <t>GeneticID</t>
+  </si>
+  <si>
+    <t>CatchID</t>
+  </si>
+  <si>
+    <t>RKI</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Dinoflagellates</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Spring Chinook Length</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Field_ID_CommonName</t>
+  </si>
+  <si>
+    <t>NetMeterSerial</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>UnitName</t>
+  </si>
+  <si>
+    <t>Euglenoids</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Fall Chinook BY</t>
+  </si>
+  <si>
+    <t>WaterTemperature</t>
+  </si>
+  <si>
+    <t>ForkLength</t>
+  </si>
+  <si>
+    <t>SalinSurf</t>
+  </si>
+  <si>
+    <t>NetMeterStart</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>ReportingLimit</t>
+  </si>
+  <si>
+    <t>Green Algae</t>
+  </si>
+  <si>
+    <t>TideCode</t>
+  </si>
+  <si>
+    <t>Fall Chinook Passage Estimate</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>TempSurf</t>
+  </si>
+  <si>
+    <t>NetMeterEnd</t>
+  </si>
+  <si>
+    <t>LabAnalysisRemarks</t>
+  </si>
+  <si>
+    <t>Haptophytes</t>
+  </si>
+  <si>
+    <t>Chl-a</t>
+  </si>
+  <si>
+    <t>Fall Chinook Length</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>NetMeterCheck</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Kathablepharids</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Late-Fall Chinook BY</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>StageCode</t>
+  </si>
+  <si>
+    <t>CBMeterSerial</t>
+  </si>
+  <si>
+    <t>SampleType</t>
+  </si>
+  <si>
+    <t>Pennate Diatoms</t>
+  </si>
+  <si>
+    <t>ECSurfacePreTow</t>
+  </si>
+  <si>
+    <t>Late-Fall Chinook Passage Estimate</t>
+  </si>
+  <si>
+    <t>TowNumber</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>CBMeterStart</t>
+  </si>
+  <si>
+    <t>Raphidophytes</t>
+  </si>
+  <si>
+    <t>ECBottomPreTow</t>
+  </si>
+  <si>
+    <t>Late-Fall Chinook Length</t>
+  </si>
+  <si>
+    <t>TowDirectionCode</t>
+  </si>
+  <si>
+    <t>CBMeterEnd</t>
+  </si>
+  <si>
+    <t>TextResult</t>
+  </si>
+  <si>
+    <t>Red Algae</t>
+  </si>
+  <si>
+    <t>MysidVolume</t>
+  </si>
+  <si>
+    <t>PumpVolume</t>
+  </si>
+  <si>
+    <t>Steelhead BY</t>
+  </si>
+  <si>
+    <t>TowDuration</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>CBMeterCheck</t>
+  </si>
+  <si>
+    <t>Silico-flagellates</t>
+  </si>
+  <si>
+    <t>A_ aspera</t>
+  </si>
+  <si>
+    <t>LIMNOSINE</t>
+  </si>
+  <si>
+    <t>Steelhead Passage Estimate</t>
+  </si>
+  <si>
+    <t>flowDebris</t>
+  </si>
+  <si>
+    <t>TowVolume</t>
+  </si>
+  <si>
+    <t>Synurophytes</t>
+  </si>
+  <si>
+    <t>CBVolume</t>
+  </si>
+  <si>
+    <t>A_ hwanhaiensis</t>
+  </si>
+  <si>
+    <t>LIMNOSPP</t>
+  </si>
+  <si>
+    <t>Steelhead Length</t>
+  </si>
+  <si>
+    <t>SiteDisturbance</t>
+  </si>
+  <si>
+    <t>AMESHAAge0</t>
+  </si>
+  <si>
+    <t>Unknown Algae</t>
+  </si>
+  <si>
+    <t>ACARTELA</t>
+  </si>
+  <si>
+    <t>A_ macropsis</t>
+  </si>
+  <si>
+    <t>LIMNOTET</t>
+  </si>
+  <si>
+    <t>Bend Bridge Peak Flow (CFS)</t>
+  </si>
+  <si>
+    <t>AlternateSite</t>
+  </si>
+  <si>
+    <t>AMESHAAge1+</t>
+  </si>
+  <si>
+    <t>Unknown Flagellates</t>
+  </si>
+  <si>
+    <t>ACARTIA</t>
+  </si>
+  <si>
+    <t>D_ holmquistae</t>
+  </si>
+  <si>
+    <t>TotalLimno</t>
+  </si>
+  <si>
+    <t>Water Temperature (C)</t>
+  </si>
+  <si>
+    <t>SeineLength</t>
+  </si>
+  <si>
+    <t>SpCnd</t>
+  </si>
+  <si>
+    <t>AMESHA</t>
+  </si>
+  <si>
+    <t>Xanthophytes</t>
+  </si>
+  <si>
+    <t>DIAPTOM</t>
+  </si>
+  <si>
+    <t>H_ longirostris</t>
+  </si>
+  <si>
+    <t>OITHDAV</t>
+  </si>
+  <si>
+    <t>Turbidity (NTU)</t>
+  </si>
+  <si>
+    <t>SeineWidth</t>
+  </si>
+  <si>
+    <t>ARRGOB</t>
+  </si>
+  <si>
+    <t>EURYTEM</t>
+  </si>
+  <si>
+    <t>N_ kadiakensis</t>
+  </si>
+  <si>
+    <t>OITHSIM</t>
+  </si>
+  <si>
+    <t>SeineDepth</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>BARSUR</t>
+  </si>
+  <si>
+    <t>OTHCALAD</t>
+  </si>
+  <si>
+    <t>N_ mercedis</t>
+  </si>
+  <si>
+    <t>OITHSPP</t>
+  </si>
+  <si>
+    <t>StartMeter</t>
+  </si>
+  <si>
+    <t>BATRAY</t>
+  </si>
+  <si>
+    <t>PDIAPFOR</t>
+  </si>
+  <si>
+    <t>Unidentified mysid</t>
+  </si>
+  <si>
+    <t>OTHCYCAD</t>
+  </si>
+  <si>
+    <t>EndMeter</t>
+  </si>
+  <si>
+    <t>SubstrateCode</t>
+  </si>
+  <si>
+    <t>BAYGOB</t>
+  </si>
+  <si>
+    <t>PDIAPMAR</t>
+  </si>
+  <si>
+    <t>ALLCYCADULTS</t>
+  </si>
+  <si>
+    <t>TotalMeter</t>
+  </si>
+  <si>
+    <t>BAYPIP</t>
+  </si>
+  <si>
+    <t>SINOCAL</t>
+  </si>
+  <si>
+    <t>HARPACT</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>VolumeSeined</t>
+  </si>
+  <si>
+    <t>BIGSKA</t>
+  </si>
+  <si>
+    <t>TORTANUS</t>
+  </si>
+  <si>
+    <t>CYCJUV</t>
   </si>
   <si>
     <t>OrganismCode</t>
   </si>
   <si>
-    <t>EGGSTG</t>
-  </si>
-  <si>
-    <t>SampleRowID</t>
-  </si>
-  <si>
-    <t>CODE</t>
-  </si>
-  <si>
-    <t>OUT</t>
-  </si>
-  <si>
-    <t>SubProject</t>
-  </si>
-  <si>
-    <t>AnalyteName</t>
-  </si>
-  <si>
-    <t>StationCode</t>
-  </si>
-  <si>
-    <t>RegionCode</t>
-  </si>
-  <si>
-    <t>SampleTime</t>
-  </si>
-  <si>
-    <t>LatD</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>MeterSerial</t>
+    <t>BLABUL</t>
+  </si>
+  <si>
+    <t>ALLCALADULTS</t>
+  </si>
+  <si>
+    <t>LIMNOJUV</t>
   </si>
   <si>
     <t>CommonName</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Centric Diatoms</t>
-  </si>
-  <si>
-    <t>Tow</t>
-  </si>
-  <si>
-    <t>LatM</t>
-  </si>
-  <si>
-    <t>AreaCode</t>
-  </si>
-  <si>
-    <t>CalibrationDate</t>
-  </si>
-  <si>
-    <t>Wt Factor</t>
-  </si>
-  <si>
-    <t>LatDeg</t>
-  </si>
-  <si>
-    <t>FishID1</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>SurveyNumber</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>DWRSampleNumber</t>
-  </si>
-  <si>
-    <t>Chrysophytes</t>
-  </si>
-  <si>
-    <t>SurveyRep</t>
-  </si>
-  <si>
-    <t>MethodCode</t>
-  </si>
-  <si>
-    <t>FishCode</t>
-  </si>
-  <si>
-    <t>LatS</t>
-  </si>
-  <si>
-    <t>Bay-Delta</t>
-  </si>
-  <si>
-    <t>kfactor</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Temp</t>
-  </si>
-  <si>
-    <t>LatMin</t>
-  </si>
-  <si>
-    <t>Catch</t>
-  </si>
-  <si>
-    <t>FishID2</t>
-  </si>
-  <si>
-    <t>Genus</t>
-  </si>
-  <si>
-    <t>DateResult</t>
-  </si>
-  <si>
-    <t>Ciliates</t>
-  </si>
-  <si>
-    <t>GearID</t>
-  </si>
-  <si>
-    <t>Series</t>
-  </si>
-  <si>
-    <t>LonD</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Tide</t>
-  </si>
-  <si>
-    <t>TopEC</t>
-  </si>
-  <si>
-    <t>LatSec</t>
-  </si>
-  <si>
-    <t>CatchComments</t>
-  </si>
-  <si>
-    <t>ForkLength</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>SampleTimeStart</t>
-  </si>
-  <si>
-    <t>Replicate</t>
-  </si>
-  <si>
-    <t>Coccolithophores</t>
-  </si>
-  <si>
-    <t>ID_CommonName</t>
-  </si>
-  <si>
-    <t>Bay</t>
-  </si>
-  <si>
-    <t>1/4 Subsampled</t>
-  </si>
-  <si>
-    <t>LonM</t>
-  </si>
-  <si>
-    <t>entryorder</t>
-  </si>
-  <si>
-    <t>BottomDepth</t>
-  </si>
-  <si>
-    <t>BottomEC</t>
-  </si>
-  <si>
-    <t>LongDec</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>AlternateName</t>
-  </si>
-  <si>
-    <t>SampleTimeEnd</t>
-  </si>
-  <si>
-    <t>ConstituentName</t>
-  </si>
-  <si>
-    <t>FractionName</t>
-  </si>
-  <si>
-    <t>Cryptophytes</t>
-  </si>
-  <si>
-    <t>EZStation</t>
-  </si>
-  <si>
-    <t>GearConditionCode</t>
-  </si>
-  <si>
-    <t>GeneticallyConfirmed</t>
-  </si>
-  <si>
-    <t>ChanShoal</t>
-  </si>
-  <si>
-    <t>1/2 Subsampled</t>
-  </si>
-  <si>
-    <t>LonS</t>
-  </si>
-  <si>
-    <t>YolkSacorOilPresent</t>
-  </si>
-  <si>
-    <t>CableOut</t>
-  </si>
-  <si>
-    <t>Secchi</t>
-  </si>
-  <si>
-    <t>LongMin</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>NameInSAS</t>
-  </si>
-  <si>
-    <t>ResultPrefix</t>
-  </si>
-  <si>
-    <t>MethodName</t>
-  </si>
-  <si>
-    <t>Cyanobacteria</t>
-  </si>
-  <si>
-    <t>DWRStation</t>
-  </si>
-  <si>
-    <t>DWRStationNo</t>
-  </si>
-  <si>
-    <t>WeatherCode</t>
-  </si>
-  <si>
-    <t>GeneticID</t>
-  </si>
-  <si>
-    <t>CatchID</t>
-  </si>
-  <si>
-    <t>RKI</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
-    <t>LongSec</t>
-  </si>
-  <si>
-    <t>ReproductiveStage</t>
-  </si>
-  <si>
-    <t>ConductivityTop</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Dinoflagellates</t>
-  </si>
-  <si>
-    <t>Core</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>Field_ID_CommonName</t>
-  </si>
-  <si>
-    <t>NetMeterSerial</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>2nd Stage</t>
-  </si>
-  <si>
-    <t>WaterTemperature</t>
-  </si>
-  <si>
-    <t>UnitName</t>
-  </si>
-  <si>
-    <t>Euglenoids</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>SalinSurf</t>
-  </si>
-  <si>
-    <t>NetMeterStart</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>AdFinPresent</t>
-  </si>
-  <si>
-    <t>ReportingLimit</t>
-  </si>
-  <si>
-    <t>Green Algae</t>
-  </si>
-  <si>
-    <t>TideCode</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>TempSurf</t>
-  </si>
-  <si>
-    <t>NetMeterEnd</t>
-  </si>
-  <si>
-    <t>Station Origin</t>
-  </si>
-  <si>
-    <t>ReleasedAlive</t>
-  </si>
-  <si>
-    <t>DepthBottom</t>
-  </si>
-  <si>
-    <t>LabAnalysisRemarks</t>
-  </si>
-  <si>
-    <t>Haptophytes</t>
-  </si>
-  <si>
-    <t>Chl-a</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Net</t>
-  </si>
-  <si>
-    <t>NetMeterCheck</t>
-  </si>
-  <si>
-    <t>MeterStart</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Kathablepharids</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Conductivity</t>
-  </si>
-  <si>
-    <t>StageCode</t>
-  </si>
-  <si>
-    <t>CBMeterSerial</t>
-  </si>
-  <si>
-    <t>MeterEnd</t>
-  </si>
-  <si>
-    <t>SampleType</t>
-  </si>
-  <si>
-    <t>Pennate Diatoms</t>
-  </si>
-  <si>
-    <t>ECSurfacePreTow</t>
-  </si>
-  <si>
-    <t>TowNumber</t>
-  </si>
-  <si>
-    <t>Dead</t>
-  </si>
-  <si>
-    <t>CBMeterStart</t>
-  </si>
-  <si>
-    <t>Raphidophytes</t>
-  </si>
-  <si>
-    <t>ECBottomPreTow</t>
-  </si>
-  <si>
-    <t>TowDirectionCode</t>
-  </si>
-  <si>
-    <t>CBMeterEnd</t>
-  </si>
-  <si>
-    <t>TextResult</t>
-  </si>
-  <si>
-    <t>Red Algae</t>
-  </si>
-  <si>
-    <t>MysidVolume</t>
-  </si>
-  <si>
-    <t>PumpVolume</t>
-  </si>
-  <si>
-    <t>TowDuration</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>CBMeterCheck</t>
-  </si>
-  <si>
-    <t>MeterNumber</t>
-  </si>
-  <si>
-    <t>Silico-flagellates</t>
-  </si>
-  <si>
-    <t>A_ aspera</t>
-  </si>
-  <si>
-    <t>LIMNOSINE</t>
-  </si>
-  <si>
-    <t>flowDebris</t>
-  </si>
-  <si>
-    <t>TowVolume</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Synurophytes</t>
-  </si>
-  <si>
-    <t>CBVolume</t>
-  </si>
-  <si>
-    <t>A_ hwanhaiensis</t>
-  </si>
-  <si>
-    <t>LIMNOSPP</t>
-  </si>
-  <si>
-    <t>SiteDisturbance</t>
-  </si>
-  <si>
-    <t>AMESHAAge0</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Unknown Algae</t>
-  </si>
-  <si>
-    <t>ACARTELA</t>
-  </si>
-  <si>
-    <t>A_ macropsis</t>
-  </si>
-  <si>
-    <t>LIMNOTET</t>
-  </si>
-  <si>
-    <t>AlternateSite</t>
-  </si>
-  <si>
-    <t>AMESHAAge1+</t>
-  </si>
-  <si>
-    <t>SampleComments</t>
-  </si>
-  <si>
-    <t>Unknown Flagellates</t>
-  </si>
-  <si>
-    <t>ACARTIA</t>
-  </si>
-  <si>
-    <t>D_ holmquistae</t>
-  </si>
-  <si>
-    <t>TotalLimno</t>
-  </si>
-  <si>
-    <t>SeineLength</t>
-  </si>
-  <si>
-    <t>SpCnd</t>
-  </si>
-  <si>
-    <t>AMESHA</t>
-  </si>
-  <si>
-    <t>Xanthophytes</t>
-  </si>
-  <si>
-    <t>DIAPTOM</t>
-  </si>
-  <si>
-    <t>H_ longirostris</t>
-  </si>
-  <si>
-    <t>OITHDAV</t>
-  </si>
-  <si>
-    <t>SeineWidth</t>
-  </si>
-  <si>
-    <t>ARRGOB</t>
-  </si>
-  <si>
-    <t>EURYTEM</t>
-  </si>
-  <si>
-    <t>N_ kadiakensis</t>
-  </si>
-  <si>
-    <t>OITHSIM</t>
-  </si>
-  <si>
-    <t>SeineDepth</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>BARSUR</t>
-  </si>
-  <si>
-    <t>OTHCALAD</t>
-  </si>
-  <si>
-    <t>N_ mercedis</t>
-  </si>
-  <si>
-    <t>OITHSPP</t>
-  </si>
-  <si>
-    <t>StartMeter</t>
-  </si>
-  <si>
-    <t>BATRAY</t>
-  </si>
-  <si>
-    <t>PDIAPFOR</t>
-  </si>
-  <si>
-    <t>Unidentified mysid</t>
-  </si>
-  <si>
-    <t>OTHCYCAD</t>
-  </si>
-  <si>
-    <t>EndMeter</t>
-  </si>
-  <si>
-    <t>SubstrateCode</t>
-  </si>
-  <si>
-    <t>BAYGOB</t>
-  </si>
-  <si>
-    <t>PDIAPMAR</t>
-  </si>
-  <si>
-    <t>ALLCYCADULTS</t>
-  </si>
-  <si>
-    <t>TotalMeter</t>
-  </si>
-  <si>
-    <t>BAYPIP</t>
-  </si>
-  <si>
-    <t>SINOCAL</t>
-  </si>
-  <si>
-    <t>HARPACT</t>
-  </si>
-  <si>
-    <t>VolumeSeined</t>
-  </si>
-  <si>
-    <t>BIGSKA</t>
-  </si>
-  <si>
-    <t>TORTANUS</t>
-  </si>
-  <si>
-    <t>CYCJUV</t>
-  </si>
-  <si>
-    <t>BLABUL</t>
-  </si>
-  <si>
-    <t>ALLCALADULTS</t>
-  </si>
-  <si>
-    <t>LIMNOJUV</t>
   </si>
   <si>
     <t>BLACRA</t>
@@ -1325,18 +1268,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1629,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y155"/>
+  <dimension ref="A1:T155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1637,7 +1580,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1698,1056 +1641,894 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="T2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>36</v>
       </c>
-      <c r="T2" t="s">
+      <c r="K3" t="s">
         <v>37</v>
       </c>
-      <c r="U2" t="s">
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="V2" t="s">
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="W2" t="s">
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
         <v>40</v>
       </c>
-      <c r="X2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>25</v>
-      </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="T3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s"/>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" t="s">
-        <v>57</v>
-      </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="R4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="T4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" t="s">
-        <v>63</v>
-      </c>
-      <c r="V4" t="s">
-        <v>64</v>
-      </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" t="s"/>
-    </row>
-    <row r="5" spans="1:25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s"/>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="Q5" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="T5" t="s">
-        <v>78</v>
-      </c>
-      <c r="U5" t="s">
-        <v>79</v>
-      </c>
-      <c r="V5" t="s">
-        <v>80</v>
-      </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" t="s"/>
-    </row>
-    <row r="6" spans="1:25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s"/>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="M6" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" t="s">
-        <v>87</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="O6" t="s"/>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
-        <v>89</v>
-      </c>
-      <c r="R6" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="R6" t="s">
+        <v>73</v>
+      </c>
       <c r="S6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T6" t="s">
-        <v>91</v>
-      </c>
-      <c r="U6" t="s">
-        <v>92</v>
-      </c>
-      <c r="V6" t="s">
-        <v>93</v>
-      </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y6" t="s"/>
-    </row>
-    <row r="7" spans="1:25">
+        <v>74</v>
+      </c>
+      <c r="T6" t="s"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s"/>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="M7" t="s">
+        <v>81</v>
+      </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>103</v>
-      </c>
-      <c r="R7" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s">
+        <v>84</v>
+      </c>
       <c r="S7" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s">
-        <v>105</v>
-      </c>
-      <c r="V7" t="s">
-        <v>106</v>
-      </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y7" t="s"/>
-    </row>
-    <row r="8" spans="1:25">
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s"/>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I8" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="M8" t="s">
+        <v>95</v>
+      </c>
       <c r="N8" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>119</v>
-      </c>
-      <c r="R8" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s">
+        <v>98</v>
+      </c>
       <c r="S8" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s">
-        <v>121</v>
-      </c>
-      <c r="V8" t="s">
-        <v>122</v>
-      </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y8" t="s"/>
-    </row>
-    <row r="9" spans="1:25">
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s"/>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="H9" t="s"/>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>131</v>
-      </c>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
       <c r="O9" t="s"/>
-      <c r="P9" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>133</v>
-      </c>
-      <c r="R9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s">
+        <v>110</v>
+      </c>
       <c r="S9" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s">
-        <v>135</v>
-      </c>
-      <c r="V9" t="s">
-        <v>55</v>
-      </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y9" t="s"/>
-    </row>
-    <row r="10" spans="1:25">
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s"/>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s">
+        <v>118</v>
+      </c>
+      <c r="S10" t="s">
         <v>119</v>
       </c>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>143</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s">
-        <v>66</v>
-      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s">
-        <v>144</v>
-      </c>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y10" t="s"/>
-    </row>
-    <row r="11" spans="1:25">
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s"/>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" t="s">
-        <v>145</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="H11" t="s"/>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>149</v>
-      </c>
-      <c r="K11" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
+      <c r="N11" t="s">
+        <v>47</v>
+      </c>
       <c r="O11" t="s"/>
-      <c r="P11" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>151</v>
-      </c>
-      <c r="R11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s">
+        <v>127</v>
+      </c>
       <c r="S11" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s">
-        <v>152</v>
-      </c>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y11" t="s"/>
-    </row>
-    <row r="12" spans="1:25">
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s"/>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
         <v>133</v>
       </c>
-      <c r="I12" t="s">
-        <v>156</v>
-      </c>
-      <c r="J12" t="s">
-        <v>157</v>
-      </c>
-      <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
+      <c r="N12" t="s">
+        <v>72</v>
+      </c>
       <c r="O12" t="s"/>
-      <c r="P12" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>55</v>
-      </c>
-      <c r="R12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s">
+        <v>135</v>
+      </c>
       <c r="S12" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s">
-        <v>160</v>
-      </c>
-      <c r="V12" t="s"/>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y12" t="s"/>
-    </row>
-    <row r="13" spans="1:25">
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s"/>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" t="s">
-        <v>119</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="H13" t="s"/>
       <c r="I13" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>166</v>
-      </c>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
       <c r="M13" t="s"/>
       <c r="N13" t="s"/>
       <c r="O13" t="s"/>
-      <c r="P13" t="s">
-        <v>167</v>
-      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="s">
+        <v>142</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y13" t="s"/>
-    </row>
-    <row r="14" spans="1:25">
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s"/>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" t="s">
-        <v>172</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="H14" t="s"/>
       <c r="I14" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
       <c r="M14" t="s"/>
       <c r="N14" t="s"/>
       <c r="O14" t="s"/>
-      <c r="P14" t="s">
-        <v>174</v>
-      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="R14" t="s">
+        <v>149</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y14" t="s"/>
-    </row>
-    <row r="15" spans="1:25">
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s"/>
       <c r="B15" t="s"/>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" t="s">
-        <v>179</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="H15" t="s"/>
       <c r="I15" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s"/>
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>61</v>
+      </c>
       <c r="M15" t="s"/>
       <c r="N15" t="s"/>
       <c r="O15" t="s"/>
-      <c r="P15" t="s">
-        <v>181</v>
-      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="s">
+        <v>156</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
-      <c r="V15" t="s"/>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y15" t="s"/>
-    </row>
-    <row r="16" spans="1:25">
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s"/>
       <c r="B16" t="s"/>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" t="s">
-        <v>184</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="H16" t="s"/>
       <c r="I16" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" t="s">
+        <v>73</v>
+      </c>
       <c r="M16" t="s"/>
       <c r="N16" t="s"/>
       <c r="O16" t="s"/>
-      <c r="P16" t="s">
-        <v>185</v>
-      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="s">
+        <v>161</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
-      <c r="V16" t="s"/>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y16" t="s"/>
-    </row>
-    <row r="17" spans="1:25">
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s"/>
       <c r="B17" t="s"/>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" t="s">
-        <v>190</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="H17" t="s"/>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>191</v>
-      </c>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" t="s">
+        <v>168</v>
+      </c>
       <c r="M17" t="s"/>
       <c r="N17" t="s"/>
       <c r="O17" t="s"/>
-      <c r="P17" t="s">
-        <v>192</v>
-      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="R17" t="s">
+        <v>169</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
-      <c r="V17" t="s"/>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y17" t="s"/>
-    </row>
-    <row r="18" spans="1:25">
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s"/>
       <c r="B18" t="s"/>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>196</v>
-      </c>
-      <c r="H18" t="s">
-        <v>197</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H18" t="s"/>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>198</v>
-      </c>
-      <c r="K18" t="s"/>
-      <c r="L18" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" t="s">
+        <v>175</v>
+      </c>
       <c r="M18" t="s"/>
       <c r="N18" t="s"/>
       <c r="O18" t="s"/>
-      <c r="P18" t="s">
-        <v>55</v>
-      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="s">
+        <v>41</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
-      <c r="V18" t="s"/>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y18" t="s"/>
-    </row>
-    <row r="19" spans="1:25">
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s"/>
       <c r="B19" t="s"/>
       <c r="C19" t="s"/>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>203</v>
-      </c>
-      <c r="H19" t="s">
-        <v>204</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="H19" t="s"/>
       <c r="I19" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>205</v>
-      </c>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
       <c r="M19" t="s"/>
       <c r="N19" t="s"/>
       <c r="O19" t="s"/>
@@ -2756,41 +2537,36 @@
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
-      <c r="V19" t="s"/>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y19" t="s"/>
-    </row>
-    <row r="20" spans="1:25">
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s"/>
       <c r="B20" t="s"/>
       <c r="C20" t="s"/>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="E20" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" t="s">
-        <v>211</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="H20" t="s"/>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>212</v>
-      </c>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" t="s">
+        <v>189</v>
+      </c>
       <c r="M20" t="s"/>
       <c r="N20" t="s"/>
       <c r="O20" t="s"/>
@@ -2799,41 +2575,36 @@
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
-      <c r="V20" t="s"/>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y20" t="s"/>
-    </row>
-    <row r="21" spans="1:25">
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s"/>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
       <c r="D21" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E21" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="F21" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>217</v>
-      </c>
-      <c r="H21" t="s">
-        <v>218</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="H21" t="s"/>
       <c r="I21" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="J21" t="s">
-        <v>220</v>
-      </c>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
       <c r="M21" t="s"/>
       <c r="N21" t="s"/>
       <c r="O21" t="s"/>
@@ -2842,39 +2613,36 @@
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
-      <c r="V21" t="s"/>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
-    </row>
-    <row r="22" spans="1:25">
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s"/>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
       <c r="D22" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="E22" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="F22" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>224</v>
-      </c>
-      <c r="H22" t="s">
-        <v>225</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="H22" t="s"/>
       <c r="I22" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>226</v>
-      </c>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
       <c r="M22" t="s"/>
       <c r="N22" t="s"/>
       <c r="O22" t="s"/>
@@ -2883,37 +2651,32 @@
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
-      <c r="V22" t="s"/>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
-    </row>
-    <row r="23" spans="1:25">
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s"/>
       <c r="B23" t="s"/>
       <c r="C23" t="s"/>
       <c r="D23" t="s"/>
       <c r="E23" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>229</v>
-      </c>
-      <c r="H23" t="s">
-        <v>230</v>
-      </c>
-      <c r="I23" t="s">
-        <v>231</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s"/>
       <c r="J23" t="s">
-        <v>232</v>
-      </c>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
       <c r="M23" t="s"/>
       <c r="N23" t="s"/>
       <c r="O23" t="s"/>
@@ -2922,37 +2685,32 @@
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
-      <c r="V23" t="s"/>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
-    </row>
-    <row r="24" spans="1:25">
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s"/>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
       <c r="D24" t="s"/>
       <c r="E24" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>235</v>
-      </c>
-      <c r="H24" t="s">
-        <v>236</v>
-      </c>
-      <c r="I24" t="s">
-        <v>133</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s"/>
       <c r="J24" t="s">
-        <v>237</v>
-      </c>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
+        <v>214</v>
+      </c>
+      <c r="K24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" t="s">
+        <v>215</v>
+      </c>
       <c r="M24" t="s"/>
       <c r="N24" t="s"/>
       <c r="O24" t="s"/>
@@ -2961,37 +2719,32 @@
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
-      <c r="V24" t="s"/>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
-    </row>
-    <row r="25" spans="1:25">
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" t="s"/>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
       <c r="D25" t="s"/>
       <c r="E25" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="F25" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="G25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H25" t="s">
-        <v>241</v>
-      </c>
-      <c r="I25" t="s">
-        <v>242</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s"/>
       <c r="J25" t="s">
-        <v>243</v>
-      </c>
-      <c r="K25" t="s"/>
-      <c r="L25" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
       <c r="M25" t="s"/>
       <c r="N25" t="s"/>
       <c r="O25" t="s"/>
@@ -3000,35 +2753,30 @@
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
-      <c r="V25" t="s"/>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
-    </row>
-    <row r="26" spans="1:25">
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s"/>
       <c r="B26" t="s"/>
       <c r="C26" t="s"/>
       <c r="D26" t="s"/>
       <c r="E26" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s"/>
       <c r="G26" t="s">
-        <v>245</v>
-      </c>
-      <c r="H26" t="s">
-        <v>246</v>
-      </c>
-      <c r="I26" t="s">
-        <v>88</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s"/>
       <c r="J26" t="s">
-        <v>247</v>
-      </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
+        <v>224</v>
+      </c>
+      <c r="K26" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
       <c r="M26" t="s"/>
       <c r="N26" t="s"/>
       <c r="O26" t="s"/>
@@ -3037,35 +2785,30 @@
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
-      <c r="V26" t="s"/>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
-    </row>
-    <row r="27" spans="1:25">
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s"/>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
       <c r="D27" t="s"/>
       <c r="E27" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="F27" t="s"/>
       <c r="G27" t="s">
-        <v>249</v>
-      </c>
-      <c r="H27" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" t="s">
-        <v>250</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s"/>
       <c r="J27" t="s">
-        <v>251</v>
-      </c>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="K27" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s">
+        <v>230</v>
+      </c>
       <c r="M27" t="s"/>
       <c r="N27" t="s"/>
       <c r="O27" t="s"/>
@@ -3074,33 +2817,28 @@
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
-      <c r="V27" t="s"/>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
-    </row>
-    <row r="28" spans="1:25">
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s"/>
       <c r="B28" t="s"/>
       <c r="C28" t="s"/>
       <c r="D28" t="s"/>
       <c r="E28" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="F28" t="s"/>
       <c r="G28" t="s">
-        <v>253</v>
-      </c>
-      <c r="H28" t="s">
-        <v>39</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="H28" t="s"/>
       <c r="I28" t="s"/>
       <c r="J28" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s"/>
-      <c r="L28" t="s"/>
+      <c r="L28" t="s">
+        <v>234</v>
+      </c>
       <c r="M28" t="s"/>
       <c r="N28" t="s"/>
       <c r="O28" t="s"/>
@@ -3109,33 +2847,28 @@
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
-      <c r="V28" t="s"/>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
-    </row>
-    <row r="29" spans="1:25">
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s"/>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
       <c r="D29" t="s"/>
       <c r="E29" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F29" t="s"/>
       <c r="G29" t="s">
-        <v>256</v>
-      </c>
-      <c r="H29" t="s">
-        <v>52</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="H29" t="s"/>
       <c r="I29" t="s"/>
       <c r="J29" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
+      <c r="L29" t="s">
+        <v>238</v>
+      </c>
       <c r="M29" t="s"/>
       <c r="N29" t="s"/>
       <c r="O29" t="s"/>
@@ -3144,33 +2877,28 @@
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
-      <c r="V29" t="s"/>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
-    </row>
-    <row r="30" spans="1:25">
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s"/>
       <c r="B30" t="s"/>
       <c r="C30" t="s"/>
       <c r="D30" t="s"/>
       <c r="E30" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="F30" t="s"/>
       <c r="G30" t="s">
-        <v>259</v>
-      </c>
-      <c r="H30" t="s">
-        <v>260</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="H30" t="s"/>
       <c r="I30" t="s"/>
       <c r="J30" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
+      <c r="L30" t="s">
+        <v>242</v>
+      </c>
       <c r="M30" t="s"/>
       <c r="N30" t="s"/>
       <c r="O30" t="s"/>
@@ -3179,33 +2907,28 @@
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
-      <c r="V30" t="s"/>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
-    </row>
-    <row r="31" spans="1:25">
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s"/>
       <c r="B31" t="s"/>
       <c r="C31" t="s"/>
       <c r="D31" t="s"/>
       <c r="E31" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="F31" t="s"/>
       <c r="G31" t="s">
-        <v>262</v>
-      </c>
-      <c r="H31" t="s">
-        <v>173</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="H31" t="s"/>
       <c r="I31" t="s"/>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="K31" t="s"/>
-      <c r="L31" t="s"/>
+      <c r="L31" t="s">
+        <v>244</v>
+      </c>
       <c r="M31" t="s"/>
       <c r="N31" t="s"/>
       <c r="O31" t="s"/>
@@ -3214,33 +2937,28 @@
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
-      <c r="V31" t="s"/>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
-    </row>
-    <row r="32" spans="1:25">
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s"/>
       <c r="B32" t="s"/>
       <c r="C32" t="s"/>
       <c r="D32" t="s"/>
       <c r="E32" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F32" t="s"/>
       <c r="G32" t="s">
-        <v>264</v>
-      </c>
-      <c r="H32" t="s">
-        <v>265</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="H32" t="s"/>
       <c r="I32" t="s"/>
       <c r="J32" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
+      <c r="L32" t="s">
+        <v>247</v>
+      </c>
       <c r="M32" t="s"/>
       <c r="N32" t="s"/>
       <c r="O32" t="s"/>
@@ -3249,33 +2967,28 @@
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
-      <c r="V32" t="s"/>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
-    </row>
-    <row r="33" spans="1:25">
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s"/>
       <c r="B33" t="s"/>
       <c r="C33" t="s"/>
       <c r="D33" t="s"/>
       <c r="E33" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="F33" t="s"/>
       <c r="G33" t="s">
-        <v>267</v>
-      </c>
-      <c r="H33" t="s">
-        <v>92</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="H33" t="s"/>
       <c r="I33" t="s"/>
       <c r="J33" t="s">
-        <v>268</v>
+        <v>125</v>
       </c>
       <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
+      <c r="L33" t="s">
+        <v>249</v>
+      </c>
       <c r="M33" t="s"/>
       <c r="N33" t="s"/>
       <c r="O33" t="s"/>
@@ -3284,33 +2997,28 @@
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
-      <c r="V33" t="s"/>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
-    </row>
-    <row r="34" spans="1:25">
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s"/>
       <c r="B34" t="s"/>
       <c r="C34" t="s"/>
       <c r="D34" t="s"/>
       <c r="E34" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="F34" t="s"/>
       <c r="G34" t="s">
-        <v>269</v>
-      </c>
-      <c r="H34" t="s">
-        <v>270</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="H34" t="s"/>
       <c r="I34" t="s"/>
       <c r="J34" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
+      <c r="L34" t="s">
+        <v>252</v>
+      </c>
       <c r="M34" t="s"/>
       <c r="N34" t="s"/>
       <c r="O34" t="s"/>
@@ -3319,33 +3027,28 @@
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
-      <c r="V34" t="s"/>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
-    </row>
-    <row r="35" spans="1:25">
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s"/>
       <c r="B35" t="s"/>
       <c r="C35" t="s"/>
       <c r="D35" t="s"/>
       <c r="E35" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="F35" t="s"/>
       <c r="G35" t="s">
-        <v>272</v>
-      </c>
-      <c r="H35" t="s">
-        <v>156</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="H35" t="s"/>
       <c r="I35" t="s"/>
       <c r="J35" t="s">
-        <v>273</v>
+        <v>133</v>
       </c>
       <c r="K35" t="s"/>
-      <c r="L35" t="s"/>
+      <c r="L35" t="s">
+        <v>254</v>
+      </c>
       <c r="M35" t="s"/>
       <c r="N35" t="s"/>
       <c r="O35" t="s"/>
@@ -3354,31 +3057,26 @@
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
-      <c r="V35" t="s"/>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
-    </row>
-    <row r="36" spans="1:25">
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s"/>
       <c r="B36" t="s"/>
       <c r="C36" t="s"/>
       <c r="D36" t="s"/>
       <c r="E36" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="F36" t="s"/>
       <c r="G36" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="H36" t="s"/>
       <c r="I36" t="s"/>
-      <c r="J36" t="s">
-        <v>275</v>
-      </c>
+      <c r="J36" t="s"/>
       <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
+      <c r="L36" t="s">
+        <v>256</v>
+      </c>
       <c r="M36" t="s"/>
       <c r="N36" t="s"/>
       <c r="O36" t="s"/>
@@ -3387,31 +3085,26 @@
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
-      <c r="V36" t="s"/>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
-    </row>
-    <row r="37" spans="1:25">
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s"/>
       <c r="B37" t="s"/>
       <c r="C37" t="s"/>
       <c r="D37" t="s"/>
       <c r="E37" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="F37" t="s"/>
       <c r="G37" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="H37" t="s"/>
       <c r="I37" t="s"/>
-      <c r="J37" t="s">
-        <v>277</v>
-      </c>
+      <c r="J37" t="s"/>
       <c r="K37" t="s"/>
-      <c r="L37" t="s"/>
+      <c r="L37" t="s">
+        <v>258</v>
+      </c>
       <c r="M37" t="s"/>
       <c r="N37" t="s"/>
       <c r="O37" t="s"/>
@@ -3420,31 +3113,26 @@
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
-      <c r="V37" t="s"/>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
-    </row>
-    <row r="38" spans="1:25">
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s"/>
       <c r="B38" t="s"/>
       <c r="C38" t="s"/>
       <c r="D38" t="s"/>
       <c r="E38" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F38" t="s"/>
       <c r="G38" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="H38" t="s"/>
       <c r="I38" t="s"/>
-      <c r="J38" t="s">
-        <v>279</v>
-      </c>
+      <c r="J38" t="s"/>
       <c r="K38" t="s"/>
-      <c r="L38" t="s"/>
+      <c r="L38" t="s">
+        <v>260</v>
+      </c>
       <c r="M38" t="s"/>
       <c r="N38" t="s"/>
       <c r="O38" t="s"/>
@@ -3453,31 +3141,26 @@
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
-      <c r="V38" t="s"/>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
-    </row>
-    <row r="39" spans="1:25">
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s"/>
       <c r="B39" t="s"/>
       <c r="C39" t="s"/>
       <c r="D39" t="s"/>
       <c r="E39" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="F39" t="s"/>
       <c r="G39" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="H39" t="s"/>
       <c r="I39" t="s"/>
-      <c r="J39" t="s">
-        <v>281</v>
-      </c>
+      <c r="J39" t="s"/>
       <c r="K39" t="s"/>
-      <c r="L39" t="s"/>
+      <c r="L39" t="s">
+        <v>262</v>
+      </c>
       <c r="M39" t="s"/>
       <c r="N39" t="s"/>
       <c r="O39" t="s"/>
@@ -3486,31 +3169,26 @@
       <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
-      <c r="V39" t="s"/>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
-    </row>
-    <row r="40" spans="1:25">
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s"/>
       <c r="B40" t="s"/>
       <c r="C40" t="s"/>
       <c r="D40" t="s"/>
       <c r="E40" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="F40" t="s"/>
       <c r="G40" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="H40" t="s"/>
       <c r="I40" t="s"/>
-      <c r="J40" t="s">
-        <v>284</v>
-      </c>
+      <c r="J40" t="s"/>
       <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
+      <c r="L40" t="s">
+        <v>265</v>
+      </c>
       <c r="M40" t="s"/>
       <c r="N40" t="s"/>
       <c r="O40" t="s"/>
@@ -3519,31 +3197,26 @@
       <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
-      <c r="V40" t="s"/>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
-    </row>
-    <row r="41" spans="1:25">
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s"/>
       <c r="B41" t="s"/>
       <c r="C41" t="s"/>
       <c r="D41" t="s"/>
       <c r="E41" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="F41" t="s"/>
       <c r="G41" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="H41" t="s"/>
       <c r="I41" t="s"/>
-      <c r="J41" t="s">
-        <v>287</v>
-      </c>
+      <c r="J41" t="s"/>
       <c r="K41" t="s"/>
-      <c r="L41" t="s"/>
+      <c r="L41" t="s">
+        <v>268</v>
+      </c>
       <c r="M41" t="s"/>
       <c r="N41" t="s"/>
       <c r="O41" t="s"/>
@@ -3552,31 +3225,26 @@
       <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
-      <c r="V41" t="s"/>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
-    </row>
-    <row r="42" spans="1:25">
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s"/>
       <c r="B42" t="s"/>
       <c r="C42" t="s"/>
       <c r="D42" t="s"/>
       <c r="E42" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="F42" t="s"/>
       <c r="G42" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="H42" t="s"/>
       <c r="I42" t="s"/>
-      <c r="J42" t="s">
-        <v>290</v>
-      </c>
+      <c r="J42" t="s"/>
       <c r="K42" t="s"/>
-      <c r="L42" t="s"/>
+      <c r="L42" t="s">
+        <v>271</v>
+      </c>
       <c r="M42" t="s"/>
       <c r="N42" t="s"/>
       <c r="O42" t="s"/>
@@ -3585,31 +3253,26 @@
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
-      <c r="V42" t="s"/>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
-    </row>
-    <row r="43" spans="1:25">
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s"/>
       <c r="B43" t="s"/>
       <c r="C43" t="s"/>
       <c r="D43" t="s"/>
       <c r="E43" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="F43" t="s"/>
       <c r="G43" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="H43" t="s"/>
       <c r="I43" t="s"/>
-      <c r="J43" t="s">
-        <v>293</v>
-      </c>
+      <c r="J43" t="s"/>
       <c r="K43" t="s"/>
-      <c r="L43" t="s"/>
+      <c r="L43" t="s">
+        <v>274</v>
+      </c>
       <c r="M43" t="s"/>
       <c r="N43" t="s"/>
       <c r="O43" t="s"/>
@@ -3618,31 +3281,26 @@
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
-      <c r="V43" t="s"/>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
-    </row>
-    <row r="44" spans="1:25">
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s"/>
       <c r="B44" t="s"/>
       <c r="C44" t="s"/>
       <c r="D44" t="s"/>
       <c r="E44" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="F44" t="s"/>
       <c r="G44" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="H44" t="s"/>
       <c r="I44" t="s"/>
-      <c r="J44" t="s">
-        <v>296</v>
-      </c>
+      <c r="J44" t="s"/>
       <c r="K44" t="s"/>
-      <c r="L44" t="s"/>
+      <c r="L44" t="s">
+        <v>277</v>
+      </c>
       <c r="M44" t="s"/>
       <c r="N44" t="s"/>
       <c r="O44" t="s"/>
@@ -3651,31 +3309,26 @@
       <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
-      <c r="V44" t="s"/>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
-    </row>
-    <row r="45" spans="1:25">
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s"/>
       <c r="B45" t="s"/>
       <c r="C45" t="s"/>
       <c r="D45" t="s"/>
       <c r="E45" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="F45" t="s"/>
       <c r="G45" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="H45" t="s"/>
       <c r="I45" t="s"/>
-      <c r="J45" t="s">
-        <v>299</v>
-      </c>
+      <c r="J45" t="s"/>
       <c r="K45" t="s"/>
-      <c r="L45" t="s"/>
+      <c r="L45" t="s">
+        <v>280</v>
+      </c>
       <c r="M45" t="s"/>
       <c r="N45" t="s"/>
       <c r="O45" t="s"/>
@@ -3684,31 +3337,26 @@
       <c r="R45" t="s"/>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
-      <c r="V45" t="s"/>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
-    </row>
-    <row r="46" spans="1:25">
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s"/>
       <c r="B46" t="s"/>
       <c r="C46" t="s"/>
       <c r="D46" t="s"/>
       <c r="E46" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="F46" t="s"/>
       <c r="G46" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="H46" t="s"/>
       <c r="I46" t="s"/>
-      <c r="J46" t="s">
-        <v>302</v>
-      </c>
+      <c r="J46" t="s"/>
       <c r="K46" t="s"/>
-      <c r="L46" t="s"/>
+      <c r="L46" t="s">
+        <v>283</v>
+      </c>
       <c r="M46" t="s"/>
       <c r="N46" t="s"/>
       <c r="O46" t="s"/>
@@ -3717,31 +3365,26 @@
       <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
-      <c r="V46" t="s"/>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
-    </row>
-    <row r="47" spans="1:25">
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s"/>
       <c r="B47" t="s"/>
       <c r="C47" t="s"/>
       <c r="D47" t="s"/>
       <c r="E47" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="F47" t="s"/>
       <c r="G47" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="H47" t="s"/>
       <c r="I47" t="s"/>
-      <c r="J47" t="s">
-        <v>305</v>
-      </c>
+      <c r="J47" t="s"/>
       <c r="K47" t="s"/>
-      <c r="L47" t="s"/>
+      <c r="L47" t="s">
+        <v>286</v>
+      </c>
       <c r="M47" t="s"/>
       <c r="N47" t="s"/>
       <c r="O47" t="s"/>
@@ -3750,29 +3393,24 @@
       <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
-      <c r="V47" t="s"/>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
-    </row>
-    <row r="48" spans="1:25">
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s"/>
       <c r="B48" t="s"/>
       <c r="C48" t="s"/>
       <c r="D48" t="s"/>
       <c r="E48" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="F48" t="s"/>
       <c r="G48" t="s"/>
       <c r="H48" t="s"/>
       <c r="I48" t="s"/>
-      <c r="J48" t="s">
-        <v>307</v>
-      </c>
+      <c r="J48" t="s"/>
       <c r="K48" t="s"/>
-      <c r="L48" t="s"/>
+      <c r="L48" t="s">
+        <v>288</v>
+      </c>
       <c r="M48" t="s"/>
       <c r="N48" t="s"/>
       <c r="O48" t="s"/>
@@ -3781,29 +3419,24 @@
       <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
-      <c r="V48" t="s"/>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
-    </row>
-    <row r="49" spans="1:25">
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" t="s"/>
       <c r="B49" t="s"/>
       <c r="C49" t="s"/>
       <c r="D49" t="s"/>
       <c r="E49" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="F49" t="s"/>
       <c r="G49" t="s"/>
       <c r="H49" t="s"/>
       <c r="I49" t="s"/>
-      <c r="J49" t="s">
-        <v>309</v>
-      </c>
+      <c r="J49" t="s"/>
       <c r="K49" t="s"/>
-      <c r="L49" t="s"/>
+      <c r="L49" t="s">
+        <v>290</v>
+      </c>
       <c r="M49" t="s"/>
       <c r="N49" t="s"/>
       <c r="O49" t="s"/>
@@ -3812,29 +3445,24 @@
       <c r="R49" t="s"/>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
-      <c r="V49" t="s"/>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
-    </row>
-    <row r="50" spans="1:25">
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s"/>
       <c r="B50" t="s"/>
       <c r="C50" t="s"/>
       <c r="D50" t="s"/>
       <c r="E50" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="F50" t="s"/>
       <c r="G50" t="s"/>
       <c r="H50" t="s"/>
       <c r="I50" t="s"/>
-      <c r="J50" t="s">
-        <v>310</v>
-      </c>
+      <c r="J50" t="s"/>
       <c r="K50" t="s"/>
-      <c r="L50" t="s"/>
+      <c r="L50" t="s">
+        <v>291</v>
+      </c>
       <c r="M50" t="s"/>
       <c r="N50" t="s"/>
       <c r="O50" t="s"/>
@@ -3843,29 +3471,24 @@
       <c r="R50" t="s"/>
       <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
-      <c r="V50" t="s"/>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
-      <c r="Y50" t="s"/>
-    </row>
-    <row r="51" spans="1:25">
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" t="s"/>
       <c r="B51" t="s"/>
       <c r="C51" t="s"/>
       <c r="D51" t="s"/>
       <c r="E51" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F51" t="s"/>
       <c r="G51" t="s"/>
       <c r="H51" t="s"/>
       <c r="I51" t="s"/>
-      <c r="J51" t="s">
-        <v>311</v>
-      </c>
+      <c r="J51" t="s"/>
       <c r="K51" t="s"/>
-      <c r="L51" t="s"/>
+      <c r="L51" t="s">
+        <v>292</v>
+      </c>
       <c r="M51" t="s"/>
       <c r="N51" t="s"/>
       <c r="O51" t="s"/>
@@ -3874,29 +3497,24 @@
       <c r="R51" t="s"/>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
-      <c r="V51" t="s"/>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
-    </row>
-    <row r="52" spans="1:25">
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" t="s"/>
       <c r="B52" t="s"/>
       <c r="C52" t="s"/>
       <c r="D52" t="s"/>
       <c r="E52" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F52" t="s"/>
       <c r="G52" t="s"/>
       <c r="H52" t="s"/>
       <c r="I52" t="s"/>
-      <c r="J52" t="s">
-        <v>312</v>
-      </c>
+      <c r="J52" t="s"/>
       <c r="K52" t="s"/>
-      <c r="L52" t="s"/>
+      <c r="L52" t="s">
+        <v>293</v>
+      </c>
       <c r="M52" t="s"/>
       <c r="N52" t="s"/>
       <c r="O52" t="s"/>
@@ -3905,29 +3523,24 @@
       <c r="R52" t="s"/>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
-      <c r="V52" t="s"/>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
-    </row>
-    <row r="53" spans="1:25">
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" t="s"/>
       <c r="B53" t="s"/>
       <c r="C53" t="s"/>
       <c r="D53" t="s"/>
       <c r="E53" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="F53" t="s"/>
       <c r="G53" t="s"/>
       <c r="H53" t="s"/>
       <c r="I53" t="s"/>
-      <c r="J53" t="s">
-        <v>313</v>
-      </c>
+      <c r="J53" t="s"/>
       <c r="K53" t="s"/>
-      <c r="L53" t="s"/>
+      <c r="L53" t="s">
+        <v>294</v>
+      </c>
       <c r="M53" t="s"/>
       <c r="N53" t="s"/>
       <c r="O53" t="s"/>
@@ -3936,29 +3549,24 @@
       <c r="R53" t="s"/>
       <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
-      <c r="V53" t="s"/>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
-    </row>
-    <row r="54" spans="1:25">
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" t="s"/>
       <c r="B54" t="s"/>
       <c r="C54" t="s"/>
       <c r="D54" t="s"/>
       <c r="E54" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="F54" t="s"/>
       <c r="G54" t="s"/>
       <c r="H54" t="s"/>
       <c r="I54" t="s"/>
-      <c r="J54" t="s">
-        <v>314</v>
-      </c>
+      <c r="J54" t="s"/>
       <c r="K54" t="s"/>
-      <c r="L54" t="s"/>
+      <c r="L54" t="s">
+        <v>295</v>
+      </c>
       <c r="M54" t="s"/>
       <c r="N54" t="s"/>
       <c r="O54" t="s"/>
@@ -3967,29 +3575,24 @@
       <c r="R54" t="s"/>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
-      <c r="V54" t="s"/>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
-    </row>
-    <row r="55" spans="1:25">
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" t="s"/>
       <c r="B55" t="s"/>
       <c r="C55" t="s"/>
       <c r="D55" t="s"/>
       <c r="E55" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="F55" t="s"/>
       <c r="G55" t="s"/>
       <c r="H55" t="s"/>
       <c r="I55" t="s"/>
-      <c r="J55" t="s">
-        <v>315</v>
-      </c>
+      <c r="J55" t="s"/>
       <c r="K55" t="s"/>
-      <c r="L55" t="s"/>
+      <c r="L55" t="s">
+        <v>296</v>
+      </c>
       <c r="M55" t="s"/>
       <c r="N55" t="s"/>
       <c r="O55" t="s"/>
@@ -3998,29 +3601,24 @@
       <c r="R55" t="s"/>
       <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
-      <c r="V55" t="s"/>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
-    </row>
-    <row r="56" spans="1:25">
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" t="s"/>
       <c r="B56" t="s"/>
       <c r="C56" t="s"/>
       <c r="D56" t="s"/>
       <c r="E56" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="F56" t="s"/>
       <c r="G56" t="s"/>
       <c r="H56" t="s"/>
       <c r="I56" t="s"/>
-      <c r="J56" t="s">
-        <v>316</v>
-      </c>
+      <c r="J56" t="s"/>
       <c r="K56" t="s"/>
-      <c r="L56" t="s"/>
+      <c r="L56" t="s">
+        <v>297</v>
+      </c>
       <c r="M56" t="s"/>
       <c r="N56" t="s"/>
       <c r="O56" t="s"/>
@@ -4029,29 +3627,24 @@
       <c r="R56" t="s"/>
       <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="s"/>
-      <c r="V56" t="s"/>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
-    </row>
-    <row r="57" spans="1:25">
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" t="s"/>
       <c r="B57" t="s"/>
       <c r="C57" t="s"/>
       <c r="D57" t="s"/>
       <c r="E57" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="F57" t="s"/>
       <c r="G57" t="s"/>
       <c r="H57" t="s"/>
       <c r="I57" t="s"/>
-      <c r="J57" t="s">
-        <v>317</v>
-      </c>
+      <c r="J57" t="s"/>
       <c r="K57" t="s"/>
-      <c r="L57" t="s"/>
+      <c r="L57" t="s">
+        <v>298</v>
+      </c>
       <c r="M57" t="s"/>
       <c r="N57" t="s"/>
       <c r="O57" t="s"/>
@@ -4060,29 +3653,24 @@
       <c r="R57" t="s"/>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
-      <c r="V57" t="s"/>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
-    </row>
-    <row r="58" spans="1:25">
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" t="s"/>
       <c r="B58" t="s"/>
       <c r="C58" t="s"/>
       <c r="D58" t="s"/>
       <c r="E58" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="F58" t="s"/>
       <c r="G58" t="s"/>
       <c r="H58" t="s"/>
       <c r="I58" t="s"/>
-      <c r="J58" t="s">
-        <v>318</v>
-      </c>
+      <c r="J58" t="s"/>
       <c r="K58" t="s"/>
-      <c r="L58" t="s"/>
+      <c r="L58" t="s">
+        <v>299</v>
+      </c>
       <c r="M58" t="s"/>
       <c r="N58" t="s"/>
       <c r="O58" t="s"/>
@@ -4091,29 +3679,24 @@
       <c r="R58" t="s"/>
       <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="s"/>
-      <c r="V58" t="s"/>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
-    </row>
-    <row r="59" spans="1:25">
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" t="s"/>
       <c r="B59" t="s"/>
       <c r="C59" t="s"/>
       <c r="D59" t="s"/>
       <c r="E59" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="F59" t="s"/>
       <c r="G59" t="s"/>
       <c r="H59" t="s"/>
       <c r="I59" t="s"/>
-      <c r="J59" t="s">
-        <v>319</v>
-      </c>
+      <c r="J59" t="s"/>
       <c r="K59" t="s"/>
-      <c r="L59" t="s"/>
+      <c r="L59" t="s">
+        <v>300</v>
+      </c>
       <c r="M59" t="s"/>
       <c r="N59" t="s"/>
       <c r="O59" t="s"/>
@@ -4122,29 +3705,24 @@
       <c r="R59" t="s"/>
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
-      <c r="V59" t="s"/>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
-    </row>
-    <row r="60" spans="1:25">
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" t="s"/>
       <c r="B60" t="s"/>
       <c r="C60" t="s"/>
       <c r="D60" t="s"/>
       <c r="E60" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="F60" t="s"/>
       <c r="G60" t="s"/>
       <c r="H60" t="s"/>
       <c r="I60" t="s"/>
-      <c r="J60" t="s">
-        <v>320</v>
-      </c>
+      <c r="J60" t="s"/>
       <c r="K60" t="s"/>
-      <c r="L60" t="s"/>
+      <c r="L60" t="s">
+        <v>301</v>
+      </c>
       <c r="M60" t="s"/>
       <c r="N60" t="s"/>
       <c r="O60" t="s"/>
@@ -4153,29 +3731,24 @@
       <c r="R60" t="s"/>
       <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="s"/>
-      <c r="V60" t="s"/>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
-    </row>
-    <row r="61" spans="1:25">
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" t="s"/>
       <c r="B61" t="s"/>
       <c r="C61" t="s"/>
       <c r="D61" t="s"/>
       <c r="E61" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="F61" t="s"/>
       <c r="G61" t="s"/>
       <c r="H61" t="s"/>
       <c r="I61" t="s"/>
-      <c r="J61" t="s">
-        <v>322</v>
-      </c>
+      <c r="J61" t="s"/>
       <c r="K61" t="s"/>
-      <c r="L61" t="s"/>
+      <c r="L61" t="s">
+        <v>303</v>
+      </c>
       <c r="M61" t="s"/>
       <c r="N61" t="s"/>
       <c r="O61" t="s"/>
@@ -4184,29 +3757,24 @@
       <c r="R61" t="s"/>
       <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="s"/>
-      <c r="V61" t="s"/>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
-    </row>
-    <row r="62" spans="1:25">
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" t="s"/>
       <c r="B62" t="s"/>
       <c r="C62" t="s"/>
       <c r="D62" t="s"/>
       <c r="E62" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="F62" t="s"/>
       <c r="G62" t="s"/>
       <c r="H62" t="s"/>
       <c r="I62" t="s"/>
-      <c r="J62" t="s">
-        <v>324</v>
-      </c>
+      <c r="J62" t="s"/>
       <c r="K62" t="s"/>
-      <c r="L62" t="s"/>
+      <c r="L62" t="s">
+        <v>305</v>
+      </c>
       <c r="M62" t="s"/>
       <c r="N62" t="s"/>
       <c r="O62" t="s"/>
@@ -4215,29 +3783,24 @@
       <c r="R62" t="s"/>
       <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="s"/>
-      <c r="V62" t="s"/>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
-    </row>
-    <row r="63" spans="1:25">
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" t="s"/>
       <c r="B63" t="s"/>
       <c r="C63" t="s"/>
       <c r="D63" t="s"/>
       <c r="E63" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="F63" t="s"/>
       <c r="G63" t="s"/>
       <c r="H63" t="s"/>
       <c r="I63" t="s"/>
-      <c r="J63" t="s">
-        <v>326</v>
-      </c>
+      <c r="J63" t="s"/>
       <c r="K63" t="s"/>
-      <c r="L63" t="s"/>
+      <c r="L63" t="s">
+        <v>307</v>
+      </c>
       <c r="M63" t="s"/>
       <c r="N63" t="s"/>
       <c r="O63" t="s"/>
@@ -4246,29 +3809,24 @@
       <c r="R63" t="s"/>
       <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="s"/>
-      <c r="V63" t="s"/>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
-    </row>
-    <row r="64" spans="1:25">
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" t="s"/>
       <c r="B64" t="s"/>
       <c r="C64" t="s"/>
       <c r="D64" t="s"/>
       <c r="E64" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="F64" t="s"/>
       <c r="G64" t="s"/>
       <c r="H64" t="s"/>
       <c r="I64" t="s"/>
-      <c r="J64" t="s">
-        <v>328</v>
-      </c>
+      <c r="J64" t="s"/>
       <c r="K64" t="s"/>
-      <c r="L64" t="s"/>
+      <c r="L64" t="s">
+        <v>309</v>
+      </c>
       <c r="M64" t="s"/>
       <c r="N64" t="s"/>
       <c r="O64" t="s"/>
@@ -4277,29 +3835,24 @@
       <c r="R64" t="s"/>
       <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
-      <c r="V64" t="s"/>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
-    </row>
-    <row r="65" spans="1:25">
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" t="s"/>
       <c r="B65" t="s"/>
       <c r="C65" t="s"/>
       <c r="D65" t="s"/>
       <c r="E65" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="F65" t="s"/>
       <c r="G65" t="s"/>
       <c r="H65" t="s"/>
       <c r="I65" t="s"/>
-      <c r="J65" t="s">
-        <v>330</v>
-      </c>
+      <c r="J65" t="s"/>
       <c r="K65" t="s"/>
-      <c r="L65" t="s"/>
+      <c r="L65" t="s">
+        <v>311</v>
+      </c>
       <c r="M65" t="s"/>
       <c r="N65" t="s"/>
       <c r="O65" t="s"/>
@@ -4308,29 +3861,24 @@
       <c r="R65" t="s"/>
       <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="s"/>
-      <c r="V65" t="s"/>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
-    </row>
-    <row r="66" spans="1:25">
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" t="s"/>
       <c r="B66" t="s"/>
       <c r="C66" t="s"/>
       <c r="D66" t="s"/>
       <c r="E66" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="F66" t="s"/>
       <c r="G66" t="s"/>
       <c r="H66" t="s"/>
       <c r="I66" t="s"/>
-      <c r="J66" t="s">
-        <v>331</v>
-      </c>
+      <c r="J66" t="s"/>
       <c r="K66" t="s"/>
-      <c r="L66" t="s"/>
+      <c r="L66" t="s">
+        <v>312</v>
+      </c>
       <c r="M66" t="s"/>
       <c r="N66" t="s"/>
       <c r="O66" t="s"/>
@@ -4339,29 +3887,24 @@
       <c r="R66" t="s"/>
       <c r="S66" t="s"/>
       <c r="T66" t="s"/>
-      <c r="U66" t="s"/>
-      <c r="V66" t="s"/>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
-    </row>
-    <row r="67" spans="1:25">
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" t="s"/>
       <c r="B67" t="s"/>
       <c r="C67" t="s"/>
       <c r="D67" t="s"/>
       <c r="E67" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="F67" t="s"/>
       <c r="G67" t="s"/>
       <c r="H67" t="s"/>
       <c r="I67" t="s"/>
-      <c r="J67" t="s">
-        <v>332</v>
-      </c>
+      <c r="J67" t="s"/>
       <c r="K67" t="s"/>
-      <c r="L67" t="s"/>
+      <c r="L67" t="s">
+        <v>313</v>
+      </c>
       <c r="M67" t="s"/>
       <c r="N67" t="s"/>
       <c r="O67" t="s"/>
@@ -4370,29 +3913,24 @@
       <c r="R67" t="s"/>
       <c r="S67" t="s"/>
       <c r="T67" t="s"/>
-      <c r="U67" t="s"/>
-      <c r="V67" t="s"/>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
-    </row>
-    <row r="68" spans="1:25">
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" t="s"/>
       <c r="B68" t="s"/>
       <c r="C68" t="s"/>
       <c r="D68" t="s"/>
       <c r="E68" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="F68" t="s"/>
       <c r="G68" t="s"/>
       <c r="H68" t="s"/>
       <c r="I68" t="s"/>
-      <c r="J68" t="s">
-        <v>333</v>
-      </c>
+      <c r="J68" t="s"/>
       <c r="K68" t="s"/>
-      <c r="L68" t="s"/>
+      <c r="L68" t="s">
+        <v>314</v>
+      </c>
       <c r="M68" t="s"/>
       <c r="N68" t="s"/>
       <c r="O68" t="s"/>
@@ -4401,29 +3939,24 @@
       <c r="R68" t="s"/>
       <c r="S68" t="s"/>
       <c r="T68" t="s"/>
-      <c r="U68" t="s"/>
-      <c r="V68" t="s"/>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
-    </row>
-    <row r="69" spans="1:25">
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" t="s"/>
       <c r="B69" t="s"/>
       <c r="C69" t="s"/>
       <c r="D69" t="s"/>
       <c r="E69" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="F69" t="s"/>
       <c r="G69" t="s"/>
       <c r="H69" t="s"/>
       <c r="I69" t="s"/>
-      <c r="J69" t="s">
-        <v>334</v>
-      </c>
+      <c r="J69" t="s"/>
       <c r="K69" t="s"/>
-      <c r="L69" t="s"/>
+      <c r="L69" t="s">
+        <v>315</v>
+      </c>
       <c r="M69" t="s"/>
       <c r="N69" t="s"/>
       <c r="O69" t="s"/>
@@ -4432,29 +3965,24 @@
       <c r="R69" t="s"/>
       <c r="S69" t="s"/>
       <c r="T69" t="s"/>
-      <c r="U69" t="s"/>
-      <c r="V69" t="s"/>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
-    </row>
-    <row r="70" spans="1:25">
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" t="s"/>
       <c r="B70" t="s"/>
       <c r="C70" t="s"/>
       <c r="D70" t="s"/>
       <c r="E70" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="F70" t="s"/>
       <c r="G70" t="s"/>
       <c r="H70" t="s"/>
       <c r="I70" t="s"/>
-      <c r="J70" t="s">
-        <v>335</v>
-      </c>
+      <c r="J70" t="s"/>
       <c r="K70" t="s"/>
-      <c r="L70" t="s"/>
+      <c r="L70" t="s">
+        <v>316</v>
+      </c>
       <c r="M70" t="s"/>
       <c r="N70" t="s"/>
       <c r="O70" t="s"/>
@@ -4463,29 +3991,24 @@
       <c r="R70" t="s"/>
       <c r="S70" t="s"/>
       <c r="T70" t="s"/>
-      <c r="U70" t="s"/>
-      <c r="V70" t="s"/>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
-    </row>
-    <row r="71" spans="1:25">
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" t="s"/>
       <c r="B71" t="s"/>
       <c r="C71" t="s"/>
       <c r="D71" t="s"/>
       <c r="E71" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="F71" t="s"/>
       <c r="G71" t="s"/>
       <c r="H71" t="s"/>
       <c r="I71" t="s"/>
-      <c r="J71" t="s">
-        <v>336</v>
-      </c>
+      <c r="J71" t="s"/>
       <c r="K71" t="s"/>
-      <c r="L71" t="s"/>
+      <c r="L71" t="s">
+        <v>317</v>
+      </c>
       <c r="M71" t="s"/>
       <c r="N71" t="s"/>
       <c r="O71" t="s"/>
@@ -4494,29 +4017,24 @@
       <c r="R71" t="s"/>
       <c r="S71" t="s"/>
       <c r="T71" t="s"/>
-      <c r="U71" t="s"/>
-      <c r="V71" t="s"/>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
-      <c r="Y71" t="s"/>
-    </row>
-    <row r="72" spans="1:25">
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" t="s"/>
       <c r="B72" t="s"/>
       <c r="C72" t="s"/>
       <c r="D72" t="s"/>
       <c r="E72" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="F72" t="s"/>
       <c r="G72" t="s"/>
       <c r="H72" t="s"/>
       <c r="I72" t="s"/>
-      <c r="J72" t="s">
-        <v>337</v>
-      </c>
+      <c r="J72" t="s"/>
       <c r="K72" t="s"/>
-      <c r="L72" t="s"/>
+      <c r="L72" t="s">
+        <v>318</v>
+      </c>
       <c r="M72" t="s"/>
       <c r="N72" t="s"/>
       <c r="O72" t="s"/>
@@ -4525,29 +4043,24 @@
       <c r="R72" t="s"/>
       <c r="S72" t="s"/>
       <c r="T72" t="s"/>
-      <c r="U72" t="s"/>
-      <c r="V72" t="s"/>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
-      <c r="Y72" t="s"/>
-    </row>
-    <row r="73" spans="1:25">
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" t="s"/>
       <c r="B73" t="s"/>
       <c r="C73" t="s"/>
       <c r="D73" t="s"/>
       <c r="E73" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="F73" t="s"/>
       <c r="G73" t="s"/>
       <c r="H73" t="s"/>
       <c r="I73" t="s"/>
-      <c r="J73" t="s">
-        <v>338</v>
-      </c>
+      <c r="J73" t="s"/>
       <c r="K73" t="s"/>
-      <c r="L73" t="s"/>
+      <c r="L73" t="s">
+        <v>319</v>
+      </c>
       <c r="M73" t="s"/>
       <c r="N73" t="s"/>
       <c r="O73" t="s"/>
@@ -4556,29 +4069,24 @@
       <c r="R73" t="s"/>
       <c r="S73" t="s"/>
       <c r="T73" t="s"/>
-      <c r="U73" t="s"/>
-      <c r="V73" t="s"/>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
-    </row>
-    <row r="74" spans="1:25">
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" t="s"/>
       <c r="B74" t="s"/>
       <c r="C74" t="s"/>
       <c r="D74" t="s"/>
       <c r="E74" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="F74" t="s"/>
       <c r="G74" t="s"/>
       <c r="H74" t="s"/>
       <c r="I74" t="s"/>
-      <c r="J74" t="s">
-        <v>339</v>
-      </c>
+      <c r="J74" t="s"/>
       <c r="K74" t="s"/>
-      <c r="L74" t="s"/>
+      <c r="L74" t="s">
+        <v>320</v>
+      </c>
       <c r="M74" t="s"/>
       <c r="N74" t="s"/>
       <c r="O74" t="s"/>
@@ -4587,29 +4095,24 @@
       <c r="R74" t="s"/>
       <c r="S74" t="s"/>
       <c r="T74" t="s"/>
-      <c r="U74" t="s"/>
-      <c r="V74" t="s"/>
-      <c r="W74" t="s"/>
-      <c r="X74" t="s"/>
-      <c r="Y74" t="s"/>
-    </row>
-    <row r="75" spans="1:25">
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" t="s"/>
       <c r="B75" t="s"/>
       <c r="C75" t="s"/>
       <c r="D75" t="s"/>
       <c r="E75" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="F75" t="s"/>
       <c r="G75" t="s"/>
       <c r="H75" t="s"/>
       <c r="I75" t="s"/>
-      <c r="J75" t="s">
-        <v>341</v>
-      </c>
+      <c r="J75" t="s"/>
       <c r="K75" t="s"/>
-      <c r="L75" t="s"/>
+      <c r="L75" t="s">
+        <v>322</v>
+      </c>
       <c r="M75" t="s"/>
       <c r="N75" t="s"/>
       <c r="O75" t="s"/>
@@ -4618,13 +4121,8 @@
       <c r="R75" t="s"/>
       <c r="S75" t="s"/>
       <c r="T75" t="s"/>
-      <c r="U75" t="s"/>
-      <c r="V75" t="s"/>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
-    </row>
-    <row r="76" spans="1:25">
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" t="s"/>
       <c r="B76" t="s"/>
       <c r="C76" t="s"/>
@@ -4634,11 +4132,11 @@
       <c r="G76" t="s"/>
       <c r="H76" t="s"/>
       <c r="I76" t="s"/>
-      <c r="J76" t="s">
-        <v>342</v>
-      </c>
+      <c r="J76" t="s"/>
       <c r="K76" t="s"/>
-      <c r="L76" t="s"/>
+      <c r="L76" t="s">
+        <v>323</v>
+      </c>
       <c r="M76" t="s"/>
       <c r="N76" t="s"/>
       <c r="O76" t="s"/>
@@ -4647,13 +4145,8 @@
       <c r="R76" t="s"/>
       <c r="S76" t="s"/>
       <c r="T76" t="s"/>
-      <c r="U76" t="s"/>
-      <c r="V76" t="s"/>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
-    </row>
-    <row r="77" spans="1:25">
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" t="s"/>
       <c r="B77" t="s"/>
       <c r="C77" t="s"/>
@@ -4663,11 +4156,11 @@
       <c r="G77" t="s"/>
       <c r="H77" t="s"/>
       <c r="I77" t="s"/>
-      <c r="J77" t="s">
-        <v>343</v>
-      </c>
+      <c r="J77" t="s"/>
       <c r="K77" t="s"/>
-      <c r="L77" t="s"/>
+      <c r="L77" t="s">
+        <v>324</v>
+      </c>
       <c r="M77" t="s"/>
       <c r="N77" t="s"/>
       <c r="O77" t="s"/>
@@ -4676,13 +4169,8 @@
       <c r="R77" t="s"/>
       <c r="S77" t="s"/>
       <c r="T77" t="s"/>
-      <c r="U77" t="s"/>
-      <c r="V77" t="s"/>
-      <c r="W77" t="s"/>
-      <c r="X77" t="s"/>
-      <c r="Y77" t="s"/>
-    </row>
-    <row r="78" spans="1:25">
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" t="s"/>
       <c r="B78" t="s"/>
       <c r="C78" t="s"/>
@@ -4692,11 +4180,11 @@
       <c r="G78" t="s"/>
       <c r="H78" t="s"/>
       <c r="I78" t="s"/>
-      <c r="J78" t="s">
-        <v>344</v>
-      </c>
+      <c r="J78" t="s"/>
       <c r="K78" t="s"/>
-      <c r="L78" t="s"/>
+      <c r="L78" t="s">
+        <v>325</v>
+      </c>
       <c r="M78" t="s"/>
       <c r="N78" t="s"/>
       <c r="O78" t="s"/>
@@ -4705,13 +4193,8 @@
       <c r="R78" t="s"/>
       <c r="S78" t="s"/>
       <c r="T78" t="s"/>
-      <c r="U78" t="s"/>
-      <c r="V78" t="s"/>
-      <c r="W78" t="s"/>
-      <c r="X78" t="s"/>
-      <c r="Y78" t="s"/>
-    </row>
-    <row r="79" spans="1:25">
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" t="s"/>
       <c r="B79" t="s"/>
       <c r="C79" t="s"/>
@@ -4721,11 +4204,11 @@
       <c r="G79" t="s"/>
       <c r="H79" t="s"/>
       <c r="I79" t="s"/>
-      <c r="J79" t="s">
-        <v>345</v>
-      </c>
+      <c r="J79" t="s"/>
       <c r="K79" t="s"/>
-      <c r="L79" t="s"/>
+      <c r="L79" t="s">
+        <v>326</v>
+      </c>
       <c r="M79" t="s"/>
       <c r="N79" t="s"/>
       <c r="O79" t="s"/>
@@ -4734,13 +4217,8 @@
       <c r="R79" t="s"/>
       <c r="S79" t="s"/>
       <c r="T79" t="s"/>
-      <c r="U79" t="s"/>
-      <c r="V79" t="s"/>
-      <c r="W79" t="s"/>
-      <c r="X79" t="s"/>
-      <c r="Y79" t="s"/>
-    </row>
-    <row r="80" spans="1:25">
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" t="s"/>
       <c r="B80" t="s"/>
       <c r="C80" t="s"/>
@@ -4750,11 +4228,11 @@
       <c r="G80" t="s"/>
       <c r="H80" t="s"/>
       <c r="I80" t="s"/>
-      <c r="J80" t="s">
-        <v>346</v>
-      </c>
+      <c r="J80" t="s"/>
       <c r="K80" t="s"/>
-      <c r="L80" t="s"/>
+      <c r="L80" t="s">
+        <v>327</v>
+      </c>
       <c r="M80" t="s"/>
       <c r="N80" t="s"/>
       <c r="O80" t="s"/>
@@ -4763,13 +4241,8 @@
       <c r="R80" t="s"/>
       <c r="S80" t="s"/>
       <c r="T80" t="s"/>
-      <c r="U80" t="s"/>
-      <c r="V80" t="s"/>
-      <c r="W80" t="s"/>
-      <c r="X80" t="s"/>
-      <c r="Y80" t="s"/>
-    </row>
-    <row r="81" spans="1:25">
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" t="s"/>
       <c r="B81" t="s"/>
       <c r="C81" t="s"/>
@@ -4779,11 +4252,11 @@
       <c r="G81" t="s"/>
       <c r="H81" t="s"/>
       <c r="I81" t="s"/>
-      <c r="J81" t="s">
-        <v>347</v>
-      </c>
+      <c r="J81" t="s"/>
       <c r="K81" t="s"/>
-      <c r="L81" t="s"/>
+      <c r="L81" t="s">
+        <v>328</v>
+      </c>
       <c r="M81" t="s"/>
       <c r="N81" t="s"/>
       <c r="O81" t="s"/>
@@ -4792,13 +4265,8 @@
       <c r="R81" t="s"/>
       <c r="S81" t="s"/>
       <c r="T81" t="s"/>
-      <c r="U81" t="s"/>
-      <c r="V81" t="s"/>
-      <c r="W81" t="s"/>
-      <c r="X81" t="s"/>
-      <c r="Y81" t="s"/>
-    </row>
-    <row r="82" spans="1:25">
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" t="s"/>
       <c r="B82" t="s"/>
       <c r="C82" t="s"/>
@@ -4808,11 +4276,11 @@
       <c r="G82" t="s"/>
       <c r="H82" t="s"/>
       <c r="I82" t="s"/>
-      <c r="J82" t="s">
-        <v>348</v>
-      </c>
+      <c r="J82" t="s"/>
       <c r="K82" t="s"/>
-      <c r="L82" t="s"/>
+      <c r="L82" t="s">
+        <v>329</v>
+      </c>
       <c r="M82" t="s"/>
       <c r="N82" t="s"/>
       <c r="O82" t="s"/>
@@ -4821,13 +4289,8 @@
       <c r="R82" t="s"/>
       <c r="S82" t="s"/>
       <c r="T82" t="s"/>
-      <c r="U82" t="s"/>
-      <c r="V82" t="s"/>
-      <c r="W82" t="s"/>
-      <c r="X82" t="s"/>
-      <c r="Y82" t="s"/>
-    </row>
-    <row r="83" spans="1:25">
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" t="s"/>
       <c r="B83" t="s"/>
       <c r="C83" t="s"/>
@@ -4837,11 +4300,11 @@
       <c r="G83" t="s"/>
       <c r="H83" t="s"/>
       <c r="I83" t="s"/>
-      <c r="J83" t="s">
-        <v>349</v>
-      </c>
+      <c r="J83" t="s"/>
       <c r="K83" t="s"/>
-      <c r="L83" t="s"/>
+      <c r="L83" t="s">
+        <v>330</v>
+      </c>
       <c r="M83" t="s"/>
       <c r="N83" t="s"/>
       <c r="O83" t="s"/>
@@ -4850,13 +4313,8 @@
       <c r="R83" t="s"/>
       <c r="S83" t="s"/>
       <c r="T83" t="s"/>
-      <c r="U83" t="s"/>
-      <c r="V83" t="s"/>
-      <c r="W83" t="s"/>
-      <c r="X83" t="s"/>
-      <c r="Y83" t="s"/>
-    </row>
-    <row r="84" spans="1:25">
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" t="s"/>
       <c r="B84" t="s"/>
       <c r="C84" t="s"/>
@@ -4866,11 +4324,11 @@
       <c r="G84" t="s"/>
       <c r="H84" t="s"/>
       <c r="I84" t="s"/>
-      <c r="J84" t="s">
-        <v>350</v>
-      </c>
+      <c r="J84" t="s"/>
       <c r="K84" t="s"/>
-      <c r="L84" t="s"/>
+      <c r="L84" t="s">
+        <v>331</v>
+      </c>
       <c r="M84" t="s"/>
       <c r="N84" t="s"/>
       <c r="O84" t="s"/>
@@ -4879,13 +4337,8 @@
       <c r="R84" t="s"/>
       <c r="S84" t="s"/>
       <c r="T84" t="s"/>
-      <c r="U84" t="s"/>
-      <c r="V84" t="s"/>
-      <c r="W84" t="s"/>
-      <c r="X84" t="s"/>
-      <c r="Y84" t="s"/>
-    </row>
-    <row r="85" spans="1:25">
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" t="s"/>
       <c r="B85" t="s"/>
       <c r="C85" t="s"/>
@@ -4895,11 +4348,11 @@
       <c r="G85" t="s"/>
       <c r="H85" t="s"/>
       <c r="I85" t="s"/>
-      <c r="J85" t="s">
-        <v>351</v>
-      </c>
+      <c r="J85" t="s"/>
       <c r="K85" t="s"/>
-      <c r="L85" t="s"/>
+      <c r="L85" t="s">
+        <v>332</v>
+      </c>
       <c r="M85" t="s"/>
       <c r="N85" t="s"/>
       <c r="O85" t="s"/>
@@ -4908,13 +4361,8 @@
       <c r="R85" t="s"/>
       <c r="S85" t="s"/>
       <c r="T85" t="s"/>
-      <c r="U85" t="s"/>
-      <c r="V85" t="s"/>
-      <c r="W85" t="s"/>
-      <c r="X85" t="s"/>
-      <c r="Y85" t="s"/>
-    </row>
-    <row r="86" spans="1:25">
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" t="s"/>
       <c r="B86" t="s"/>
       <c r="C86" t="s"/>
@@ -4924,11 +4372,11 @@
       <c r="G86" t="s"/>
       <c r="H86" t="s"/>
       <c r="I86" t="s"/>
-      <c r="J86" t="s">
-        <v>352</v>
-      </c>
+      <c r="J86" t="s"/>
       <c r="K86" t="s"/>
-      <c r="L86" t="s"/>
+      <c r="L86" t="s">
+        <v>333</v>
+      </c>
       <c r="M86" t="s"/>
       <c r="N86" t="s"/>
       <c r="O86" t="s"/>
@@ -4937,13 +4385,8 @@
       <c r="R86" t="s"/>
       <c r="S86" t="s"/>
       <c r="T86" t="s"/>
-      <c r="U86" t="s"/>
-      <c r="V86" t="s"/>
-      <c r="W86" t="s"/>
-      <c r="X86" t="s"/>
-      <c r="Y86" t="s"/>
-    </row>
-    <row r="87" spans="1:25">
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" t="s"/>
       <c r="B87" t="s"/>
       <c r="C87" t="s"/>
@@ -4953,11 +4396,11 @@
       <c r="G87" t="s"/>
       <c r="H87" t="s"/>
       <c r="I87" t="s"/>
-      <c r="J87" t="s">
-        <v>353</v>
-      </c>
+      <c r="J87" t="s"/>
       <c r="K87" t="s"/>
-      <c r="L87" t="s"/>
+      <c r="L87" t="s">
+        <v>334</v>
+      </c>
       <c r="M87" t="s"/>
       <c r="N87" t="s"/>
       <c r="O87" t="s"/>
@@ -4966,13 +4409,8 @@
       <c r="R87" t="s"/>
       <c r="S87" t="s"/>
       <c r="T87" t="s"/>
-      <c r="U87" t="s"/>
-      <c r="V87" t="s"/>
-      <c r="W87" t="s"/>
-      <c r="X87" t="s"/>
-      <c r="Y87" t="s"/>
-    </row>
-    <row r="88" spans="1:25">
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" t="s"/>
       <c r="B88" t="s"/>
       <c r="C88" t="s"/>
@@ -4982,11 +4420,11 @@
       <c r="G88" t="s"/>
       <c r="H88" t="s"/>
       <c r="I88" t="s"/>
-      <c r="J88" t="s">
-        <v>354</v>
-      </c>
+      <c r="J88" t="s"/>
       <c r="K88" t="s"/>
-      <c r="L88" t="s"/>
+      <c r="L88" t="s">
+        <v>335</v>
+      </c>
       <c r="M88" t="s"/>
       <c r="N88" t="s"/>
       <c r="O88" t="s"/>
@@ -4995,13 +4433,8 @@
       <c r="R88" t="s"/>
       <c r="S88" t="s"/>
       <c r="T88" t="s"/>
-      <c r="U88" t="s"/>
-      <c r="V88" t="s"/>
-      <c r="W88" t="s"/>
-      <c r="X88" t="s"/>
-      <c r="Y88" t="s"/>
-    </row>
-    <row r="89" spans="1:25">
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" t="s"/>
       <c r="B89" t="s"/>
       <c r="C89" t="s"/>
@@ -5011,11 +4444,11 @@
       <c r="G89" t="s"/>
       <c r="H89" t="s"/>
       <c r="I89" t="s"/>
-      <c r="J89" t="s">
-        <v>355</v>
-      </c>
+      <c r="J89" t="s"/>
       <c r="K89" t="s"/>
-      <c r="L89" t="s"/>
+      <c r="L89" t="s">
+        <v>336</v>
+      </c>
       <c r="M89" t="s"/>
       <c r="N89" t="s"/>
       <c r="O89" t="s"/>
@@ -5024,13 +4457,8 @@
       <c r="R89" t="s"/>
       <c r="S89" t="s"/>
       <c r="T89" t="s"/>
-      <c r="U89" t="s"/>
-      <c r="V89" t="s"/>
-      <c r="W89" t="s"/>
-      <c r="X89" t="s"/>
-      <c r="Y89" t="s"/>
-    </row>
-    <row r="90" spans="1:25">
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" t="s"/>
       <c r="B90" t="s"/>
       <c r="C90" t="s"/>
@@ -5040,11 +4468,11 @@
       <c r="G90" t="s"/>
       <c r="H90" t="s"/>
       <c r="I90" t="s"/>
-      <c r="J90" t="s">
-        <v>356</v>
-      </c>
+      <c r="J90" t="s"/>
       <c r="K90" t="s"/>
-      <c r="L90" t="s"/>
+      <c r="L90" t="s">
+        <v>337</v>
+      </c>
       <c r="M90" t="s"/>
       <c r="N90" t="s"/>
       <c r="O90" t="s"/>
@@ -5053,13 +4481,8 @@
       <c r="R90" t="s"/>
       <c r="S90" t="s"/>
       <c r="T90" t="s"/>
-      <c r="U90" t="s"/>
-      <c r="V90" t="s"/>
-      <c r="W90" t="s"/>
-      <c r="X90" t="s"/>
-      <c r="Y90" t="s"/>
-    </row>
-    <row r="91" spans="1:25">
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" t="s"/>
       <c r="B91" t="s"/>
       <c r="C91" t="s"/>
@@ -5069,11 +4492,11 @@
       <c r="G91" t="s"/>
       <c r="H91" t="s"/>
       <c r="I91" t="s"/>
-      <c r="J91" t="s">
-        <v>357</v>
-      </c>
+      <c r="J91" t="s"/>
       <c r="K91" t="s"/>
-      <c r="L91" t="s"/>
+      <c r="L91" t="s">
+        <v>338</v>
+      </c>
       <c r="M91" t="s"/>
       <c r="N91" t="s"/>
       <c r="O91" t="s"/>
@@ -5082,13 +4505,8 @@
       <c r="R91" t="s"/>
       <c r="S91" t="s"/>
       <c r="T91" t="s"/>
-      <c r="U91" t="s"/>
-      <c r="V91" t="s"/>
-      <c r="W91" t="s"/>
-      <c r="X91" t="s"/>
-      <c r="Y91" t="s"/>
-    </row>
-    <row r="92" spans="1:25">
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" t="s"/>
       <c r="B92" t="s"/>
       <c r="C92" t="s"/>
@@ -5098,11 +4516,11 @@
       <c r="G92" t="s"/>
       <c r="H92" t="s"/>
       <c r="I92" t="s"/>
-      <c r="J92" t="s">
-        <v>358</v>
-      </c>
+      <c r="J92" t="s"/>
       <c r="K92" t="s"/>
-      <c r="L92" t="s"/>
+      <c r="L92" t="s">
+        <v>339</v>
+      </c>
       <c r="M92" t="s"/>
       <c r="N92" t="s"/>
       <c r="O92" t="s"/>
@@ -5111,13 +4529,8 @@
       <c r="R92" t="s"/>
       <c r="S92" t="s"/>
       <c r="T92" t="s"/>
-      <c r="U92" t="s"/>
-      <c r="V92" t="s"/>
-      <c r="W92" t="s"/>
-      <c r="X92" t="s"/>
-      <c r="Y92" t="s"/>
-    </row>
-    <row r="93" spans="1:25">
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" t="s"/>
       <c r="B93" t="s"/>
       <c r="C93" t="s"/>
@@ -5127,11 +4540,11 @@
       <c r="G93" t="s"/>
       <c r="H93" t="s"/>
       <c r="I93" t="s"/>
-      <c r="J93" t="s">
-        <v>359</v>
-      </c>
+      <c r="J93" t="s"/>
       <c r="K93" t="s"/>
-      <c r="L93" t="s"/>
+      <c r="L93" t="s">
+        <v>340</v>
+      </c>
       <c r="M93" t="s"/>
       <c r="N93" t="s"/>
       <c r="O93" t="s"/>
@@ -5140,13 +4553,8 @@
       <c r="R93" t="s"/>
       <c r="S93" t="s"/>
       <c r="T93" t="s"/>
-      <c r="U93" t="s"/>
-      <c r="V93" t="s"/>
-      <c r="W93" t="s"/>
-      <c r="X93" t="s"/>
-      <c r="Y93" t="s"/>
-    </row>
-    <row r="94" spans="1:25">
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" t="s"/>
       <c r="B94" t="s"/>
       <c r="C94" t="s"/>
@@ -5156,11 +4564,11 @@
       <c r="G94" t="s"/>
       <c r="H94" t="s"/>
       <c r="I94" t="s"/>
-      <c r="J94" t="s">
-        <v>360</v>
-      </c>
+      <c r="J94" t="s"/>
       <c r="K94" t="s"/>
-      <c r="L94" t="s"/>
+      <c r="L94" t="s">
+        <v>341</v>
+      </c>
       <c r="M94" t="s"/>
       <c r="N94" t="s"/>
       <c r="O94" t="s"/>
@@ -5169,13 +4577,8 @@
       <c r="R94" t="s"/>
       <c r="S94" t="s"/>
       <c r="T94" t="s"/>
-      <c r="U94" t="s"/>
-      <c r="V94" t="s"/>
-      <c r="W94" t="s"/>
-      <c r="X94" t="s"/>
-      <c r="Y94" t="s"/>
-    </row>
-    <row r="95" spans="1:25">
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" t="s"/>
       <c r="B95" t="s"/>
       <c r="C95" t="s"/>
@@ -5185,11 +4588,11 @@
       <c r="G95" t="s"/>
       <c r="H95" t="s"/>
       <c r="I95" t="s"/>
-      <c r="J95" t="s">
-        <v>361</v>
-      </c>
+      <c r="J95" t="s"/>
       <c r="K95" t="s"/>
-      <c r="L95" t="s"/>
+      <c r="L95" t="s">
+        <v>342</v>
+      </c>
       <c r="M95" t="s"/>
       <c r="N95" t="s"/>
       <c r="O95" t="s"/>
@@ -5198,13 +4601,8 @@
       <c r="R95" t="s"/>
       <c r="S95" t="s"/>
       <c r="T95" t="s"/>
-      <c r="U95" t="s"/>
-      <c r="V95" t="s"/>
-      <c r="W95" t="s"/>
-      <c r="X95" t="s"/>
-      <c r="Y95" t="s"/>
-    </row>
-    <row r="96" spans="1:25">
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" t="s"/>
       <c r="B96" t="s"/>
       <c r="C96" t="s"/>
@@ -5214,11 +4612,11 @@
       <c r="G96" t="s"/>
       <c r="H96" t="s"/>
       <c r="I96" t="s"/>
-      <c r="J96" t="s">
-        <v>362</v>
-      </c>
+      <c r="J96" t="s"/>
       <c r="K96" t="s"/>
-      <c r="L96" t="s"/>
+      <c r="L96" t="s">
+        <v>343</v>
+      </c>
       <c r="M96" t="s"/>
       <c r="N96" t="s"/>
       <c r="O96" t="s"/>
@@ -5227,13 +4625,8 @@
       <c r="R96" t="s"/>
       <c r="S96" t="s"/>
       <c r="T96" t="s"/>
-      <c r="U96" t="s"/>
-      <c r="V96" t="s"/>
-      <c r="W96" t="s"/>
-      <c r="X96" t="s"/>
-      <c r="Y96" t="s"/>
-    </row>
-    <row r="97" spans="1:25">
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" t="s"/>
       <c r="B97" t="s"/>
       <c r="C97" t="s"/>
@@ -5243,11 +4636,11 @@
       <c r="G97" t="s"/>
       <c r="H97" t="s"/>
       <c r="I97" t="s"/>
-      <c r="J97" t="s">
-        <v>363</v>
-      </c>
+      <c r="J97" t="s"/>
       <c r="K97" t="s"/>
-      <c r="L97" t="s"/>
+      <c r="L97" t="s">
+        <v>344</v>
+      </c>
       <c r="M97" t="s"/>
       <c r="N97" t="s"/>
       <c r="O97" t="s"/>
@@ -5256,13 +4649,8 @@
       <c r="R97" t="s"/>
       <c r="S97" t="s"/>
       <c r="T97" t="s"/>
-      <c r="U97" t="s"/>
-      <c r="V97" t="s"/>
-      <c r="W97" t="s"/>
-      <c r="X97" t="s"/>
-      <c r="Y97" t="s"/>
-    </row>
-    <row r="98" spans="1:25">
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" t="s"/>
       <c r="B98" t="s"/>
       <c r="C98" t="s"/>
@@ -5272,11 +4660,11 @@
       <c r="G98" t="s"/>
       <c r="H98" t="s"/>
       <c r="I98" t="s"/>
-      <c r="J98" t="s">
-        <v>364</v>
-      </c>
+      <c r="J98" t="s"/>
       <c r="K98" t="s"/>
-      <c r="L98" t="s"/>
+      <c r="L98" t="s">
+        <v>345</v>
+      </c>
       <c r="M98" t="s"/>
       <c r="N98" t="s"/>
       <c r="O98" t="s"/>
@@ -5285,13 +4673,8 @@
       <c r="R98" t="s"/>
       <c r="S98" t="s"/>
       <c r="T98" t="s"/>
-      <c r="U98" t="s"/>
-      <c r="V98" t="s"/>
-      <c r="W98" t="s"/>
-      <c r="X98" t="s"/>
-      <c r="Y98" t="s"/>
-    </row>
-    <row r="99" spans="1:25">
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" t="s"/>
       <c r="B99" t="s"/>
       <c r="C99" t="s"/>
@@ -5301,11 +4684,11 @@
       <c r="G99" t="s"/>
       <c r="H99" t="s"/>
       <c r="I99" t="s"/>
-      <c r="J99" t="s">
-        <v>365</v>
-      </c>
+      <c r="J99" t="s"/>
       <c r="K99" t="s"/>
-      <c r="L99" t="s"/>
+      <c r="L99" t="s">
+        <v>346</v>
+      </c>
       <c r="M99" t="s"/>
       <c r="N99" t="s"/>
       <c r="O99" t="s"/>
@@ -5314,13 +4697,8 @@
       <c r="R99" t="s"/>
       <c r="S99" t="s"/>
       <c r="T99" t="s"/>
-      <c r="U99" t="s"/>
-      <c r="V99" t="s"/>
-      <c r="W99" t="s"/>
-      <c r="X99" t="s"/>
-      <c r="Y99" t="s"/>
-    </row>
-    <row r="100" spans="1:25">
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" t="s"/>
       <c r="B100" t="s"/>
       <c r="C100" t="s"/>
@@ -5330,11 +4708,11 @@
       <c r="G100" t="s"/>
       <c r="H100" t="s"/>
       <c r="I100" t="s"/>
-      <c r="J100" t="s">
-        <v>366</v>
-      </c>
+      <c r="J100" t="s"/>
       <c r="K100" t="s"/>
-      <c r="L100" t="s"/>
+      <c r="L100" t="s">
+        <v>347</v>
+      </c>
       <c r="M100" t="s"/>
       <c r="N100" t="s"/>
       <c r="O100" t="s"/>
@@ -5343,13 +4721,8 @@
       <c r="R100" t="s"/>
       <c r="S100" t="s"/>
       <c r="T100" t="s"/>
-      <c r="U100" t="s"/>
-      <c r="V100" t="s"/>
-      <c r="W100" t="s"/>
-      <c r="X100" t="s"/>
-      <c r="Y100" t="s"/>
-    </row>
-    <row r="101" spans="1:25">
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" t="s"/>
       <c r="B101" t="s"/>
       <c r="C101" t="s"/>
@@ -5359,11 +4732,11 @@
       <c r="G101" t="s"/>
       <c r="H101" t="s"/>
       <c r="I101" t="s"/>
-      <c r="J101" t="s">
-        <v>367</v>
-      </c>
+      <c r="J101" t="s"/>
       <c r="K101" t="s"/>
-      <c r="L101" t="s"/>
+      <c r="L101" t="s">
+        <v>348</v>
+      </c>
       <c r="M101" t="s"/>
       <c r="N101" t="s"/>
       <c r="O101" t="s"/>
@@ -5372,13 +4745,8 @@
       <c r="R101" t="s"/>
       <c r="S101" t="s"/>
       <c r="T101" t="s"/>
-      <c r="U101" t="s"/>
-      <c r="V101" t="s"/>
-      <c r="W101" t="s"/>
-      <c r="X101" t="s"/>
-      <c r="Y101" t="s"/>
-    </row>
-    <row r="102" spans="1:25">
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" t="s"/>
       <c r="B102" t="s"/>
       <c r="C102" t="s"/>
@@ -5388,11 +4756,11 @@
       <c r="G102" t="s"/>
       <c r="H102" t="s"/>
       <c r="I102" t="s"/>
-      <c r="J102" t="s">
-        <v>368</v>
-      </c>
+      <c r="J102" t="s"/>
       <c r="K102" t="s"/>
-      <c r="L102" t="s"/>
+      <c r="L102" t="s">
+        <v>349</v>
+      </c>
       <c r="M102" t="s"/>
       <c r="N102" t="s"/>
       <c r="O102" t="s"/>
@@ -5401,13 +4769,8 @@
       <c r="R102" t="s"/>
       <c r="S102" t="s"/>
       <c r="T102" t="s"/>
-      <c r="U102" t="s"/>
-      <c r="V102" t="s"/>
-      <c r="W102" t="s"/>
-      <c r="X102" t="s"/>
-      <c r="Y102" t="s"/>
-    </row>
-    <row r="103" spans="1:25">
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" t="s"/>
       <c r="B103" t="s"/>
       <c r="C103" t="s"/>
@@ -5417,11 +4780,11 @@
       <c r="G103" t="s"/>
       <c r="H103" t="s"/>
       <c r="I103" t="s"/>
-      <c r="J103" t="s">
-        <v>369</v>
-      </c>
+      <c r="J103" t="s"/>
       <c r="K103" t="s"/>
-      <c r="L103" t="s"/>
+      <c r="L103" t="s">
+        <v>350</v>
+      </c>
       <c r="M103" t="s"/>
       <c r="N103" t="s"/>
       <c r="O103" t="s"/>
@@ -5430,13 +4793,8 @@
       <c r="R103" t="s"/>
       <c r="S103" t="s"/>
       <c r="T103" t="s"/>
-      <c r="U103" t="s"/>
-      <c r="V103" t="s"/>
-      <c r="W103" t="s"/>
-      <c r="X103" t="s"/>
-      <c r="Y103" t="s"/>
-    </row>
-    <row r="104" spans="1:25">
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" t="s"/>
       <c r="B104" t="s"/>
       <c r="C104" t="s"/>
@@ -5446,11 +4804,11 @@
       <c r="G104" t="s"/>
       <c r="H104" t="s"/>
       <c r="I104" t="s"/>
-      <c r="J104" t="s">
-        <v>370</v>
-      </c>
+      <c r="J104" t="s"/>
       <c r="K104" t="s"/>
-      <c r="L104" t="s"/>
+      <c r="L104" t="s">
+        <v>351</v>
+      </c>
       <c r="M104" t="s"/>
       <c r="N104" t="s"/>
       <c r="O104" t="s"/>
@@ -5459,13 +4817,8 @@
       <c r="R104" t="s"/>
       <c r="S104" t="s"/>
       <c r="T104" t="s"/>
-      <c r="U104" t="s"/>
-      <c r="V104" t="s"/>
-      <c r="W104" t="s"/>
-      <c r="X104" t="s"/>
-      <c r="Y104" t="s"/>
-    </row>
-    <row r="105" spans="1:25">
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" t="s"/>
       <c r="B105" t="s"/>
       <c r="C105" t="s"/>
@@ -5475,11 +4828,11 @@
       <c r="G105" t="s"/>
       <c r="H105" t="s"/>
       <c r="I105" t="s"/>
-      <c r="J105" t="s">
-        <v>371</v>
-      </c>
+      <c r="J105" t="s"/>
       <c r="K105" t="s"/>
-      <c r="L105" t="s"/>
+      <c r="L105" t="s">
+        <v>352</v>
+      </c>
       <c r="M105" t="s"/>
       <c r="N105" t="s"/>
       <c r="O105" t="s"/>
@@ -5488,13 +4841,8 @@
       <c r="R105" t="s"/>
       <c r="S105" t="s"/>
       <c r="T105" t="s"/>
-      <c r="U105" t="s"/>
-      <c r="V105" t="s"/>
-      <c r="W105" t="s"/>
-      <c r="X105" t="s"/>
-      <c r="Y105" t="s"/>
-    </row>
-    <row r="106" spans="1:25">
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" t="s"/>
       <c r="B106" t="s"/>
       <c r="C106" t="s"/>
@@ -5504,11 +4852,11 @@
       <c r="G106" t="s"/>
       <c r="H106" t="s"/>
       <c r="I106" t="s"/>
-      <c r="J106" t="s">
-        <v>372</v>
-      </c>
+      <c r="J106" t="s"/>
       <c r="K106" t="s"/>
-      <c r="L106" t="s"/>
+      <c r="L106" t="s">
+        <v>353</v>
+      </c>
       <c r="M106" t="s"/>
       <c r="N106" t="s"/>
       <c r="O106" t="s"/>
@@ -5517,13 +4865,8 @@
       <c r="R106" t="s"/>
       <c r="S106" t="s"/>
       <c r="T106" t="s"/>
-      <c r="U106" t="s"/>
-      <c r="V106" t="s"/>
-      <c r="W106" t="s"/>
-      <c r="X106" t="s"/>
-      <c r="Y106" t="s"/>
-    </row>
-    <row r="107" spans="1:25">
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" t="s"/>
       <c r="B107" t="s"/>
       <c r="C107" t="s"/>
@@ -5533,11 +4876,11 @@
       <c r="G107" t="s"/>
       <c r="H107" t="s"/>
       <c r="I107" t="s"/>
-      <c r="J107" t="s">
-        <v>373</v>
-      </c>
+      <c r="J107" t="s"/>
       <c r="K107" t="s"/>
-      <c r="L107" t="s"/>
+      <c r="L107" t="s">
+        <v>354</v>
+      </c>
       <c r="M107" t="s"/>
       <c r="N107" t="s"/>
       <c r="O107" t="s"/>
@@ -5546,13 +4889,8 @@
       <c r="R107" t="s"/>
       <c r="S107" t="s"/>
       <c r="T107" t="s"/>
-      <c r="U107" t="s"/>
-      <c r="V107" t="s"/>
-      <c r="W107" t="s"/>
-      <c r="X107" t="s"/>
-      <c r="Y107" t="s"/>
-    </row>
-    <row r="108" spans="1:25">
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" t="s"/>
       <c r="B108" t="s"/>
       <c r="C108" t="s"/>
@@ -5562,11 +4900,11 @@
       <c r="G108" t="s"/>
       <c r="H108" t="s"/>
       <c r="I108" t="s"/>
-      <c r="J108" t="s">
-        <v>374</v>
-      </c>
+      <c r="J108" t="s"/>
       <c r="K108" t="s"/>
-      <c r="L108" t="s"/>
+      <c r="L108" t="s">
+        <v>355</v>
+      </c>
       <c r="M108" t="s"/>
       <c r="N108" t="s"/>
       <c r="O108" t="s"/>
@@ -5575,13 +4913,8 @@
       <c r="R108" t="s"/>
       <c r="S108" t="s"/>
       <c r="T108" t="s"/>
-      <c r="U108" t="s"/>
-      <c r="V108" t="s"/>
-      <c r="W108" t="s"/>
-      <c r="X108" t="s"/>
-      <c r="Y108" t="s"/>
-    </row>
-    <row r="109" spans="1:25">
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" t="s"/>
       <c r="B109" t="s"/>
       <c r="C109" t="s"/>
@@ -5591,11 +4924,11 @@
       <c r="G109" t="s"/>
       <c r="H109" t="s"/>
       <c r="I109" t="s"/>
-      <c r="J109" t="s">
-        <v>375</v>
-      </c>
+      <c r="J109" t="s"/>
       <c r="K109" t="s"/>
-      <c r="L109" t="s"/>
+      <c r="L109" t="s">
+        <v>356</v>
+      </c>
       <c r="M109" t="s"/>
       <c r="N109" t="s"/>
       <c r="O109" t="s"/>
@@ -5604,13 +4937,8 @@
       <c r="R109" t="s"/>
       <c r="S109" t="s"/>
       <c r="T109" t="s"/>
-      <c r="U109" t="s"/>
-      <c r="V109" t="s"/>
-      <c r="W109" t="s"/>
-      <c r="X109" t="s"/>
-      <c r="Y109" t="s"/>
-    </row>
-    <row r="110" spans="1:25">
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" t="s"/>
       <c r="B110" t="s"/>
       <c r="C110" t="s"/>
@@ -5620,11 +4948,11 @@
       <c r="G110" t="s"/>
       <c r="H110" t="s"/>
       <c r="I110" t="s"/>
-      <c r="J110" t="s">
-        <v>376</v>
-      </c>
+      <c r="J110" t="s"/>
       <c r="K110" t="s"/>
-      <c r="L110" t="s"/>
+      <c r="L110" t="s">
+        <v>357</v>
+      </c>
       <c r="M110" t="s"/>
       <c r="N110" t="s"/>
       <c r="O110" t="s"/>
@@ -5633,13 +4961,8 @@
       <c r="R110" t="s"/>
       <c r="S110" t="s"/>
       <c r="T110" t="s"/>
-      <c r="U110" t="s"/>
-      <c r="V110" t="s"/>
-      <c r="W110" t="s"/>
-      <c r="X110" t="s"/>
-      <c r="Y110" t="s"/>
-    </row>
-    <row r="111" spans="1:25">
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" t="s"/>
       <c r="B111" t="s"/>
       <c r="C111" t="s"/>
@@ -5649,11 +4972,11 @@
       <c r="G111" t="s"/>
       <c r="H111" t="s"/>
       <c r="I111" t="s"/>
-      <c r="J111" t="s">
-        <v>377</v>
-      </c>
+      <c r="J111" t="s"/>
       <c r="K111" t="s"/>
-      <c r="L111" t="s"/>
+      <c r="L111" t="s">
+        <v>358</v>
+      </c>
       <c r="M111" t="s"/>
       <c r="N111" t="s"/>
       <c r="O111" t="s"/>
@@ -5662,13 +4985,8 @@
       <c r="R111" t="s"/>
       <c r="S111" t="s"/>
       <c r="T111" t="s"/>
-      <c r="U111" t="s"/>
-      <c r="V111" t="s"/>
-      <c r="W111" t="s"/>
-      <c r="X111" t="s"/>
-      <c r="Y111" t="s"/>
-    </row>
-    <row r="112" spans="1:25">
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" t="s"/>
       <c r="B112" t="s"/>
       <c r="C112" t="s"/>
@@ -5678,11 +4996,11 @@
       <c r="G112" t="s"/>
       <c r="H112" t="s"/>
       <c r="I112" t="s"/>
-      <c r="J112" t="s">
-        <v>378</v>
-      </c>
+      <c r="J112" t="s"/>
       <c r="K112" t="s"/>
-      <c r="L112" t="s"/>
+      <c r="L112" t="s">
+        <v>359</v>
+      </c>
       <c r="M112" t="s"/>
       <c r="N112" t="s"/>
       <c r="O112" t="s"/>
@@ -5691,13 +5009,8 @@
       <c r="R112" t="s"/>
       <c r="S112" t="s"/>
       <c r="T112" t="s"/>
-      <c r="U112" t="s"/>
-      <c r="V112" t="s"/>
-      <c r="W112" t="s"/>
-      <c r="X112" t="s"/>
-      <c r="Y112" t="s"/>
-    </row>
-    <row r="113" spans="1:25">
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" t="s"/>
       <c r="B113" t="s"/>
       <c r="C113" t="s"/>
@@ -5707,11 +5020,11 @@
       <c r="G113" t="s"/>
       <c r="H113" t="s"/>
       <c r="I113" t="s"/>
-      <c r="J113" t="s">
-        <v>379</v>
-      </c>
+      <c r="J113" t="s"/>
       <c r="K113" t="s"/>
-      <c r="L113" t="s"/>
+      <c r="L113" t="s">
+        <v>360</v>
+      </c>
       <c r="M113" t="s"/>
       <c r="N113" t="s"/>
       <c r="O113" t="s"/>
@@ -5720,13 +5033,8 @@
       <c r="R113" t="s"/>
       <c r="S113" t="s"/>
       <c r="T113" t="s"/>
-      <c r="U113" t="s"/>
-      <c r="V113" t="s"/>
-      <c r="W113" t="s"/>
-      <c r="X113" t="s"/>
-      <c r="Y113" t="s"/>
-    </row>
-    <row r="114" spans="1:25">
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" t="s"/>
       <c r="B114" t="s"/>
       <c r="C114" t="s"/>
@@ -5736,11 +5044,11 @@
       <c r="G114" t="s"/>
       <c r="H114" t="s"/>
       <c r="I114" t="s"/>
-      <c r="J114" t="s">
-        <v>380</v>
-      </c>
+      <c r="J114" t="s"/>
       <c r="K114" t="s"/>
-      <c r="L114" t="s"/>
+      <c r="L114" t="s">
+        <v>361</v>
+      </c>
       <c r="M114" t="s"/>
       <c r="N114" t="s"/>
       <c r="O114" t="s"/>
@@ -5749,13 +5057,8 @@
       <c r="R114" t="s"/>
       <c r="S114" t="s"/>
       <c r="T114" t="s"/>
-      <c r="U114" t="s"/>
-      <c r="V114" t="s"/>
-      <c r="W114" t="s"/>
-      <c r="X114" t="s"/>
-      <c r="Y114" t="s"/>
-    </row>
-    <row r="115" spans="1:25">
+    </row>
+    <row r="115" spans="1:20">
       <c r="A115" t="s"/>
       <c r="B115" t="s"/>
       <c r="C115" t="s"/>
@@ -5765,11 +5068,11 @@
       <c r="G115" t="s"/>
       <c r="H115" t="s"/>
       <c r="I115" t="s"/>
-      <c r="J115" t="s">
-        <v>381</v>
-      </c>
+      <c r="J115" t="s"/>
       <c r="K115" t="s"/>
-      <c r="L115" t="s"/>
+      <c r="L115" t="s">
+        <v>362</v>
+      </c>
       <c r="M115" t="s"/>
       <c r="N115" t="s"/>
       <c r="O115" t="s"/>
@@ -5778,13 +5081,8 @@
       <c r="R115" t="s"/>
       <c r="S115" t="s"/>
       <c r="T115" t="s"/>
-      <c r="U115" t="s"/>
-      <c r="V115" t="s"/>
-      <c r="W115" t="s"/>
-      <c r="X115" t="s"/>
-      <c r="Y115" t="s"/>
-    </row>
-    <row r="116" spans="1:25">
+    </row>
+    <row r="116" spans="1:20">
       <c r="A116" t="s"/>
       <c r="B116" t="s"/>
       <c r="C116" t="s"/>
@@ -5794,11 +5092,11 @@
       <c r="G116" t="s"/>
       <c r="H116" t="s"/>
       <c r="I116" t="s"/>
-      <c r="J116" t="s">
-        <v>382</v>
-      </c>
+      <c r="J116" t="s"/>
       <c r="K116" t="s"/>
-      <c r="L116" t="s"/>
+      <c r="L116" t="s">
+        <v>363</v>
+      </c>
       <c r="M116" t="s"/>
       <c r="N116" t="s"/>
       <c r="O116" t="s"/>
@@ -5807,13 +5105,8 @@
       <c r="R116" t="s"/>
       <c r="S116" t="s"/>
       <c r="T116" t="s"/>
-      <c r="U116" t="s"/>
-      <c r="V116" t="s"/>
-      <c r="W116" t="s"/>
-      <c r="X116" t="s"/>
-      <c r="Y116" t="s"/>
-    </row>
-    <row r="117" spans="1:25">
+    </row>
+    <row r="117" spans="1:20">
       <c r="A117" t="s"/>
       <c r="B117" t="s"/>
       <c r="C117" t="s"/>
@@ -5823,11 +5116,11 @@
       <c r="G117" t="s"/>
       <c r="H117" t="s"/>
       <c r="I117" t="s"/>
-      <c r="J117" t="s">
-        <v>383</v>
-      </c>
+      <c r="J117" t="s"/>
       <c r="K117" t="s"/>
-      <c r="L117" t="s"/>
+      <c r="L117" t="s">
+        <v>364</v>
+      </c>
       <c r="M117" t="s"/>
       <c r="N117" t="s"/>
       <c r="O117" t="s"/>
@@ -5836,13 +5129,8 @@
       <c r="R117" t="s"/>
       <c r="S117" t="s"/>
       <c r="T117" t="s"/>
-      <c r="U117" t="s"/>
-      <c r="V117" t="s"/>
-      <c r="W117" t="s"/>
-      <c r="X117" t="s"/>
-      <c r="Y117" t="s"/>
-    </row>
-    <row r="118" spans="1:25">
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" t="s"/>
       <c r="B118" t="s"/>
       <c r="C118" t="s"/>
@@ -5852,11 +5140,11 @@
       <c r="G118" t="s"/>
       <c r="H118" t="s"/>
       <c r="I118" t="s"/>
-      <c r="J118" t="s">
-        <v>384</v>
-      </c>
+      <c r="J118" t="s"/>
       <c r="K118" t="s"/>
-      <c r="L118" t="s"/>
+      <c r="L118" t="s">
+        <v>365</v>
+      </c>
       <c r="M118" t="s"/>
       <c r="N118" t="s"/>
       <c r="O118" t="s"/>
@@ -5865,13 +5153,8 @@
       <c r="R118" t="s"/>
       <c r="S118" t="s"/>
       <c r="T118" t="s"/>
-      <c r="U118" t="s"/>
-      <c r="V118" t="s"/>
-      <c r="W118" t="s"/>
-      <c r="X118" t="s"/>
-      <c r="Y118" t="s"/>
-    </row>
-    <row r="119" spans="1:25">
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" t="s"/>
       <c r="B119" t="s"/>
       <c r="C119" t="s"/>
@@ -5881,11 +5164,11 @@
       <c r="G119" t="s"/>
       <c r="H119" t="s"/>
       <c r="I119" t="s"/>
-      <c r="J119" t="s">
-        <v>385</v>
-      </c>
+      <c r="J119" t="s"/>
       <c r="K119" t="s"/>
-      <c r="L119" t="s"/>
+      <c r="L119" t="s">
+        <v>366</v>
+      </c>
       <c r="M119" t="s"/>
       <c r="N119" t="s"/>
       <c r="O119" t="s"/>
@@ -5894,13 +5177,8 @@
       <c r="R119" t="s"/>
       <c r="S119" t="s"/>
       <c r="T119" t="s"/>
-      <c r="U119" t="s"/>
-      <c r="V119" t="s"/>
-      <c r="W119" t="s"/>
-      <c r="X119" t="s"/>
-      <c r="Y119" t="s"/>
-    </row>
-    <row r="120" spans="1:25">
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" t="s"/>
       <c r="B120" t="s"/>
       <c r="C120" t="s"/>
@@ -5910,11 +5188,11 @@
       <c r="G120" t="s"/>
       <c r="H120" t="s"/>
       <c r="I120" t="s"/>
-      <c r="J120" t="s">
-        <v>386</v>
-      </c>
+      <c r="J120" t="s"/>
       <c r="K120" t="s"/>
-      <c r="L120" t="s"/>
+      <c r="L120" t="s">
+        <v>367</v>
+      </c>
       <c r="M120" t="s"/>
       <c r="N120" t="s"/>
       <c r="O120" t="s"/>
@@ -5923,13 +5201,8 @@
       <c r="R120" t="s"/>
       <c r="S120" t="s"/>
       <c r="T120" t="s"/>
-      <c r="U120" t="s"/>
-      <c r="V120" t="s"/>
-      <c r="W120" t="s"/>
-      <c r="X120" t="s"/>
-      <c r="Y120" t="s"/>
-    </row>
-    <row r="121" spans="1:25">
+    </row>
+    <row r="121" spans="1:20">
       <c r="A121" t="s"/>
       <c r="B121" t="s"/>
       <c r="C121" t="s"/>
@@ -5939,11 +5212,11 @@
       <c r="G121" t="s"/>
       <c r="H121" t="s"/>
       <c r="I121" t="s"/>
-      <c r="J121" t="s">
-        <v>387</v>
-      </c>
+      <c r="J121" t="s"/>
       <c r="K121" t="s"/>
-      <c r="L121" t="s"/>
+      <c r="L121" t="s">
+        <v>368</v>
+      </c>
       <c r="M121" t="s"/>
       <c r="N121" t="s"/>
       <c r="O121" t="s"/>
@@ -5952,13 +5225,8 @@
       <c r="R121" t="s"/>
       <c r="S121" t="s"/>
       <c r="T121" t="s"/>
-      <c r="U121" t="s"/>
-      <c r="V121" t="s"/>
-      <c r="W121" t="s"/>
-      <c r="X121" t="s"/>
-      <c r="Y121" t="s"/>
-    </row>
-    <row r="122" spans="1:25">
+    </row>
+    <row r="122" spans="1:20">
       <c r="A122" t="s"/>
       <c r="B122" t="s"/>
       <c r="C122" t="s"/>
@@ -5968,11 +5236,11 @@
       <c r="G122" t="s"/>
       <c r="H122" t="s"/>
       <c r="I122" t="s"/>
-      <c r="J122" t="s">
-        <v>388</v>
-      </c>
+      <c r="J122" t="s"/>
       <c r="K122" t="s"/>
-      <c r="L122" t="s"/>
+      <c r="L122" t="s">
+        <v>369</v>
+      </c>
       <c r="M122" t="s"/>
       <c r="N122" t="s"/>
       <c r="O122" t="s"/>
@@ -5981,13 +5249,8 @@
       <c r="R122" t="s"/>
       <c r="S122" t="s"/>
       <c r="T122" t="s"/>
-      <c r="U122" t="s"/>
-      <c r="V122" t="s"/>
-      <c r="W122" t="s"/>
-      <c r="X122" t="s"/>
-      <c r="Y122" t="s"/>
-    </row>
-    <row r="123" spans="1:25">
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" t="s"/>
       <c r="B123" t="s"/>
       <c r="C123" t="s"/>
@@ -5997,11 +5260,11 @@
       <c r="G123" t="s"/>
       <c r="H123" t="s"/>
       <c r="I123" t="s"/>
-      <c r="J123" t="s">
-        <v>389</v>
-      </c>
+      <c r="J123" t="s"/>
       <c r="K123" t="s"/>
-      <c r="L123" t="s"/>
+      <c r="L123" t="s">
+        <v>370</v>
+      </c>
       <c r="M123" t="s"/>
       <c r="N123" t="s"/>
       <c r="O123" t="s"/>
@@ -6010,13 +5273,8 @@
       <c r="R123" t="s"/>
       <c r="S123" t="s"/>
       <c r="T123" t="s"/>
-      <c r="U123" t="s"/>
-      <c r="V123" t="s"/>
-      <c r="W123" t="s"/>
-      <c r="X123" t="s"/>
-      <c r="Y123" t="s"/>
-    </row>
-    <row r="124" spans="1:25">
+    </row>
+    <row r="124" spans="1:20">
       <c r="A124" t="s"/>
       <c r="B124" t="s"/>
       <c r="C124" t="s"/>
@@ -6026,11 +5284,11 @@
       <c r="G124" t="s"/>
       <c r="H124" t="s"/>
       <c r="I124" t="s"/>
-      <c r="J124" t="s">
-        <v>390</v>
-      </c>
+      <c r="J124" t="s"/>
       <c r="K124" t="s"/>
-      <c r="L124" t="s"/>
+      <c r="L124" t="s">
+        <v>371</v>
+      </c>
       <c r="M124" t="s"/>
       <c r="N124" t="s"/>
       <c r="O124" t="s"/>
@@ -6039,13 +5297,8 @@
       <c r="R124" t="s"/>
       <c r="S124" t="s"/>
       <c r="T124" t="s"/>
-      <c r="U124" t="s"/>
-      <c r="V124" t="s"/>
-      <c r="W124" t="s"/>
-      <c r="X124" t="s"/>
-      <c r="Y124" t="s"/>
-    </row>
-    <row r="125" spans="1:25">
+    </row>
+    <row r="125" spans="1:20">
       <c r="A125" t="s"/>
       <c r="B125" t="s"/>
       <c r="C125" t="s"/>
@@ -6055,11 +5308,11 @@
       <c r="G125" t="s"/>
       <c r="H125" t="s"/>
       <c r="I125" t="s"/>
-      <c r="J125" t="s">
-        <v>391</v>
-      </c>
+      <c r="J125" t="s"/>
       <c r="K125" t="s"/>
-      <c r="L125" t="s"/>
+      <c r="L125" t="s">
+        <v>372</v>
+      </c>
       <c r="M125" t="s"/>
       <c r="N125" t="s"/>
       <c r="O125" t="s"/>
@@ -6068,13 +5321,8 @@
       <c r="R125" t="s"/>
       <c r="S125" t="s"/>
       <c r="T125" t="s"/>
-      <c r="U125" t="s"/>
-      <c r="V125" t="s"/>
-      <c r="W125" t="s"/>
-      <c r="X125" t="s"/>
-      <c r="Y125" t="s"/>
-    </row>
-    <row r="126" spans="1:25">
+    </row>
+    <row r="126" spans="1:20">
       <c r="A126" t="s"/>
       <c r="B126" t="s"/>
       <c r="C126" t="s"/>
@@ -6084,11 +5332,11 @@
       <c r="G126" t="s"/>
       <c r="H126" t="s"/>
       <c r="I126" t="s"/>
-      <c r="J126" t="s">
-        <v>392</v>
-      </c>
+      <c r="J126" t="s"/>
       <c r="K126" t="s"/>
-      <c r="L126" t="s"/>
+      <c r="L126" t="s">
+        <v>373</v>
+      </c>
       <c r="M126" t="s"/>
       <c r="N126" t="s"/>
       <c r="O126" t="s"/>
@@ -6097,13 +5345,8 @@
       <c r="R126" t="s"/>
       <c r="S126" t="s"/>
       <c r="T126" t="s"/>
-      <c r="U126" t="s"/>
-      <c r="V126" t="s"/>
-      <c r="W126" t="s"/>
-      <c r="X126" t="s"/>
-      <c r="Y126" t="s"/>
-    </row>
-    <row r="127" spans="1:25">
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" t="s"/>
       <c r="B127" t="s"/>
       <c r="C127" t="s"/>
@@ -6113,11 +5356,11 @@
       <c r="G127" t="s"/>
       <c r="H127" t="s"/>
       <c r="I127" t="s"/>
-      <c r="J127" t="s">
-        <v>393</v>
-      </c>
+      <c r="J127" t="s"/>
       <c r="K127" t="s"/>
-      <c r="L127" t="s"/>
+      <c r="L127" t="s">
+        <v>374</v>
+      </c>
       <c r="M127" t="s"/>
       <c r="N127" t="s"/>
       <c r="O127" t="s"/>
@@ -6126,13 +5369,8 @@
       <c r="R127" t="s"/>
       <c r="S127" t="s"/>
       <c r="T127" t="s"/>
-      <c r="U127" t="s"/>
-      <c r="V127" t="s"/>
-      <c r="W127" t="s"/>
-      <c r="X127" t="s"/>
-      <c r="Y127" t="s"/>
-    </row>
-    <row r="128" spans="1:25">
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" t="s"/>
       <c r="B128" t="s"/>
       <c r="C128" t="s"/>
@@ -6142,11 +5380,11 @@
       <c r="G128" t="s"/>
       <c r="H128" t="s"/>
       <c r="I128" t="s"/>
-      <c r="J128" t="s">
-        <v>394</v>
-      </c>
+      <c r="J128" t="s"/>
       <c r="K128" t="s"/>
-      <c r="L128" t="s"/>
+      <c r="L128" t="s">
+        <v>375</v>
+      </c>
       <c r="M128" t="s"/>
       <c r="N128" t="s"/>
       <c r="O128" t="s"/>
@@ -6155,13 +5393,8 @@
       <c r="R128" t="s"/>
       <c r="S128" t="s"/>
       <c r="T128" t="s"/>
-      <c r="U128" t="s"/>
-      <c r="V128" t="s"/>
-      <c r="W128" t="s"/>
-      <c r="X128" t="s"/>
-      <c r="Y128" t="s"/>
-    </row>
-    <row r="129" spans="1:25">
+    </row>
+    <row r="129" spans="1:20">
       <c r="A129" t="s"/>
       <c r="B129" t="s"/>
       <c r="C129" t="s"/>
@@ -6171,11 +5404,11 @@
       <c r="G129" t="s"/>
       <c r="H129" t="s"/>
       <c r="I129" t="s"/>
-      <c r="J129" t="s">
-        <v>395</v>
-      </c>
+      <c r="J129" t="s"/>
       <c r="K129" t="s"/>
-      <c r="L129" t="s"/>
+      <c r="L129" t="s">
+        <v>376</v>
+      </c>
       <c r="M129" t="s"/>
       <c r="N129" t="s"/>
       <c r="O129" t="s"/>
@@ -6184,13 +5417,8 @@
       <c r="R129" t="s"/>
       <c r="S129" t="s"/>
       <c r="T129" t="s"/>
-      <c r="U129" t="s"/>
-      <c r="V129" t="s"/>
-      <c r="W129" t="s"/>
-      <c r="X129" t="s"/>
-      <c r="Y129" t="s"/>
-    </row>
-    <row r="130" spans="1:25">
+    </row>
+    <row r="130" spans="1:20">
       <c r="A130" t="s"/>
       <c r="B130" t="s"/>
       <c r="C130" t="s"/>
@@ -6200,11 +5428,11 @@
       <c r="G130" t="s"/>
       <c r="H130" t="s"/>
       <c r="I130" t="s"/>
-      <c r="J130" t="s">
-        <v>396</v>
-      </c>
+      <c r="J130" t="s"/>
       <c r="K130" t="s"/>
-      <c r="L130" t="s"/>
+      <c r="L130" t="s">
+        <v>377</v>
+      </c>
       <c r="M130" t="s"/>
       <c r="N130" t="s"/>
       <c r="O130" t="s"/>
@@ -6213,13 +5441,8 @@
       <c r="R130" t="s"/>
       <c r="S130" t="s"/>
       <c r="T130" t="s"/>
-      <c r="U130" t="s"/>
-      <c r="V130" t="s"/>
-      <c r="W130" t="s"/>
-      <c r="X130" t="s"/>
-      <c r="Y130" t="s"/>
-    </row>
-    <row r="131" spans="1:25">
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" t="s"/>
       <c r="B131" t="s"/>
       <c r="C131" t="s"/>
@@ -6229,11 +5452,11 @@
       <c r="G131" t="s"/>
       <c r="H131" t="s"/>
       <c r="I131" t="s"/>
-      <c r="J131" t="s">
-        <v>397</v>
-      </c>
+      <c r="J131" t="s"/>
       <c r="K131" t="s"/>
-      <c r="L131" t="s"/>
+      <c r="L131" t="s">
+        <v>378</v>
+      </c>
       <c r="M131" t="s"/>
       <c r="N131" t="s"/>
       <c r="O131" t="s"/>
@@ -6242,13 +5465,8 @@
       <c r="R131" t="s"/>
       <c r="S131" t="s"/>
       <c r="T131" t="s"/>
-      <c r="U131" t="s"/>
-      <c r="V131" t="s"/>
-      <c r="W131" t="s"/>
-      <c r="X131" t="s"/>
-      <c r="Y131" t="s"/>
-    </row>
-    <row r="132" spans="1:25">
+    </row>
+    <row r="132" spans="1:20">
       <c r="A132" t="s"/>
       <c r="B132" t="s"/>
       <c r="C132" t="s"/>
@@ -6258,11 +5476,11 @@
       <c r="G132" t="s"/>
       <c r="H132" t="s"/>
       <c r="I132" t="s"/>
-      <c r="J132" t="s">
-        <v>398</v>
-      </c>
+      <c r="J132" t="s"/>
       <c r="K132" t="s"/>
-      <c r="L132" t="s"/>
+      <c r="L132" t="s">
+        <v>379</v>
+      </c>
       <c r="M132" t="s"/>
       <c r="N132" t="s"/>
       <c r="O132" t="s"/>
@@ -6271,13 +5489,8 @@
       <c r="R132" t="s"/>
       <c r="S132" t="s"/>
       <c r="T132" t="s"/>
-      <c r="U132" t="s"/>
-      <c r="V132" t="s"/>
-      <c r="W132" t="s"/>
-      <c r="X132" t="s"/>
-      <c r="Y132" t="s"/>
-    </row>
-    <row r="133" spans="1:25">
+    </row>
+    <row r="133" spans="1:20">
       <c r="A133" t="s"/>
       <c r="B133" t="s"/>
       <c r="C133" t="s"/>
@@ -6287,11 +5500,11 @@
       <c r="G133" t="s"/>
       <c r="H133" t="s"/>
       <c r="I133" t="s"/>
-      <c r="J133" t="s">
-        <v>399</v>
-      </c>
+      <c r="J133" t="s"/>
       <c r="K133" t="s"/>
-      <c r="L133" t="s"/>
+      <c r="L133" t="s">
+        <v>380</v>
+      </c>
       <c r="M133" t="s"/>
       <c r="N133" t="s"/>
       <c r="O133" t="s"/>
@@ -6300,13 +5513,8 @@
       <c r="R133" t="s"/>
       <c r="S133" t="s"/>
       <c r="T133" t="s"/>
-      <c r="U133" t="s"/>
-      <c r="V133" t="s"/>
-      <c r="W133" t="s"/>
-      <c r="X133" t="s"/>
-      <c r="Y133" t="s"/>
-    </row>
-    <row r="134" spans="1:25">
+    </row>
+    <row r="134" spans="1:20">
       <c r="A134" t="s"/>
       <c r="B134" t="s"/>
       <c r="C134" t="s"/>
@@ -6316,11 +5524,11 @@
       <c r="G134" t="s"/>
       <c r="H134" t="s"/>
       <c r="I134" t="s"/>
-      <c r="J134" t="s">
-        <v>400</v>
-      </c>
+      <c r="J134" t="s"/>
       <c r="K134" t="s"/>
-      <c r="L134" t="s"/>
+      <c r="L134" t="s">
+        <v>381</v>
+      </c>
       <c r="M134" t="s"/>
       <c r="N134" t="s"/>
       <c r="O134" t="s"/>
@@ -6329,13 +5537,8 @@
       <c r="R134" t="s"/>
       <c r="S134" t="s"/>
       <c r="T134" t="s"/>
-      <c r="U134" t="s"/>
-      <c r="V134" t="s"/>
-      <c r="W134" t="s"/>
-      <c r="X134" t="s"/>
-      <c r="Y134" t="s"/>
-    </row>
-    <row r="135" spans="1:25">
+    </row>
+    <row r="135" spans="1:20">
       <c r="A135" t="s"/>
       <c r="B135" t="s"/>
       <c r="C135" t="s"/>
@@ -6345,11 +5548,11 @@
       <c r="G135" t="s"/>
       <c r="H135" t="s"/>
       <c r="I135" t="s"/>
-      <c r="J135" t="s">
-        <v>401</v>
-      </c>
+      <c r="J135" t="s"/>
       <c r="K135" t="s"/>
-      <c r="L135" t="s"/>
+      <c r="L135" t="s">
+        <v>382</v>
+      </c>
       <c r="M135" t="s"/>
       <c r="N135" t="s"/>
       <c r="O135" t="s"/>
@@ -6358,13 +5561,8 @@
       <c r="R135" t="s"/>
       <c r="S135" t="s"/>
       <c r="T135" t="s"/>
-      <c r="U135" t="s"/>
-      <c r="V135" t="s"/>
-      <c r="W135" t="s"/>
-      <c r="X135" t="s"/>
-      <c r="Y135" t="s"/>
-    </row>
-    <row r="136" spans="1:25">
+    </row>
+    <row r="136" spans="1:20">
       <c r="A136" t="s"/>
       <c r="B136" t="s"/>
       <c r="C136" t="s"/>
@@ -6374,11 +5572,11 @@
       <c r="G136" t="s"/>
       <c r="H136" t="s"/>
       <c r="I136" t="s"/>
-      <c r="J136" t="s">
-        <v>402</v>
-      </c>
+      <c r="J136" t="s"/>
       <c r="K136" t="s"/>
-      <c r="L136" t="s"/>
+      <c r="L136" t="s">
+        <v>383</v>
+      </c>
       <c r="M136" t="s"/>
       <c r="N136" t="s"/>
       <c r="O136" t="s"/>
@@ -6387,13 +5585,8 @@
       <c r="R136" t="s"/>
       <c r="S136" t="s"/>
       <c r="T136" t="s"/>
-      <c r="U136" t="s"/>
-      <c r="V136" t="s"/>
-      <c r="W136" t="s"/>
-      <c r="X136" t="s"/>
-      <c r="Y136" t="s"/>
-    </row>
-    <row r="137" spans="1:25">
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" t="s"/>
       <c r="B137" t="s"/>
       <c r="C137" t="s"/>
@@ -6403,11 +5596,11 @@
       <c r="G137" t="s"/>
       <c r="H137" t="s"/>
       <c r="I137" t="s"/>
-      <c r="J137" t="s">
-        <v>403</v>
-      </c>
+      <c r="J137" t="s"/>
       <c r="K137" t="s"/>
-      <c r="L137" t="s"/>
+      <c r="L137" t="s">
+        <v>384</v>
+      </c>
       <c r="M137" t="s"/>
       <c r="N137" t="s"/>
       <c r="O137" t="s"/>
@@ -6416,13 +5609,8 @@
       <c r="R137" t="s"/>
       <c r="S137" t="s"/>
       <c r="T137" t="s"/>
-      <c r="U137" t="s"/>
-      <c r="V137" t="s"/>
-      <c r="W137" t="s"/>
-      <c r="X137" t="s"/>
-      <c r="Y137" t="s"/>
-    </row>
-    <row r="138" spans="1:25">
+    </row>
+    <row r="138" spans="1:20">
       <c r="A138" t="s"/>
       <c r="B138" t="s"/>
       <c r="C138" t="s"/>
@@ -6432,11 +5620,11 @@
       <c r="G138" t="s"/>
       <c r="H138" t="s"/>
       <c r="I138" t="s"/>
-      <c r="J138" t="s">
-        <v>404</v>
-      </c>
+      <c r="J138" t="s"/>
       <c r="K138" t="s"/>
-      <c r="L138" t="s"/>
+      <c r="L138" t="s">
+        <v>385</v>
+      </c>
       <c r="M138" t="s"/>
       <c r="N138" t="s"/>
       <c r="O138" t="s"/>
@@ -6445,13 +5633,8 @@
       <c r="R138" t="s"/>
       <c r="S138" t="s"/>
       <c r="T138" t="s"/>
-      <c r="U138" t="s"/>
-      <c r="V138" t="s"/>
-      <c r="W138" t="s"/>
-      <c r="X138" t="s"/>
-      <c r="Y138" t="s"/>
-    </row>
-    <row r="139" spans="1:25">
+    </row>
+    <row r="139" spans="1:20">
       <c r="A139" t="s"/>
       <c r="B139" t="s"/>
       <c r="C139" t="s"/>
@@ -6461,11 +5644,11 @@
       <c r="G139" t="s"/>
       <c r="H139" t="s"/>
       <c r="I139" t="s"/>
-      <c r="J139" t="s">
-        <v>405</v>
-      </c>
+      <c r="J139" t="s"/>
       <c r="K139" t="s"/>
-      <c r="L139" t="s"/>
+      <c r="L139" t="s">
+        <v>386</v>
+      </c>
       <c r="M139" t="s"/>
       <c r="N139" t="s"/>
       <c r="O139" t="s"/>
@@ -6474,13 +5657,8 @@
       <c r="R139" t="s"/>
       <c r="S139" t="s"/>
       <c r="T139" t="s"/>
-      <c r="U139" t="s"/>
-      <c r="V139" t="s"/>
-      <c r="W139" t="s"/>
-      <c r="X139" t="s"/>
-      <c r="Y139" t="s"/>
-    </row>
-    <row r="140" spans="1:25">
+    </row>
+    <row r="140" spans="1:20">
       <c r="A140" t="s"/>
       <c r="B140" t="s"/>
       <c r="C140" t="s"/>
@@ -6490,11 +5668,11 @@
       <c r="G140" t="s"/>
       <c r="H140" t="s"/>
       <c r="I140" t="s"/>
-      <c r="J140" t="s">
-        <v>406</v>
-      </c>
+      <c r="J140" t="s"/>
       <c r="K140" t="s"/>
-      <c r="L140" t="s"/>
+      <c r="L140" t="s">
+        <v>387</v>
+      </c>
       <c r="M140" t="s"/>
       <c r="N140" t="s"/>
       <c r="O140" t="s"/>
@@ -6503,13 +5681,8 @@
       <c r="R140" t="s"/>
       <c r="S140" t="s"/>
       <c r="T140" t="s"/>
-      <c r="U140" t="s"/>
-      <c r="V140" t="s"/>
-      <c r="W140" t="s"/>
-      <c r="X140" t="s"/>
-      <c r="Y140" t="s"/>
-    </row>
-    <row r="141" spans="1:25">
+    </row>
+    <row r="141" spans="1:20">
       <c r="A141" t="s"/>
       <c r="B141" t="s"/>
       <c r="C141" t="s"/>
@@ -6519,11 +5692,11 @@
       <c r="G141" t="s"/>
       <c r="H141" t="s"/>
       <c r="I141" t="s"/>
-      <c r="J141" t="s">
-        <v>407</v>
-      </c>
+      <c r="J141" t="s"/>
       <c r="K141" t="s"/>
-      <c r="L141" t="s"/>
+      <c r="L141" t="s">
+        <v>388</v>
+      </c>
       <c r="M141" t="s"/>
       <c r="N141" t="s"/>
       <c r="O141" t="s"/>
@@ -6532,13 +5705,8 @@
       <c r="R141" t="s"/>
       <c r="S141" t="s"/>
       <c r="T141" t="s"/>
-      <c r="U141" t="s"/>
-      <c r="V141" t="s"/>
-      <c r="W141" t="s"/>
-      <c r="X141" t="s"/>
-      <c r="Y141" t="s"/>
-    </row>
-    <row r="142" spans="1:25">
+    </row>
+    <row r="142" spans="1:20">
       <c r="A142" t="s"/>
       <c r="B142" t="s"/>
       <c r="C142" t="s"/>
@@ -6548,11 +5716,11 @@
       <c r="G142" t="s"/>
       <c r="H142" t="s"/>
       <c r="I142" t="s"/>
-      <c r="J142" t="s">
-        <v>408</v>
-      </c>
+      <c r="J142" t="s"/>
       <c r="K142" t="s"/>
-      <c r="L142" t="s"/>
+      <c r="L142" t="s">
+        <v>389</v>
+      </c>
       <c r="M142" t="s"/>
       <c r="N142" t="s"/>
       <c r="O142" t="s"/>
@@ -6561,13 +5729,8 @@
       <c r="R142" t="s"/>
       <c r="S142" t="s"/>
       <c r="T142" t="s"/>
-      <c r="U142" t="s"/>
-      <c r="V142" t="s"/>
-      <c r="W142" t="s"/>
-      <c r="X142" t="s"/>
-      <c r="Y142" t="s"/>
-    </row>
-    <row r="143" spans="1:25">
+    </row>
+    <row r="143" spans="1:20">
       <c r="A143" t="s"/>
       <c r="B143" t="s"/>
       <c r="C143" t="s"/>
@@ -6577,11 +5740,11 @@
       <c r="G143" t="s"/>
       <c r="H143" t="s"/>
       <c r="I143" t="s"/>
-      <c r="J143" t="s">
-        <v>409</v>
-      </c>
+      <c r="J143" t="s"/>
       <c r="K143" t="s"/>
-      <c r="L143" t="s"/>
+      <c r="L143" t="s">
+        <v>390</v>
+      </c>
       <c r="M143" t="s"/>
       <c r="N143" t="s"/>
       <c r="O143" t="s"/>
@@ -6590,13 +5753,8 @@
       <c r="R143" t="s"/>
       <c r="S143" t="s"/>
       <c r="T143" t="s"/>
-      <c r="U143" t="s"/>
-      <c r="V143" t="s"/>
-      <c r="W143" t="s"/>
-      <c r="X143" t="s"/>
-      <c r="Y143" t="s"/>
-    </row>
-    <row r="144" spans="1:25">
+    </row>
+    <row r="144" spans="1:20">
       <c r="A144" t="s"/>
       <c r="B144" t="s"/>
       <c r="C144" t="s"/>
@@ -6606,11 +5764,11 @@
       <c r="G144" t="s"/>
       <c r="H144" t="s"/>
       <c r="I144" t="s"/>
-      <c r="J144" t="s">
-        <v>410</v>
-      </c>
+      <c r="J144" t="s"/>
       <c r="K144" t="s"/>
-      <c r="L144" t="s"/>
+      <c r="L144" t="s">
+        <v>391</v>
+      </c>
       <c r="M144" t="s"/>
       <c r="N144" t="s"/>
       <c r="O144" t="s"/>
@@ -6619,13 +5777,8 @@
       <c r="R144" t="s"/>
       <c r="S144" t="s"/>
       <c r="T144" t="s"/>
-      <c r="U144" t="s"/>
-      <c r="V144" t="s"/>
-      <c r="W144" t="s"/>
-      <c r="X144" t="s"/>
-      <c r="Y144" t="s"/>
-    </row>
-    <row r="145" spans="1:25">
+    </row>
+    <row r="145" spans="1:20">
       <c r="A145" t="s"/>
       <c r="B145" t="s"/>
       <c r="C145" t="s"/>
@@ -6635,11 +5788,11 @@
       <c r="G145" t="s"/>
       <c r="H145" t="s"/>
       <c r="I145" t="s"/>
-      <c r="J145" t="s">
-        <v>411</v>
-      </c>
+      <c r="J145" t="s"/>
       <c r="K145" t="s"/>
-      <c r="L145" t="s"/>
+      <c r="L145" t="s">
+        <v>392</v>
+      </c>
       <c r="M145" t="s"/>
       <c r="N145" t="s"/>
       <c r="O145" t="s"/>
@@ -6648,13 +5801,8 @@
       <c r="R145" t="s"/>
       <c r="S145" t="s"/>
       <c r="T145" t="s"/>
-      <c r="U145" t="s"/>
-      <c r="V145" t="s"/>
-      <c r="W145" t="s"/>
-      <c r="X145" t="s"/>
-      <c r="Y145" t="s"/>
-    </row>
-    <row r="146" spans="1:25">
+    </row>
+    <row r="146" spans="1:20">
       <c r="A146" t="s"/>
       <c r="B146" t="s"/>
       <c r="C146" t="s"/>
@@ -6664,11 +5812,11 @@
       <c r="G146" t="s"/>
       <c r="H146" t="s"/>
       <c r="I146" t="s"/>
-      <c r="J146" t="s">
-        <v>412</v>
-      </c>
+      <c r="J146" t="s"/>
       <c r="K146" t="s"/>
-      <c r="L146" t="s"/>
+      <c r="L146" t="s">
+        <v>393</v>
+      </c>
       <c r="M146" t="s"/>
       <c r="N146" t="s"/>
       <c r="O146" t="s"/>
@@ -6677,13 +5825,8 @@
       <c r="R146" t="s"/>
       <c r="S146" t="s"/>
       <c r="T146" t="s"/>
-      <c r="U146" t="s"/>
-      <c r="V146" t="s"/>
-      <c r="W146" t="s"/>
-      <c r="X146" t="s"/>
-      <c r="Y146" t="s"/>
-    </row>
-    <row r="147" spans="1:25">
+    </row>
+    <row r="147" spans="1:20">
       <c r="A147" t="s"/>
       <c r="B147" t="s"/>
       <c r="C147" t="s"/>
@@ -6693,11 +5836,11 @@
       <c r="G147" t="s"/>
       <c r="H147" t="s"/>
       <c r="I147" t="s"/>
-      <c r="J147" t="s">
-        <v>413</v>
-      </c>
+      <c r="J147" t="s"/>
       <c r="K147" t="s"/>
-      <c r="L147" t="s"/>
+      <c r="L147" t="s">
+        <v>394</v>
+      </c>
       <c r="M147" t="s"/>
       <c r="N147" t="s"/>
       <c r="O147" t="s"/>
@@ -6706,13 +5849,8 @@
       <c r="R147" t="s"/>
       <c r="S147" t="s"/>
       <c r="T147" t="s"/>
-      <c r="U147" t="s"/>
-      <c r="V147" t="s"/>
-      <c r="W147" t="s"/>
-      <c r="X147" t="s"/>
-      <c r="Y147" t="s"/>
-    </row>
-    <row r="148" spans="1:25">
+    </row>
+    <row r="148" spans="1:20">
       <c r="A148" t="s"/>
       <c r="B148" t="s"/>
       <c r="C148" t="s"/>
@@ -6722,11 +5860,11 @@
       <c r="G148" t="s"/>
       <c r="H148" t="s"/>
       <c r="I148" t="s"/>
-      <c r="J148" t="s">
-        <v>414</v>
-      </c>
+      <c r="J148" t="s"/>
       <c r="K148" t="s"/>
-      <c r="L148" t="s"/>
+      <c r="L148" t="s">
+        <v>395</v>
+      </c>
       <c r="M148" t="s"/>
       <c r="N148" t="s"/>
       <c r="O148" t="s"/>
@@ -6735,13 +5873,8 @@
       <c r="R148" t="s"/>
       <c r="S148" t="s"/>
       <c r="T148" t="s"/>
-      <c r="U148" t="s"/>
-      <c r="V148" t="s"/>
-      <c r="W148" t="s"/>
-      <c r="X148" t="s"/>
-      <c r="Y148" t="s"/>
-    </row>
-    <row r="149" spans="1:25">
+    </row>
+    <row r="149" spans="1:20">
       <c r="A149" t="s"/>
       <c r="B149" t="s"/>
       <c r="C149" t="s"/>
@@ -6751,11 +5884,11 @@
       <c r="G149" t="s"/>
       <c r="H149" t="s"/>
       <c r="I149" t="s"/>
-      <c r="J149" t="s">
-        <v>415</v>
-      </c>
+      <c r="J149" t="s"/>
       <c r="K149" t="s"/>
-      <c r="L149" t="s"/>
+      <c r="L149" t="s">
+        <v>396</v>
+      </c>
       <c r="M149" t="s"/>
       <c r="N149" t="s"/>
       <c r="O149" t="s"/>
@@ -6764,13 +5897,8 @@
       <c r="R149" t="s"/>
       <c r="S149" t="s"/>
       <c r="T149" t="s"/>
-      <c r="U149" t="s"/>
-      <c r="V149" t="s"/>
-      <c r="W149" t="s"/>
-      <c r="X149" t="s"/>
-      <c r="Y149" t="s"/>
-    </row>
-    <row r="150" spans="1:25">
+    </row>
+    <row r="150" spans="1:20">
       <c r="A150" t="s"/>
       <c r="B150" t="s"/>
       <c r="C150" t="s"/>
@@ -6780,11 +5908,11 @@
       <c r="G150" t="s"/>
       <c r="H150" t="s"/>
       <c r="I150" t="s"/>
-      <c r="J150" t="s">
-        <v>416</v>
-      </c>
+      <c r="J150" t="s"/>
       <c r="K150" t="s"/>
-      <c r="L150" t="s"/>
+      <c r="L150" t="s">
+        <v>397</v>
+      </c>
       <c r="M150" t="s"/>
       <c r="N150" t="s"/>
       <c r="O150" t="s"/>
@@ -6793,13 +5921,8 @@
       <c r="R150" t="s"/>
       <c r="S150" t="s"/>
       <c r="T150" t="s"/>
-      <c r="U150" t="s"/>
-      <c r="V150" t="s"/>
-      <c r="W150" t="s"/>
-      <c r="X150" t="s"/>
-      <c r="Y150" t="s"/>
-    </row>
-    <row r="151" spans="1:25">
+    </row>
+    <row r="151" spans="1:20">
       <c r="A151" t="s"/>
       <c r="B151" t="s"/>
       <c r="C151" t="s"/>
@@ -6809,11 +5932,11 @@
       <c r="G151" t="s"/>
       <c r="H151" t="s"/>
       <c r="I151" t="s"/>
-      <c r="J151" t="s">
-        <v>417</v>
-      </c>
+      <c r="J151" t="s"/>
       <c r="K151" t="s"/>
-      <c r="L151" t="s"/>
+      <c r="L151" t="s">
+        <v>398</v>
+      </c>
       <c r="M151" t="s"/>
       <c r="N151" t="s"/>
       <c r="O151" t="s"/>
@@ -6822,13 +5945,8 @@
       <c r="R151" t="s"/>
       <c r="S151" t="s"/>
       <c r="T151" t="s"/>
-      <c r="U151" t="s"/>
-      <c r="V151" t="s"/>
-      <c r="W151" t="s"/>
-      <c r="X151" t="s"/>
-      <c r="Y151" t="s"/>
-    </row>
-    <row r="152" spans="1:25">
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" t="s"/>
       <c r="B152" t="s"/>
       <c r="C152" t="s"/>
@@ -6838,11 +5956,11 @@
       <c r="G152" t="s"/>
       <c r="H152" t="s"/>
       <c r="I152" t="s"/>
-      <c r="J152" t="s">
-        <v>418</v>
-      </c>
+      <c r="J152" t="s"/>
       <c r="K152" t="s"/>
-      <c r="L152" t="s"/>
+      <c r="L152" t="s">
+        <v>399</v>
+      </c>
       <c r="M152" t="s"/>
       <c r="N152" t="s"/>
       <c r="O152" t="s"/>
@@ -6851,13 +5969,8 @@
       <c r="R152" t="s"/>
       <c r="S152" t="s"/>
       <c r="T152" t="s"/>
-      <c r="U152" t="s"/>
-      <c r="V152" t="s"/>
-      <c r="W152" t="s"/>
-      <c r="X152" t="s"/>
-      <c r="Y152" t="s"/>
-    </row>
-    <row r="153" spans="1:25">
+    </row>
+    <row r="153" spans="1:20">
       <c r="A153" t="s"/>
       <c r="B153" t="s"/>
       <c r="C153" t="s"/>
@@ -6867,11 +5980,11 @@
       <c r="G153" t="s"/>
       <c r="H153" t="s"/>
       <c r="I153" t="s"/>
-      <c r="J153" t="s">
-        <v>419</v>
-      </c>
+      <c r="J153" t="s"/>
       <c r="K153" t="s"/>
-      <c r="L153" t="s"/>
+      <c r="L153" t="s">
+        <v>400</v>
+      </c>
       <c r="M153" t="s"/>
       <c r="N153" t="s"/>
       <c r="O153" t="s"/>
@@ -6880,13 +5993,8 @@
       <c r="R153" t="s"/>
       <c r="S153" t="s"/>
       <c r="T153" t="s"/>
-      <c r="U153" t="s"/>
-      <c r="V153" t="s"/>
-      <c r="W153" t="s"/>
-      <c r="X153" t="s"/>
-      <c r="Y153" t="s"/>
-    </row>
-    <row r="154" spans="1:25">
+    </row>
+    <row r="154" spans="1:20">
       <c r="A154" t="s"/>
       <c r="B154" t="s"/>
       <c r="C154" t="s"/>
@@ -6896,11 +6004,11 @@
       <c r="G154" t="s"/>
       <c r="H154" t="s"/>
       <c r="I154" t="s"/>
-      <c r="J154" t="s">
-        <v>420</v>
-      </c>
+      <c r="J154" t="s"/>
       <c r="K154" t="s"/>
-      <c r="L154" t="s"/>
+      <c r="L154" t="s">
+        <v>401</v>
+      </c>
       <c r="M154" t="s"/>
       <c r="N154" t="s"/>
       <c r="O154" t="s"/>
@@ -6909,13 +6017,8 @@
       <c r="R154" t="s"/>
       <c r="S154" t="s"/>
       <c r="T154" t="s"/>
-      <c r="U154" t="s"/>
-      <c r="V154" t="s"/>
-      <c r="W154" t="s"/>
-      <c r="X154" t="s"/>
-      <c r="Y154" t="s"/>
-    </row>
-    <row r="155" spans="1:25">
+    </row>
+    <row r="155" spans="1:20">
       <c r="A155" t="s"/>
       <c r="B155" t="s"/>
       <c r="C155" t="s"/>
@@ -6925,11 +6028,11 @@
       <c r="G155" t="s"/>
       <c r="H155" t="s"/>
       <c r="I155" t="s"/>
-      <c r="J155" t="s">
-        <v>421</v>
-      </c>
+      <c r="J155" t="s"/>
       <c r="K155" t="s"/>
-      <c r="L155" t="s"/>
+      <c r="L155" t="s">
+        <v>402</v>
+      </c>
       <c r="M155" t="s"/>
       <c r="N155" t="s"/>
       <c r="O155" t="s"/>
@@ -6938,13 +6041,8 @@
       <c r="R155" t="s"/>
       <c r="S155" t="s"/>
       <c r="T155" t="s"/>
-      <c r="U155" t="s"/>
-      <c r="V155" t="s"/>
-      <c r="W155" t="s"/>
-      <c r="X155" t="s"/>
-      <c r="Y155" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>